--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7290" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7323" uniqueCount="572">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T18:33:54+00:00</t>
+    <t>2024-08-07T20:05:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1496,6 +1496,18 @@
   </si>
   <si>
     <t>Goal.category:pcoCategory</t>
+  </si>
+  <si>
+    <t>Goal.category:goalDomain</t>
+  </si>
+  <si>
+    <t>goalDomain</t>
+  </si>
+  <si>
+    <t>Goal domain</t>
+  </si>
+  <si>
+    <t>http://mtnlotus.com/uv/pco/ValueSet/pco-goal-domains-example</t>
   </si>
   <si>
     <t>Goal.priority</t>
@@ -2454,7 +2466,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="67">
@@ -2462,7 +2474,7 @@
         <v>4</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="68">
@@ -2478,7 +2490,7 @@
         <v>8</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="70">
@@ -2486,7 +2498,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="71">
@@ -2540,7 +2552,7 @@
         <v>23</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="78">
@@ -2616,7 +2628,7 @@
         <v>2</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="88">
@@ -2624,7 +2636,7 @@
         <v>4</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="89">
@@ -2640,7 +2652,7 @@
         <v>8</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="91">
@@ -2648,7 +2660,7 @@
         <v>10</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="92">
@@ -2702,7 +2714,7 @@
         <v>23</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="99">
@@ -2772,7 +2784,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK212"/>
+  <dimension ref="A1:AK213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11777,9 +11789,11 @@
         <v>469</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="D86" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="E86" t="s" s="2">
         <v>78</v>
       </c>
@@ -11791,7 +11805,7 @@
         <v>84</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>78</v>
@@ -11803,16 +11817,14 @@
         <v>166</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="Q86" t="s" s="2">
         <v>78</v>
@@ -11837,13 +11849,11 @@
         <v>78</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="Z86" s="2"/>
       <c r="AA86" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AB86" t="s" s="2">
         <v>78</v>
@@ -11861,13 +11871,13 @@
         <v>78</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>78</v>
@@ -11881,10 +11891,10 @@
         <v>425</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11892,13 +11902,13 @@
       </c>
       <c r="F87" s="2"/>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>78</v>
@@ -11910,16 +11920,16 @@
         <v>166</v>
       </c>
       <c r="M87" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="P87" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="Q87" t="s" s="2">
         <v>78</v>
@@ -11944,13 +11954,13 @@
         <v>78</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AB87" t="s" s="2">
         <v>78</v>
@@ -11968,10 +11978,10 @@
         <v>78</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>84</v>
@@ -11988,10 +11998,10 @@
         <v>425</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12014,17 +12024,19 @@
         <v>85</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="M88" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="P88" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="Q88" t="s" s="2">
         <v>78</v>
@@ -12049,13 +12061,13 @@
         <v>78</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>78</v>
+        <v>485</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>78</v>
+        <v>486</v>
       </c>
       <c r="AB88" t="s" s="2">
         <v>78</v>
@@ -12073,7 +12085,7 @@
         <v>78</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>84</v>
@@ -12119,17 +12131,17 @@
         <v>85</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Q89" t="s" s="2">
         <v>78</v>
@@ -12154,32 +12166,34 @@
         <v>78</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>492</v>
+        <v>78</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>493</v>
+        <v>78</v>
       </c>
       <c r="AB89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AD89" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AE89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>487</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>84</v>
@@ -12196,14 +12210,12 @@
         <v>425</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="D90" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12224,17 +12236,17 @@
         <v>85</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="Q90" t="s" s="2">
         <v>78</v>
@@ -12259,31 +12271,29 @@
         <v>78</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>78</v>
+        <v>496</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>78</v>
+        <v>497</v>
       </c>
       <c r="AB90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AD90" s="2"/>
       <c r="AE90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
@@ -12303,21 +12313,23 @@
         <v>425</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="D91" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="E91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>85</v>
@@ -12326,22 +12338,20 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>295</v>
+        <v>492</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="Q91" t="s" s="2">
         <v>78</v>
@@ -12390,19 +12400,19 @@
         <v>78</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>501</v>
+        <v>78</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>502</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
@@ -12410,10 +12420,10 @@
         <v>425</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12424,10 +12434,10 @@
         <v>76</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>78</v>
@@ -12436,16 +12446,20 @@
         <v>78</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>303</v>
+        <v>501</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="Q92" t="s" s="2">
         <v>78</v>
       </c>
@@ -12493,19 +12507,19 @@
         <v>78</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>305</v>
+        <v>500</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>78</v>
+        <v>505</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>78</v>
+        <v>506</v>
       </c>
     </row>
     <row r="93">
@@ -12513,21 +12527,21 @@
         <v>425</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>78</v>
@@ -12539,17 +12553,15 @@
         <v>78</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
         <v>78</v>
@@ -12598,19 +12610,19 @@
         <v>78</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94">
@@ -12618,14 +12630,14 @@
         <v>425</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>310</v>
+        <v>127</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" t="s" s="2">
@@ -12638,26 +12650,24 @@
         <v>78</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>128</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>311</v>
+        <v>129</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="P94" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
         <v>78</v>
       </c>
@@ -12705,7 +12715,7 @@
         <v>78</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>76</v>
@@ -12725,42 +12735,46 @@
         <v>425</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>507</v>
+        <v>311</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="Q95" t="s" s="2">
         <v>78</v>
       </c>
@@ -12784,13 +12798,13 @@
         <v>78</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>509</v>
+        <v>78</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AB95" t="s" s="2">
         <v>78</v>
@@ -12808,19 +12822,19 @@
         <v>78</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>506</v>
+        <v>313</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>501</v>
+        <v>78</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96">
@@ -12854,17 +12868,15 @@
         <v>85</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="N96" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>514</v>
-      </c>
+      <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
         <v>78</v>
@@ -12892,10 +12904,10 @@
         <v>274</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AA96" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AB96" t="s" s="2">
         <v>78</v>
@@ -12922,7 +12934,7 @@
         <v>84</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>96</v>
@@ -12933,10 +12945,10 @@
         <v>425</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12950,7 +12962,7 @@
         <v>84</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
         <v>78</v>
@@ -12959,18 +12971,18 @@
         <v>85</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N97" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="N97" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>520</v>
-      </c>
+      <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
         <v>78</v>
       </c>
@@ -12994,10 +13006,10 @@
         <v>78</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>78</v>
+        <v>519</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>78</v>
@@ -13018,7 +13030,7 @@
         <v>78</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>76</v>
@@ -13027,7 +13039,7 @@
         <v>84</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>78</v>
+        <v>505</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>96</v>
@@ -13038,10 +13050,10 @@
         <v>425</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13055,7 +13067,7 @@
         <v>84</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J98" t="s" s="2">
         <v>78</v>
@@ -13064,7 +13076,7 @@
         <v>85</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="M98" t="s" s="2">
         <v>522</v>
@@ -13072,10 +13084,10 @@
       <c r="N98" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="O98" t="s" s="2">
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
         <v>78</v>
       </c>
@@ -13123,7 +13135,7 @@
         <v>78</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>76</v>
@@ -13166,10 +13178,10 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>302</v>
+        <v>492</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>526</v>
@@ -13259,31 +13271,31 @@
       </c>
       <c r="F100" s="2"/>
       <c r="G100" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="N100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
@@ -13353,10 +13365,10 @@
         <v>425</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13364,33 +13376,33 @@
       </c>
       <c r="F101" s="2"/>
       <c r="G101" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="N101" t="s" s="2">
+      <c r="O101" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>538</v>
-      </c>
+      <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
         <v>78</v>
       </c>
@@ -13438,13 +13450,13 @@
         <v>78</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>78</v>
@@ -13458,10 +13470,10 @@
         <v>425</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13484,7 +13496,7 @@
         <v>78</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>265</v>
+        <v>539</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>540</v>
@@ -13492,11 +13504,9 @@
       <c r="N102" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="O102" t="s" s="2">
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="P102" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="Q102" t="s" s="2">
         <v>78</v>
@@ -13545,7 +13555,7 @@
         <v>78</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>76</v>
@@ -13565,10 +13575,10 @@
         <v>425</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13591,19 +13601,19 @@
         <v>78</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="M103" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="O103" t="s" s="2">
+      <c r="P103" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="P103" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="Q103" t="s" s="2">
         <v>78</v>
@@ -13628,13 +13638,13 @@
         <v>78</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>549</v>
+        <v>78</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>550</v>
+        <v>78</v>
       </c>
       <c r="AB103" t="s" s="2">
         <v>78</v>
@@ -13652,7 +13662,7 @@
         <v>78</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>76</v>
@@ -13672,10 +13682,10 @@
         <v>425</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13698,19 +13708,19 @@
         <v>78</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="P104" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="P104" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="Q104" t="s" s="2">
         <v>78</v>
@@ -13735,13 +13745,13 @@
         <v>78</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>78</v>
+        <v>553</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>78</v>
+        <v>554</v>
       </c>
       <c r="AB104" t="s" s="2">
         <v>78</v>
@@ -13759,7 +13769,7 @@
         <v>78</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>76</v>
@@ -13776,17 +13786,17 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>556</v>
+        <v>425</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>32</v>
+        <v>555</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>32</v>
+        <v>555</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" t="s" s="2">
@@ -13805,18 +13815,20 @@
         <v>78</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>80</v>
+        <v>557</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>81</v>
+        <v>558</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P105" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="Q105" t="s" s="2">
         <v>78</v>
       </c>
@@ -13864,7 +13876,7 @@
         <v>78</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>32</v>
+        <v>555</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>76</v>
@@ -13876,29 +13888,29 @@
         <v>78</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>78</v>
@@ -13907,19 +13919,19 @@
         <v>78</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
@@ -13969,30 +13981,30 @@
         <v>78</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -14015,15 +14027,17 @@
         <v>85</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O107" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
         <v>78</v>
@@ -14072,7 +14086,7 @@
         <v>78</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>76</v>
@@ -14084,18 +14098,18 @@
         <v>78</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14112,23 +14126,21 @@
         <v>78</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
         <v>78</v>
@@ -14177,7 +14189,7 @@
         <v>78</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
@@ -14194,13 +14206,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -14217,22 +14229,22 @@
         <v>78</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
@@ -14258,13 +14270,13 @@
         <v>78</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="AB109" t="s" s="2">
         <v>78</v>
@@ -14282,7 +14294,7 @@
         <v>78</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>76</v>
@@ -14299,17 +14311,17 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" t="s" s="2">
@@ -14328,16 +14340,16 @@
         <v>78</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
@@ -14363,13 +14375,13 @@
         <v>78</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="AA110" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AB110" t="s" s="2">
         <v>78</v>
@@ -14387,7 +14399,7 @@
         <v>78</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>76</v>
@@ -14404,24 +14416,24 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>78</v>
@@ -14433,16 +14445,16 @@
         <v>78</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" t="s" s="2">
@@ -14492,34 +14504,34 @@
         <v>78</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" t="s" s="2">
@@ -14538,16 +14550,16 @@
         <v>78</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
@@ -14597,7 +14609,7 @@
         <v>78</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>76</v>
@@ -14609,18 +14621,18 @@
         <v>78</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -14637,7 +14649,7 @@
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>78</v>
@@ -14646,17 +14658,15 @@
         <v>128</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="P113" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="P113" s="2"/>
       <c r="Q113" t="s" s="2">
         <v>78</v>
       </c>
@@ -14704,7 +14714,7 @@
         <v>78</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>76</v>
@@ -14721,17 +14731,17 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" t="s" s="2">
@@ -14744,23 +14754,25 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O114" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="P114" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Q114" t="s" s="2">
         <v>78</v>
@@ -14809,7 +14821,7 @@
         <v>78</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>76</v>
@@ -14821,22 +14833,22 @@
         <v>78</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" t="s" s="2">
@@ -14855,17 +14867,17 @@
         <v>85</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q115" t="s" s="2">
         <v>78</v>
@@ -14914,7 +14926,7 @@
         <v>78</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>76</v>
@@ -14931,17 +14943,17 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" t="s" s="2">
@@ -14960,18 +14972,18 @@
         <v>85</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="P116" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="Q116" t="s" s="2">
         <v>78</v>
       </c>
@@ -15019,7 +15031,7 @@
         <v>78</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>76</v>
@@ -15036,49 +15048,47 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="P117" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
         <v>78</v>
       </c>
@@ -15102,13 +15112,13 @@
         <v>78</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="AB117" t="s" s="2">
         <v>78</v>
@@ -15126,13 +15136,13 @@
         <v>78</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>78</v>
@@ -15143,13 +15153,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15157,34 +15167,34 @@
       </c>
       <c r="F118" s="2"/>
       <c r="G118" t="s" s="2">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="P118" t="s" s="2">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="Q118" t="s" s="2">
         <v>78</v>
@@ -15209,35 +15219,37 @@
         <v>78</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AB118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AC118" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AD118" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AE118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>78</v>
@@ -15248,26 +15260,24 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="D119" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" t="s" s="2">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>85</v>
@@ -15291,7 +15301,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="Q119" t="s" s="2">
         <v>78</v>
@@ -15301,7 +15311,7 @@
         <v>78</v>
       </c>
       <c r="T119" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="U119" t="s" s="2">
         <v>78</v>
@@ -15328,16 +15338,14 @@
         <v>78</v>
       </c>
       <c r="AC119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="AD119" s="2"/>
       <c r="AE119" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>164</v>
@@ -15357,26 +15365,26 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>164</v>
       </c>
       <c r="D120" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E120" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I120" t="s" s="2">
         <v>85</v>
@@ -15394,13 +15402,13 @@
         <v>167</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>169</v>
       </c>
       <c r="P120" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Q120" t="s" s="2">
         <v>78</v>
@@ -15410,7 +15418,7 @@
         <v>78</v>
       </c>
       <c r="T120" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="U120" t="s" s="2">
         <v>78</v>
@@ -15425,13 +15433,13 @@
         <v>78</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="AB120" t="s" s="2">
         <v>78</v>
@@ -15466,26 +15474,26 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>164</v>
       </c>
       <c r="D121" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E121" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>85</v>
@@ -15500,16 +15508,16 @@
         <v>166</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>169</v>
       </c>
       <c r="P121" t="s" s="2">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="Q121" t="s" s="2">
         <v>78</v>
@@ -15519,7 +15527,7 @@
         <v>78</v>
       </c>
       <c r="T121" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="U121" t="s" s="2">
         <v>78</v>
@@ -15534,13 +15542,13 @@
         <v>78</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AA121" t="s" s="2">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AB121" t="s" s="2">
         <v>78</v>
@@ -15575,17 +15583,19 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="D122" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="D122" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="E122" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" t="s" s="2">
@@ -15601,22 +15611,22 @@
         <v>78</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L122" t="s" s="2">
         <v>166</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="P122" t="s" s="2">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="Q122" t="s" s="2">
         <v>78</v>
@@ -15626,7 +15636,7 @@
         <v>78</v>
       </c>
       <c r="T122" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="U122" t="s" s="2">
         <v>78</v>
@@ -15643,9 +15653,11 @@
       <c r="Y122" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z122" s="2"/>
+      <c r="Z122" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="AA122" t="s" s="2">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="AB122" t="s" s="2">
         <v>78</v>
@@ -15663,13 +15675,13 @@
         <v>78</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>78</v>
@@ -15680,17 +15692,17 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" t="s" s="2">
@@ -15709,19 +15721,19 @@
         <v>85</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="P123" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="Q123" t="s" s="2">
         <v>78</v>
@@ -15731,7 +15743,7 @@
         <v>78</v>
       </c>
       <c r="T123" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="U123" t="s" s="2">
         <v>78</v>
@@ -15746,13 +15758,11 @@
         <v>78</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Z123" s="2"/>
       <c r="AA123" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="AB123" t="s" s="2">
         <v>78</v>
@@ -15770,10 +15780,10 @@
         <v>78</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>84</v>
@@ -15787,13 +15797,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -15816,18 +15826,20 @@
         <v>85</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="P124" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="P124" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="Q124" t="s" s="2">
         <v>78</v>
       </c>
@@ -15875,13 +15887,13 @@
         <v>78</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>78</v>
@@ -15892,27 +15904,27 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J125" t="s" s="2">
         <v>78</v>
@@ -15921,20 +15933,18 @@
         <v>85</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="P125" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="P125" s="2"/>
       <c r="Q125" t="s" s="2">
         <v>78</v>
       </c>
@@ -15982,13 +15992,13 @@
         <v>78</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>78</v>
@@ -15999,27 +16009,27 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J126" t="s" s="2">
         <v>78</v>
@@ -16028,19 +16038,19 @@
         <v>85</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="P126" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Q126" t="s" s="2">
         <v>78</v>
@@ -16077,17 +16087,19 @@
         <v>78</v>
       </c>
       <c r="AC126" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AD126" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AE126" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>76</v>
@@ -16096,25 +16108,23 @@
         <v>84</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>225</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C127" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="D127" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>216</v>
       </c>
@@ -16138,7 +16148,7 @@
         <v>217</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="N127" t="s" s="2">
         <v>219</v>
@@ -16184,16 +16194,14 @@
         <v>78</v>
       </c>
       <c r="AC127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AD127" s="2"/>
       <c r="AE127" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>215</v>
@@ -16213,27 +16221,29 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="D128" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="D128" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="E128" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J128" t="s" s="2">
         <v>78</v>
@@ -16242,18 +16252,20 @@
         <v>85</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="P128" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="P128" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="Q128" t="s" s="2">
         <v>78</v>
       </c>
@@ -16301,7 +16313,7 @@
         <v>78</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>76</v>
@@ -16310,21 +16322,21 @@
         <v>84</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>96</v>
+        <v>225</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -16335,10 +16347,10 @@
         <v>76</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>78</v>
@@ -16347,20 +16359,18 @@
         <v>85</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="P129" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
         <v>78</v>
       </c>
@@ -16408,13 +16418,13 @@
         <v>78</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>78</v>
@@ -16425,13 +16435,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -16439,10 +16449,10 @@
       </c>
       <c r="F130" s="2"/>
       <c r="G130" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I130" t="s" s="2">
         <v>85</v>
@@ -16454,19 +16464,19 @@
         <v>85</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P130" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q130" t="s" s="2">
         <v>78</v>
@@ -16491,11 +16501,13 @@
         <v>78</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Z130" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AA130" t="s" s="2">
-        <v>415</v>
+        <v>78</v>
       </c>
       <c r="AB130" t="s" s="2">
         <v>78</v>
@@ -16513,16 +16525,16 @@
         <v>78</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>96</v>
@@ -16530,13 +16542,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16544,7 +16556,7 @@
       </c>
       <c r="F131" s="2"/>
       <c r="G131" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>84</v>
@@ -16556,22 +16568,22 @@
         <v>78</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L131" t="s" s="2">
         <v>166</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="P131" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Q131" t="s" s="2">
         <v>78</v>
@@ -16596,13 +16608,11 @@
         <v>78</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Z131" s="2"/>
       <c r="AA131" t="s" s="2">
-        <v>254</v>
+        <v>415</v>
       </c>
       <c r="AB131" t="s" s="2">
         <v>78</v>
@@ -16620,7 +16630,7 @@
         <v>78</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>76</v>
@@ -16629,7 +16639,7 @@
         <v>84</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>96</v>
@@ -16637,27 +16647,27 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J132" t="s" s="2">
         <v>78</v>
@@ -16669,16 +16679,16 @@
         <v>166</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="P132" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="Q132" t="s" s="2">
         <v>78</v>
@@ -16706,10 +16716,10 @@
         <v>252</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AA132" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AB132" t="s" s="2">
         <v>78</v>
@@ -16727,16 +16737,16 @@
         <v>78</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>96</v>
@@ -16744,17 +16754,17 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" t="s" s="2">
@@ -16773,19 +16783,19 @@
         <v>78</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="P133" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="Q133" t="s" s="2">
         <v>78</v>
@@ -16810,13 +16820,13 @@
         <v>78</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="AA133" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="AB133" t="s" s="2">
         <v>78</v>
@@ -16834,7 +16844,7 @@
         <v>78</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>76</v>
@@ -16851,13 +16861,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -16868,7 +16878,7 @@
         <v>76</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I134" t="s" s="2">
         <v>78</v>
@@ -16880,18 +16890,20 @@
         <v>78</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="P134" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="P134" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="Q134" t="s" s="2">
         <v>78</v>
       </c>
@@ -16915,13 +16927,13 @@
         <v>78</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="AA134" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="AB134" t="s" s="2">
         <v>78</v>
@@ -16939,13 +16951,13 @@
         <v>78</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>78</v>
@@ -16956,13 +16968,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16988,17 +17000,15 @@
         <v>166</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="P135" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
         <v>78</v>
       </c>
@@ -17025,10 +17035,10 @@
         <v>274</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="AA135" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="AB135" t="s" s="2">
         <v>78</v>
@@ -17046,7 +17056,7 @@
         <v>78</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>76</v>
@@ -17063,13 +17073,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -17092,18 +17102,20 @@
         <v>78</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>285</v>
+        <v>166</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="P136" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="P136" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="Q136" t="s" s="2">
         <v>78</v>
       </c>
@@ -17127,13 +17139,13 @@
         <v>78</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="AA136" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="AB136" t="s" s="2">
         <v>78</v>
@@ -17151,7 +17163,7 @@
         <v>78</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>76</v>
@@ -17168,13 +17180,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -17197,16 +17209,16 @@
         <v>78</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P137" s="2"/>
       <c r="Q137" t="s" s="2">
@@ -17256,7 +17268,7 @@
         <v>78</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>76</v>
@@ -17273,13 +17285,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -17290,7 +17302,7 @@
         <v>76</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I138" t="s" s="2">
         <v>78</v>
@@ -17302,20 +17314,18 @@
         <v>78</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="P138" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="P138" s="2"/>
       <c r="Q138" t="s" s="2">
         <v>78</v>
       </c>
@@ -17363,30 +17373,30 @@
         <v>78</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>300</v>
+        <v>96</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -17397,7 +17407,7 @@
         <v>76</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I139" t="s" s="2">
         <v>78</v>
@@ -17409,16 +17419,20 @@
         <v>78</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="P139" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="Q139" t="s" s="2">
         <v>78</v>
       </c>
@@ -17466,41 +17480,41 @@
         <v>78</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I140" t="s" s="2">
         <v>78</v>
@@ -17512,17 +17526,15 @@
         <v>78</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O140" s="2"/>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
         <v>78</v>
@@ -17571,34 +17583,34 @@
         <v>78</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
-        <v>310</v>
+        <v>127</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" t="s" s="2">
@@ -17611,26 +17623,24 @@
         <v>78</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L141" t="s" s="2">
         <v>128</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>311</v>
+        <v>129</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="P141" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
         <v>78</v>
       </c>
@@ -17678,7 +17688,7 @@
         <v>78</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>76</v>
@@ -17695,45 +17705,49 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I142" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>315</v>
+        <v>128</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O142" s="2"/>
-      <c r="P142" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="O142" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P142" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="Q142" t="s" s="2">
         <v>78</v>
       </c>
@@ -17781,30 +17795,30 @@
         <v>78</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -17830,10 +17844,10 @@
         <v>315</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -17884,7 +17898,7 @@
         <v>78</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>76</v>
@@ -17901,13 +17915,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -17930,20 +17944,16 @@
         <v>78</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>166</v>
+        <v>315</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="P144" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
         <v>78</v>
       </c>
@@ -17967,13 +17977,13 @@
         <v>78</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="AA144" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="AB144" t="s" s="2">
         <v>78</v>
@@ -17991,7 +18001,7 @@
         <v>78</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>76</v>
@@ -18000,7 +18010,7 @@
         <v>84</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>96</v>
@@ -18008,13 +18018,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -18025,7 +18035,7 @@
         <v>76</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I145" t="s" s="2">
         <v>78</v>
@@ -18040,16 +18050,16 @@
         <v>166</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="P145" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="Q145" t="s" s="2">
         <v>78</v>
@@ -18074,13 +18084,13 @@
         <v>78</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>274</v>
+        <v>108</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AA145" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AB145" t="s" s="2">
         <v>78</v>
@@ -18098,13 +18108,13 @@
         <v>78</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>78</v>
@@ -18115,13 +18125,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -18132,7 +18142,7 @@
         <v>76</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I146" t="s" s="2">
         <v>78</v>
@@ -18144,17 +18154,19 @@
         <v>78</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>337</v>
+        <v>166</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O146" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="P146" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="Q146" t="s" s="2">
         <v>78</v>
@@ -18179,13 +18191,13 @@
         <v>78</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="AA146" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="AB146" t="s" s="2">
         <v>78</v>
@@ -18203,13 +18215,13 @@
         <v>78</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>78</v>
@@ -18220,13 +18232,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -18249,16 +18261,18 @@
         <v>78</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
+      <c r="P147" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="Q147" t="s" s="2">
         <v>78</v>
       </c>
@@ -18306,7 +18320,7 @@
         <v>78</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>76</v>
@@ -18323,13 +18337,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -18340,29 +18354,27 @@
         <v>76</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J148" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="O148" s="2"/>
       <c r="P148" s="2"/>
       <c r="Q148" t="s" s="2">
         <v>78</v>
@@ -18411,13 +18423,13 @@
         <v>78</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>78</v>
@@ -18428,13 +18440,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -18457,16 +18469,16 @@
         <v>85</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" t="s" s="2">
@@ -18516,7 +18528,7 @@
         <v>78</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>76</v>
@@ -18533,13 +18545,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -18553,7 +18565,7 @@
         <v>77</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J150" t="s" s="2">
         <v>78</v>
@@ -18562,20 +18574,18 @@
         <v>85</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="P150" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
         <v>78</v>
       </c>
@@ -18623,7 +18633,7 @@
         <v>78</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>76</v>
@@ -18640,13 +18650,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -18657,7 +18667,7 @@
         <v>76</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>78</v>
@@ -18666,19 +18676,23 @@
         <v>78</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O151" s="2"/>
-      <c r="P151" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="O151" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="P151" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="Q151" t="s" s="2">
         <v>78</v>
       </c>
@@ -18726,41 +18740,41 @@
         <v>78</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I152" t="s" s="2">
         <v>78</v>
@@ -18772,17 +18786,15 @@
         <v>78</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O152" s="2"/>
       <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
         <v>78</v>
@@ -18831,34 +18843,34 @@
         <v>78</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
-        <v>310</v>
+        <v>127</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" t="s" s="2">
@@ -18871,26 +18883,24 @@
         <v>78</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L153" t="s" s="2">
         <v>128</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>311</v>
+        <v>129</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="P153" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="P153" s="2"/>
       <c r="Q153" t="s" s="2">
         <v>78</v>
       </c>
@@ -18938,7 +18948,7 @@
         <v>78</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>76</v>
@@ -18955,48 +18965,48 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I154" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K154" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>365</v>
+        <v>131</v>
       </c>
       <c r="P154" t="s" s="2">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="Q154" t="s" s="2">
         <v>78</v>
@@ -19021,13 +19031,13 @@
         <v>78</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="Z154" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="AA154" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AB154" t="s" s="2">
         <v>78</v>
@@ -19045,30 +19055,30 @@
         <v>78</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -19076,7 +19086,7 @@
       </c>
       <c r="F155" s="2"/>
       <c r="G155" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H155" t="s" s="2">
         <v>84</v>
@@ -19091,19 +19101,19 @@
         <v>85</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>369</v>
+        <v>166</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>242</v>
+        <v>364</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="P155" t="s" s="2">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="Q155" t="s" s="2">
         <v>78</v>
@@ -19128,13 +19138,13 @@
         <v>78</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="AA155" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AB155" t="s" s="2">
         <v>78</v>
@@ -19152,10 +19162,10 @@
         <v>78</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI155" t="s" s="2">
         <v>84</v>
@@ -19169,13 +19179,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -19195,22 +19205,22 @@
         <v>78</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>166</v>
+        <v>369</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>374</v>
+        <v>242</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P156" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Q156" t="s" s="2">
         <v>78</v>
@@ -19235,13 +19245,13 @@
         <v>78</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="Z156" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="AA156" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="AB156" t="s" s="2">
         <v>78</v>
@@ -19259,7 +19269,7 @@
         <v>78</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>76</v>
@@ -19268,7 +19278,7 @@
         <v>84</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>96</v>
@@ -19276,24 +19286,24 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>78</v>
@@ -19308,16 +19318,16 @@
         <v>166</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>258</v>
+        <v>373</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>259</v>
+        <v>374</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>260</v>
+        <v>375</v>
       </c>
       <c r="P157" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="Q157" t="s" s="2">
         <v>78</v>
@@ -19345,10 +19355,10 @@
         <v>252</v>
       </c>
       <c r="Z157" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AA157" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AB157" t="s" s="2">
         <v>78</v>
@@ -19366,16 +19376,16 @@
         <v>78</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>96</v>
@@ -19383,17 +19393,17 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" t="s" s="2">
@@ -19412,19 +19422,19 @@
         <v>78</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>379</v>
+        <v>258</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="P158" t="s" s="2">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="Q158" t="s" s="2">
         <v>78</v>
@@ -19449,13 +19459,13 @@
         <v>78</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="Z158" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="AA158" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="AB158" t="s" s="2">
         <v>78</v>
@@ -19473,7 +19483,7 @@
         <v>78</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>76</v>
@@ -19490,17 +19500,17 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>32</v>
+        <v>378</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>32</v>
+        <v>378</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" t="s" s="2">
@@ -19522,15 +19532,17 @@
         <v>79</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P159" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="P159" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="Q159" t="s" s="2">
         <v>78</v>
       </c>
@@ -19578,7 +19590,7 @@
         <v>78</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>32</v>
+        <v>378</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>76</v>
@@ -19590,29 +19602,29 @@
         <v>78</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I160" t="s" s="2">
         <v>78</v>
@@ -19621,19 +19633,19 @@
         <v>78</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="P160" s="2"/>
       <c r="Q160" t="s" s="2">
@@ -19683,30 +19695,30 @@
         <v>78</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -19729,15 +19741,17 @@
         <v>85</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O161" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="O161" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="P161" s="2"/>
       <c r="Q161" t="s" s="2">
         <v>78</v>
@@ -19786,7 +19800,7 @@
         <v>78</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>76</v>
@@ -19798,18 +19812,18 @@
         <v>78</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -19826,23 +19840,21 @@
         <v>78</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K162" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="O162" s="2"/>
       <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
         <v>78</v>
@@ -19891,7 +19903,7 @@
         <v>78</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>76</v>
@@ -19908,13 +19920,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -19931,22 +19943,22 @@
         <v>78</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" t="s" s="2">
@@ -19972,13 +19984,13 @@
         <v>78</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="AA163" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="AB163" t="s" s="2">
         <v>78</v>
@@ -19996,7 +20008,7 @@
         <v>78</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>76</v>
@@ -20013,17 +20025,17 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" t="s" s="2">
@@ -20042,16 +20054,16 @@
         <v>78</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" t="s" s="2">
@@ -20077,13 +20089,13 @@
         <v>78</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="AA164" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AB164" t="s" s="2">
         <v>78</v>
@@ -20101,7 +20113,7 @@
         <v>78</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>76</v>
@@ -20118,24 +20130,24 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I165" t="s" s="2">
         <v>78</v>
@@ -20147,16 +20159,16 @@
         <v>78</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" t="s" s="2">
@@ -20206,34 +20218,34 @@
         <v>78</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" t="s" s="2">
@@ -20252,16 +20264,16 @@
         <v>78</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
@@ -20311,7 +20323,7 @@
         <v>78</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>76</v>
@@ -20323,18 +20335,18 @@
         <v>78</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -20351,7 +20363,7 @@
         <v>78</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K167" t="s" s="2">
         <v>78</v>
@@ -20360,17 +20372,15 @@
         <v>128</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="P167" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
         <v>78</v>
       </c>
@@ -20418,7 +20428,7 @@
         <v>78</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>76</v>
@@ -20435,17 +20445,17 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" t="s" s="2">
@@ -20458,23 +20468,25 @@
         <v>78</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O168" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="O168" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="P168" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Q168" t="s" s="2">
         <v>78</v>
@@ -20523,7 +20535,7 @@
         <v>78</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>76</v>
@@ -20535,22 +20547,22 @@
         <v>78</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" t="s" s="2">
@@ -20569,17 +20581,17 @@
         <v>85</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q169" t="s" s="2">
         <v>78</v>
@@ -20628,7 +20640,7 @@
         <v>78</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>76</v>
@@ -20645,17 +20657,17 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" t="s" s="2">
@@ -20674,18 +20686,18 @@
         <v>85</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O170" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="P170" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="O170" s="2"/>
+      <c r="P170" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="Q170" t="s" s="2">
         <v>78</v>
       </c>
@@ -20733,7 +20745,7 @@
         <v>78</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>76</v>
@@ -20750,49 +20762,47 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H171" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I171" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K171" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="P171" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
         <v>78</v>
       </c>
@@ -20816,13 +20826,13 @@
         <v>78</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="Z171" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AA171" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="AB171" t="s" s="2">
         <v>78</v>
@@ -20840,13 +20850,13 @@
         <v>78</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>78</v>
@@ -20857,13 +20867,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -20871,34 +20881,34 @@
       </c>
       <c r="F172" s="2"/>
       <c r="G172" t="s" s="2">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I172" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="P172" t="s" s="2">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="Q172" t="s" s="2">
         <v>78</v>
@@ -20923,35 +20933,37 @@
         <v>78</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="Z172" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AA172" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AB172" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AC172" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AD172" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AD172" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AE172" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="AH172" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>78</v>
@@ -20962,26 +20974,24 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C173" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="D173" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" t="s" s="2">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="H173" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I173" t="s" s="2">
         <v>85</v>
@@ -21005,7 +21015,7 @@
         <v>169</v>
       </c>
       <c r="P173" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="Q173" t="s" s="2">
         <v>78</v>
@@ -21015,7 +21025,7 @@
         <v>78</v>
       </c>
       <c r="T173" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="U173" t="s" s="2">
         <v>78</v>
@@ -21042,16 +21052,14 @@
         <v>78</v>
       </c>
       <c r="AC173" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD173" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="AD173" s="2"/>
       <c r="AE173" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>164</v>
@@ -21071,26 +21079,26 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C174" t="s" s="2">
         <v>164</v>
       </c>
       <c r="D174" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E174" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H174" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I174" t="s" s="2">
         <v>85</v>
@@ -21108,13 +21116,13 @@
         <v>167</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>169</v>
       </c>
       <c r="P174" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Q174" t="s" s="2">
         <v>78</v>
@@ -21124,7 +21132,7 @@
         <v>78</v>
       </c>
       <c r="T174" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="U174" t="s" s="2">
         <v>78</v>
@@ -21139,13 +21147,13 @@
         <v>78</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="Z174" t="s" s="2">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="AA174" t="s" s="2">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="AB174" t="s" s="2">
         <v>78</v>
@@ -21180,26 +21188,26 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C175" t="s" s="2">
         <v>164</v>
       </c>
       <c r="D175" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E175" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H175" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I175" t="s" s="2">
         <v>85</v>
@@ -21214,16 +21222,16 @@
         <v>166</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>169</v>
       </c>
       <c r="P175" t="s" s="2">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="Q175" t="s" s="2">
         <v>78</v>
@@ -21233,7 +21241,7 @@
         <v>78</v>
       </c>
       <c r="T175" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="U175" t="s" s="2">
         <v>78</v>
@@ -21248,13 +21256,13 @@
         <v>78</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="Z175" t="s" s="2">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AA175" t="s" s="2">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AB175" t="s" s="2">
         <v>78</v>
@@ -21289,17 +21297,19 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="D176" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="D176" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="E176" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" t="s" s="2">
@@ -21315,22 +21325,22 @@
         <v>78</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L176" t="s" s="2">
         <v>166</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="P176" t="s" s="2">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="Q176" t="s" s="2">
         <v>78</v>
@@ -21340,7 +21350,7 @@
         <v>78</v>
       </c>
       <c r="T176" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="U176" t="s" s="2">
         <v>78</v>
@@ -21357,9 +21367,11 @@
       <c r="Y176" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z176" s="2"/>
+      <c r="Z176" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="AA176" t="s" s="2">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="AB176" t="s" s="2">
         <v>78</v>
@@ -21377,13 +21389,13 @@
         <v>78</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="AH176" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>78</v>
@@ -21394,17 +21406,17 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" t="s" s="2">
@@ -21423,19 +21435,19 @@
         <v>85</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="O177" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="P177" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="Q177" t="s" s="2">
         <v>78</v>
@@ -21445,7 +21457,7 @@
         <v>78</v>
       </c>
       <c r="T177" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="U177" t="s" s="2">
         <v>78</v>
@@ -21460,13 +21472,11 @@
         <v>78</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z177" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Z177" s="2"/>
       <c r="AA177" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="AB177" t="s" s="2">
         <v>78</v>
@@ -21484,10 +21494,10 @@
         <v>78</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AH177" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI177" t="s" s="2">
         <v>84</v>
@@ -21501,13 +21511,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -21530,18 +21540,20 @@
         <v>85</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="P178" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="P178" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="Q178" t="s" s="2">
         <v>78</v>
       </c>
@@ -21589,13 +21601,13 @@
         <v>78</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>78</v>
@@ -21606,27 +21618,27 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H179" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I179" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J179" t="s" s="2">
         <v>78</v>
@@ -21635,20 +21647,18 @@
         <v>85</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="P179" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="P179" s="2"/>
       <c r="Q179" t="s" s="2">
         <v>78</v>
       </c>
@@ -21696,13 +21706,13 @@
         <v>78</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>78</v>
@@ -21713,27 +21723,27 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H180" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I180" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J180" t="s" s="2">
         <v>78</v>
@@ -21742,19 +21752,19 @@
         <v>85</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="P180" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Q180" t="s" s="2">
         <v>78</v>
@@ -21791,17 +21801,19 @@
         <v>78</v>
       </c>
       <c r="AC180" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AD180" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AE180" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>76</v>
@@ -21810,25 +21822,23 @@
         <v>84</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>225</v>
+        <v>96</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C181" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="D181" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
         <v>216</v>
       </c>
@@ -21852,7 +21862,7 @@
         <v>217</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="N181" t="s" s="2">
         <v>219</v>
@@ -21898,16 +21908,14 @@
         <v>78</v>
       </c>
       <c r="AC181" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD181" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AD181" s="2"/>
       <c r="AE181" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>215</v>
@@ -21927,27 +21935,29 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="D182" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="D182" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="E182" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H182" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I182" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J182" t="s" s="2">
         <v>78</v>
@@ -21956,18 +21966,20 @@
         <v>85</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="O182" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="P182" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="P182" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="Q182" t="s" s="2">
         <v>78</v>
       </c>
@@ -22015,7 +22027,7 @@
         <v>78</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>76</v>
@@ -22024,21 +22036,21 @@
         <v>84</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>96</v>
+        <v>225</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -22049,10 +22061,10 @@
         <v>76</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I183" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J183" t="s" s="2">
         <v>78</v>
@@ -22061,20 +22073,18 @@
         <v>85</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>566</v>
+        <v>230</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="P183" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="P183" s="2"/>
       <c r="Q183" t="s" s="2">
         <v>78</v>
       </c>
@@ -22122,13 +22132,13 @@
         <v>78</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>78</v>
@@ -22139,13 +22149,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -22153,10 +22163,10 @@
       </c>
       <c r="F184" s="2"/>
       <c r="G184" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H184" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I184" t="s" s="2">
         <v>85</v>
@@ -22168,19 +22178,19 @@
         <v>85</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>166</v>
+        <v>570</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P184" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q184" t="s" s="2">
         <v>78</v>
@@ -22205,11 +22215,13 @@
         <v>78</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Z184" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AA184" t="s" s="2">
-        <v>567</v>
+        <v>78</v>
       </c>
       <c r="AB184" t="s" s="2">
         <v>78</v>
@@ -22227,16 +22239,16 @@
         <v>78</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="AK184" t="s" s="2">
         <v>96</v>
@@ -22244,13 +22256,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -22258,7 +22270,7 @@
       </c>
       <c r="F185" s="2"/>
       <c r="G185" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H185" t="s" s="2">
         <v>84</v>
@@ -22270,22 +22282,22 @@
         <v>78</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L185" t="s" s="2">
         <v>166</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="O185" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="P185" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Q185" t="s" s="2">
         <v>78</v>
@@ -22310,13 +22322,11 @@
         <v>78</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="Z185" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Z185" s="2"/>
       <c r="AA185" t="s" s="2">
-        <v>254</v>
+        <v>571</v>
       </c>
       <c r="AB185" t="s" s="2">
         <v>78</v>
@@ -22334,7 +22344,7 @@
         <v>78</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>76</v>
@@ -22343,7 +22353,7 @@
         <v>84</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="AK185" t="s" s="2">
         <v>96</v>
@@ -22351,27 +22361,27 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H186" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I186" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J186" t="s" s="2">
         <v>78</v>
@@ -22383,16 +22393,16 @@
         <v>166</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="P186" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="Q186" t="s" s="2">
         <v>78</v>
@@ -22420,10 +22430,10 @@
         <v>252</v>
       </c>
       <c r="Z186" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AA186" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AB186" t="s" s="2">
         <v>78</v>
@@ -22441,16 +22451,16 @@
         <v>78</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>96</v>
@@ -22458,17 +22468,17 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" t="s" s="2">
@@ -22487,19 +22497,19 @@
         <v>78</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="O187" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="P187" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="Q187" t="s" s="2">
         <v>78</v>
@@ -22524,13 +22534,13 @@
         <v>78</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="Z187" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="AA187" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="AB187" t="s" s="2">
         <v>78</v>
@@ -22548,7 +22558,7 @@
         <v>78</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>76</v>
@@ -22565,13 +22575,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -22582,7 +22592,7 @@
         <v>76</v>
       </c>
       <c r="H188" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I188" t="s" s="2">
         <v>78</v>
@@ -22594,18 +22604,20 @@
         <v>78</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="P188" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="P188" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="Q188" t="s" s="2">
         <v>78</v>
       </c>
@@ -22629,13 +22641,13 @@
         <v>78</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="Z188" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="AA188" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="AB188" t="s" s="2">
         <v>78</v>
@@ -22653,13 +22665,13 @@
         <v>78</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>78</v>
@@ -22670,13 +22682,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -22702,17 +22714,15 @@
         <v>166</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O189" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="P189" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="P189" s="2"/>
       <c r="Q189" t="s" s="2">
         <v>78</v>
       </c>
@@ -22739,10 +22749,10 @@
         <v>274</v>
       </c>
       <c r="Z189" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="AA189" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="AB189" t="s" s="2">
         <v>78</v>
@@ -22760,7 +22770,7 @@
         <v>78</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>76</v>
@@ -22777,13 +22787,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -22806,18 +22816,20 @@
         <v>78</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>285</v>
+        <v>166</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="O190" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="P190" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="P190" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="Q190" t="s" s="2">
         <v>78</v>
       </c>
@@ -22841,13 +22853,13 @@
         <v>78</v>
       </c>
       <c r="Y190" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="Z190" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="AA190" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="AB190" t="s" s="2">
         <v>78</v>
@@ -22865,7 +22877,7 @@
         <v>78</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>76</v>
@@ -22882,13 +22894,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -22911,16 +22923,16 @@
         <v>78</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="O191" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P191" s="2"/>
       <c r="Q191" t="s" s="2">
@@ -22970,7 +22982,7 @@
         <v>78</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>76</v>
@@ -22987,13 +22999,13 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
@@ -23004,7 +23016,7 @@
         <v>76</v>
       </c>
       <c r="H192" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I192" t="s" s="2">
         <v>78</v>
@@ -23016,20 +23028,18 @@
         <v>78</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O192" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="P192" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="P192" s="2"/>
       <c r="Q192" t="s" s="2">
         <v>78</v>
       </c>
@@ -23077,30 +23087,30 @@
         <v>78</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>300</v>
+        <v>96</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -23111,7 +23121,7 @@
         <v>76</v>
       </c>
       <c r="H193" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I193" t="s" s="2">
         <v>78</v>
@@ -23123,16 +23133,20 @@
         <v>78</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O193" s="2"/>
-      <c r="P193" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="O193" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="P193" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="Q193" t="s" s="2">
         <v>78</v>
       </c>
@@ -23180,41 +23194,41 @@
         <v>78</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H194" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I194" t="s" s="2">
         <v>78</v>
@@ -23226,17 +23240,15 @@
         <v>78</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O194" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O194" s="2"/>
       <c r="P194" s="2"/>
       <c r="Q194" t="s" s="2">
         <v>78</v>
@@ -23285,34 +23297,34 @@
         <v>78</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ194" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
-        <v>310</v>
+        <v>127</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" t="s" s="2">
@@ -23325,26 +23337,24 @@
         <v>78</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L195" t="s" s="2">
         <v>128</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>311</v>
+        <v>129</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="P195" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="P195" s="2"/>
       <c r="Q195" t="s" s="2">
         <v>78</v>
       </c>
@@ -23392,7 +23402,7 @@
         <v>78</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>76</v>
@@ -23409,45 +23419,49 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H196" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I196" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>315</v>
+        <v>128</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O196" s="2"/>
-      <c r="P196" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="O196" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P196" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="Q196" t="s" s="2">
         <v>78</v>
       </c>
@@ -23495,30 +23509,30 @@
         <v>78</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI196" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ196" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -23544,10 +23558,10 @@
         <v>315</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" s="2"/>
@@ -23598,7 +23612,7 @@
         <v>78</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>76</v>
@@ -23615,13 +23629,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -23644,20 +23658,16 @@
         <v>78</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>166</v>
+        <v>315</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O198" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="P198" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="O198" s="2"/>
+      <c r="P198" s="2"/>
       <c r="Q198" t="s" s="2">
         <v>78</v>
       </c>
@@ -23681,13 +23691,13 @@
         <v>78</v>
       </c>
       <c r="Y198" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="Z198" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="AA198" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="AB198" t="s" s="2">
         <v>78</v>
@@ -23705,7 +23715,7 @@
         <v>78</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>76</v>
@@ -23714,7 +23724,7 @@
         <v>84</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="AK198" t="s" s="2">
         <v>96</v>
@@ -23722,13 +23732,13 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -23739,7 +23749,7 @@
         <v>76</v>
       </c>
       <c r="H199" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I199" t="s" s="2">
         <v>78</v>
@@ -23754,16 +23764,16 @@
         <v>166</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="P199" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="Q199" t="s" s="2">
         <v>78</v>
@@ -23788,13 +23798,13 @@
         <v>78</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>274</v>
+        <v>108</v>
       </c>
       <c r="Z199" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AA199" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AB199" t="s" s="2">
         <v>78</v>
@@ -23812,13 +23822,13 @@
         <v>78</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ199" t="s" s="2">
         <v>78</v>
@@ -23829,13 +23839,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -23846,7 +23856,7 @@
         <v>76</v>
       </c>
       <c r="H200" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I200" t="s" s="2">
         <v>78</v>
@@ -23858,17 +23868,19 @@
         <v>78</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>337</v>
+        <v>166</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O200" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="O200" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="P200" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="Q200" t="s" s="2">
         <v>78</v>
@@ -23893,13 +23905,13 @@
         <v>78</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="AA200" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="AB200" t="s" s="2">
         <v>78</v>
@@ -23917,13 +23929,13 @@
         <v>78</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="AH200" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ200" t="s" s="2">
         <v>78</v>
@@ -23934,13 +23946,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -23963,16 +23975,18 @@
         <v>78</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O201" s="2"/>
-      <c r="P201" s="2"/>
+      <c r="P201" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="Q201" t="s" s="2">
         <v>78</v>
       </c>
@@ -24020,7 +24034,7 @@
         <v>78</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>76</v>
@@ -24037,13 +24051,13 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -24054,29 +24068,27 @@
         <v>76</v>
       </c>
       <c r="H202" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I202" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J202" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O202" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="O202" s="2"/>
       <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
         <v>78</v>
@@ -24125,13 +24137,13 @@
         <v>78</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI202" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ202" t="s" s="2">
         <v>78</v>
@@ -24142,13 +24154,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -24171,16 +24183,16 @@
         <v>85</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="O203" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
@@ -24230,7 +24242,7 @@
         <v>78</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>76</v>
@@ -24247,13 +24259,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -24267,7 +24279,7 @@
         <v>77</v>
       </c>
       <c r="I204" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J204" t="s" s="2">
         <v>78</v>
@@ -24276,20 +24288,18 @@
         <v>85</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="O204" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="P204" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="P204" s="2"/>
       <c r="Q204" t="s" s="2">
         <v>78</v>
       </c>
@@ -24337,7 +24347,7 @@
         <v>78</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>76</v>
@@ -24354,13 +24364,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -24371,7 +24381,7 @@
         <v>76</v>
       </c>
       <c r="H205" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I205" t="s" s="2">
         <v>78</v>
@@ -24380,19 +24390,23 @@
         <v>78</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O205" s="2"/>
-      <c r="P205" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="O205" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="P205" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="Q205" t="s" s="2">
         <v>78</v>
       </c>
@@ -24440,41 +24454,41 @@
         <v>78</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ205" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H206" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I206" t="s" s="2">
         <v>78</v>
@@ -24486,17 +24500,15 @@
         <v>78</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O206" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O206" s="2"/>
       <c r="P206" s="2"/>
       <c r="Q206" t="s" s="2">
         <v>78</v>
@@ -24545,34 +24557,34 @@
         <v>78</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ206" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK206" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
-        <v>310</v>
+        <v>127</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" t="s" s="2">
@@ -24585,26 +24597,24 @@
         <v>78</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L207" t="s" s="2">
         <v>128</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>311</v>
+        <v>129</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="P207" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="P207" s="2"/>
       <c r="Q207" t="s" s="2">
         <v>78</v>
       </c>
@@ -24652,7 +24662,7 @@
         <v>78</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>76</v>
@@ -24669,48 +24679,48 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H208" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I208" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K208" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>365</v>
+        <v>131</v>
       </c>
       <c r="P208" t="s" s="2">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="Q208" t="s" s="2">
         <v>78</v>
@@ -24735,13 +24745,13 @@
         <v>78</v>
       </c>
       <c r="Y208" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="Z208" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="AA208" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AB208" t="s" s="2">
         <v>78</v>
@@ -24759,30 +24769,30 @@
         <v>78</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="AH208" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -24790,7 +24800,7 @@
       </c>
       <c r="F209" s="2"/>
       <c r="G209" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H209" t="s" s="2">
         <v>84</v>
@@ -24805,19 +24815,19 @@
         <v>85</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>369</v>
+        <v>166</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>242</v>
+        <v>364</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="P209" t="s" s="2">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="Q209" t="s" s="2">
         <v>78</v>
@@ -24842,13 +24852,13 @@
         <v>78</v>
       </c>
       <c r="Y209" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="Z209" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="AA209" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AB209" t="s" s="2">
         <v>78</v>
@@ -24866,10 +24876,10 @@
         <v>78</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AH209" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI209" t="s" s="2">
         <v>84</v>
@@ -24883,13 +24893,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -24909,22 +24919,22 @@
         <v>78</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>166</v>
+        <v>369</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>374</v>
+        <v>242</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P210" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Q210" t="s" s="2">
         <v>78</v>
@@ -24949,13 +24959,13 @@
         <v>78</v>
       </c>
       <c r="Y210" t="s" s="2">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="Z210" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="AA210" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="AB210" t="s" s="2">
         <v>78</v>
@@ -24973,7 +24983,7 @@
         <v>78</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>76</v>
@@ -24982,7 +24992,7 @@
         <v>84</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="AK210" t="s" s="2">
         <v>96</v>
@@ -24990,24 +25000,24 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="F211" s="2"/>
       <c r="G211" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H211" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I211" t="s" s="2">
         <v>78</v>
@@ -25022,16 +25032,16 @@
         <v>166</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>258</v>
+        <v>373</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>259</v>
+        <v>374</v>
       </c>
       <c r="O211" t="s" s="2">
-        <v>260</v>
+        <v>375</v>
       </c>
       <c r="P211" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="Q211" t="s" s="2">
         <v>78</v>
@@ -25059,10 +25069,10 @@
         <v>252</v>
       </c>
       <c r="Z211" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AA211" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AB211" t="s" s="2">
         <v>78</v>
@@ -25080,16 +25090,16 @@
         <v>78</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="AK211" t="s" s="2">
         <v>96</v>
@@ -25097,17 +25107,17 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" t="s" s="2">
@@ -25126,19 +25136,19 @@
         <v>78</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>379</v>
+        <v>258</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="O212" t="s" s="2">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="P212" t="s" s="2">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="Q212" t="s" s="2">
         <v>78</v>
@@ -25163,13 +25173,13 @@
         <v>78</v>
       </c>
       <c r="Y212" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="Z212" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="AA212" t="s" s="2">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="AB212" t="s" s="2">
         <v>78</v>
@@ -25187,7 +25197,7 @@
         <v>78</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>76</v>
@@ -25199,6 +25209,113 @@
         <v>78</v>
       </c>
       <c r="AK212" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C213" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="D213" s="2"/>
+      <c r="E213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F213" s="2"/>
+      <c r="G213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L213" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M213" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N213" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="O213" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="P213" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Q213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R213" s="2"/>
+      <c r="S213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG213" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AH213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK213" t="s" s="2">
         <v>96</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T20:05:12+00:00</t>
+    <t>2024-08-08T15:53:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T15:53:25+00:00</t>
+    <t>2024-08-08T17:33:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T17:00:10+00:00</t>
+    <t>2024-08-13T17:11:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T17:11:01+00:00</t>
+    <t>2024-08-13T22:41:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1551,7 +1551,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
+    &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/pco-gas-codes-temporary"/&gt;
     &lt;code value="goal-attainment-scaling"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -3793,7 +3793,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="78.59765625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="83.828125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="9.953125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T22:41:25+00:00</t>
+    <t>2024-08-15T16:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-15T16:20:36+00:00</t>
+    <t>2024-08-17T01:13:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:13:31+00:00</t>
+    <t>2024-08-17T01:14:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:14:43+00:00</t>
+    <t>2024-08-17T01:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9516" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12506" uniqueCount="897">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:18:03+00:00</t>
+    <t>2024-08-19T20:32:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2538,11 +2538,11 @@
     <t>Goal.addresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|MedicationStatement|NutritionOrder|ServiceRequest|RiskAssessment)
+    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-problems-health-concerns)
 </t>
   </si>
   <si>
-    <t>Issues addressed by this goal</t>
+    <t>What Matters Assessment or Condition</t>
   </si>
   <si>
     <t>The identified conditions and other health record elements that are intended to be addressed by the goal.</t>
@@ -2635,6 +2635,216 @@
   </si>
   <si>
     <t>http://mtnlotus.com/uv/pco/ValueSet/practitioner-gas-followup-vs</t>
+  </si>
+  <si>
+    <t>pco-what-matters-assessment</t>
+  </si>
+  <si>
+    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-what-matters-assessment</t>
+  </si>
+  <si>
+    <t>WhatMattersAssessment</t>
+  </si>
+  <si>
+    <t>What Matters Assessment</t>
+  </si>
+  <si>
+    <t>Assessment observation for one aspect of What Matters Most to a person, with component values rating where a person is now and where they would like to be in the future.</t>
+  </si>
+  <si>
+    <t>Focus area for What Matters assessment</t>
+  </si>
+  <si>
+    <t>http://mtnlotus.com/uv/pco/ValueSet/what-matters-focus-areas</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiminginstant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|PractitionerRole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson)
+</t>
+  </si>
+  <si>
+    <t>Components representing What Matters rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:code}
+</t>
+  </si>
+  <si>
+    <t>Observation.component:nowRating</t>
+  </si>
+  <si>
+    <t>nowRating</t>
+  </si>
+  <si>
+    <t>Observation.component:nowRating.id</t>
+  </si>
+  <si>
+    <t>Observation.component:nowRating.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:nowRating.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component:nowRating.code</t>
+  </si>
+  <si>
+    <t>Where are you now?</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/what-matters-rating"/&gt;
+    &lt;code value="nowRating"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component:nowRating.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>Rating on scale of 1 (low) to 10 (high)</t>
+  </si>
+  <si>
+    <t>Observation.component:nowRating.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Observation.component:nowRating.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component:nowRating.referenceRange</t>
+  </si>
+  <si>
+    <t>Observation.component:nowReasons</t>
+  </si>
+  <si>
+    <t>nowReasons</t>
+  </si>
+  <si>
+    <t>Observation.component:nowReasons.id</t>
+  </si>
+  <si>
+    <t>Observation.component:nowReasons.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:nowReasons.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component:nowReasons.code</t>
+  </si>
+  <si>
+    <t>What are the reasons you chose this number?</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/what-matters-rating"/&gt;
+    &lt;code value="nowReasons"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component:nowReasons.value[x]</t>
+  </si>
+  <si>
+    <t>Reasons for your rating</t>
+  </si>
+  <si>
+    <t>Observation.component:nowReasons.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Observation.component:nowReasons.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component:nowReasons.referenceRange</t>
+  </si>
+  <si>
+    <t>Observation.component:futureRating</t>
+  </si>
+  <si>
+    <t>futureRating</t>
+  </si>
+  <si>
+    <t>Observation.component:futureRating.id</t>
+  </si>
+  <si>
+    <t>Observation.component:futureRating.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:futureRating.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component:futureRating.code</t>
+  </si>
+  <si>
+    <t>Where would you like to be?</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/what-matters-rating"/&gt;
+    &lt;code value="futureRating"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component:futureRating.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.component:futureRating.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Observation.component:futureRating.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component:futureRating.referenceRange</t>
+  </si>
+  <si>
+    <t>Observation.component:futureChanges</t>
+  </si>
+  <si>
+    <t>futureChanges</t>
+  </si>
+  <si>
+    <t>Observation.component:futureChanges.id</t>
+  </si>
+  <si>
+    <t>Observation.component:futureChanges.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:futureChanges.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component:futureChanges.code</t>
+  </si>
+  <si>
+    <t>What changes could you make to help you get there?</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/what-matters-rating"/&gt;
+    &lt;code value="futureChanges"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component:futureChanges.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.component:futureChanges.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Observation.component:futureChanges.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component:futureChanges.referenceRange</t>
   </si>
 </sst>
 </file>
@@ -2768,7 +2978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B148"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3758,6 +3968,168 @@
         <v>38</v>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B148" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3765,7 +4137,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK278"/>
+  <dimension ref="A1:AK366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3774,8 +4146,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.8203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="55.18359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.67578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
@@ -21315,7 +21687,7 @@
         <v>77</v>
       </c>
       <c r="I167" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J167" t="s" s="2">
         <v>78</v>
@@ -33140,6 +33512,9340 @@
         <v>78</v>
       </c>
       <c r="AK278" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B279" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C279" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="D279" s="2"/>
+      <c r="E279" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="F279" s="2"/>
+      <c r="G279" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H279" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L279" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M279" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N279" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="O279" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P279" s="2"/>
+      <c r="Q279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R279" s="2"/>
+      <c r="S279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG279" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AH279" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI279" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK279" t="s" s="2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B280" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C280" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="D280" s="2"/>
+      <c r="E280" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F280" s="2"/>
+      <c r="G280" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H280" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I280" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J280" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K280" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L280" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M280" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="N280" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="O280" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="P280" s="2"/>
+      <c r="Q280" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R280" s="2"/>
+      <c r="S280" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T280" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U280" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V280" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W280" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X280" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y280" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z280" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA280" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB280" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC280" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD280" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE280" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF280" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG280" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH280" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI280" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ280" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK280" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B281" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C281" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="D281" s="2"/>
+      <c r="E281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F281" s="2"/>
+      <c r="G281" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H281" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K281" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L281" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M281" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N281" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O281" s="2"/>
+      <c r="P281" s="2"/>
+      <c r="Q281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R281" s="2"/>
+      <c r="S281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG281" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH281" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI281" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ281" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK281" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B282" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C282" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="D282" s="2"/>
+      <c r="E282" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F282" s="2"/>
+      <c r="G282" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H282" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I282" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J282" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K282" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L282" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M282" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N282" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O282" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="P282" s="2"/>
+      <c r="Q282" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R282" s="2"/>
+      <c r="S282" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T282" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U282" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V282" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W282" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X282" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y282" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z282" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA282" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB282" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC282" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD282" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE282" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF282" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG282" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AH282" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI282" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ282" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK282" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B283" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C283" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="D283" s="2"/>
+      <c r="E283" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F283" s="2"/>
+      <c r="G283" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H283" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I283" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J283" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K283" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L283" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M283" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N283" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O283" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="P283" s="2"/>
+      <c r="Q283" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R283" s="2"/>
+      <c r="S283" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T283" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U283" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V283" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W283" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X283" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y283" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z283" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AA283" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AB283" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC283" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD283" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE283" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF283" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG283" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AH283" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI283" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ283" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK283" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B284" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C284" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="D284" s="2"/>
+      <c r="E284" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="F284" s="2"/>
+      <c r="G284" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H284" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I284" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J284" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K284" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L284" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M284" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N284" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O284" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="P284" s="2"/>
+      <c r="Q284" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R284" s="2"/>
+      <c r="S284" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T284" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U284" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V284" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W284" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X284" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y284" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z284" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA284" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB284" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC284" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD284" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE284" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF284" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG284" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AH284" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI284" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ284" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK284" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B285" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C285" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="D285" s="2"/>
+      <c r="E285" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="F285" s="2"/>
+      <c r="G285" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H285" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I285" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J285" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K285" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L285" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M285" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N285" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O285" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="P285" s="2"/>
+      <c r="Q285" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R285" s="2"/>
+      <c r="S285" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T285" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U285" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V285" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W285" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X285" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y285" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z285" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA285" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB285" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC285" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD285" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE285" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF285" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG285" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AH285" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI285" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ285" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK285" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B286" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C286" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="D286" s="2"/>
+      <c r="E286" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F286" s="2"/>
+      <c r="G286" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H286" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L286" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M286" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N286" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O286" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P286" s="2"/>
+      <c r="Q286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R286" s="2"/>
+      <c r="S286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG286" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AH286" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI286" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK286" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B287" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C287" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="D287" s="2"/>
+      <c r="E287" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F287" s="2"/>
+      <c r="G287" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H287" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I287" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J287" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K287" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L287" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M287" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N287" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O287" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P287" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Q287" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R287" s="2"/>
+      <c r="S287" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T287" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U287" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V287" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W287" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X287" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y287" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z287" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA287" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB287" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC287" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD287" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE287" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF287" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG287" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AH287" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI287" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ287" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK287" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B288" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C288" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="D288" s="2"/>
+      <c r="E288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F288" s="2"/>
+      <c r="G288" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H288" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K288" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L288" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M288" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N288" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O288" s="2"/>
+      <c r="P288" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="Q288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R288" s="2"/>
+      <c r="S288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG288" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AH288" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI288" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK288" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B289" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C289" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="D289" s="2"/>
+      <c r="E289" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="F289" s="2"/>
+      <c r="G289" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H289" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I289" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J289" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K289" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L289" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M289" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N289" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O289" s="2"/>
+      <c r="P289" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Q289" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R289" s="2"/>
+      <c r="S289" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T289" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U289" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V289" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W289" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X289" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y289" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z289" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA289" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB289" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC289" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD289" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE289" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF289" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG289" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AH289" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI289" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ289" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK289" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B290" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C290" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="D290" s="2"/>
+      <c r="E290" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="F290" s="2"/>
+      <c r="G290" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H290" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I290" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J290" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K290" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L290" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M290" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N290" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="O290" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="P290" s="2"/>
+      <c r="Q290" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R290" s="2"/>
+      <c r="S290" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T290" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U290" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V290" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W290" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X290" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y290" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z290" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA290" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB290" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC290" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD290" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE290" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF290" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG290" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AH290" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI290" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ290" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK290" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B291" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C291" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="D291" s="2"/>
+      <c r="E291" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F291" s="2"/>
+      <c r="G291" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H291" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I291" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J291" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K291" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L291" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M291" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N291" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O291" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="P291" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Q291" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R291" s="2"/>
+      <c r="S291" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T291" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U291" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V291" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W291" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X291" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y291" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Z291" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AA291" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AB291" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC291" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD291" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE291" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF291" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG291" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AH291" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI291" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ291" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK291" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B292" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C292" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="D292" s="2"/>
+      <c r="E292" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F292" s="2"/>
+      <c r="G292" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H292" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I292" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J292" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K292" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L292" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M292" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N292" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O292" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="P292" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="Q292" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R292" s="2"/>
+      <c r="S292" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T292" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U292" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V292" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W292" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X292" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y292" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z292" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AA292" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AB292" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC292" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AD292" s="2"/>
+      <c r="AE292" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF292" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG292" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AH292" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI292" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ292" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK292" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B293" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C293" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="D293" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="E293" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F293" s="2"/>
+      <c r="G293" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H293" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I293" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J293" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K293" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L293" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M293" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N293" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O293" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="P293" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Q293" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R293" s="2"/>
+      <c r="S293" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T293" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="U293" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V293" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W293" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X293" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y293" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z293" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AA293" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AB293" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC293" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD293" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE293" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF293" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG293" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AH293" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI293" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ293" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK293" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B294" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C294" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="D294" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="E294" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F294" s="2"/>
+      <c r="G294" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H294" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I294" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J294" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K294" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L294" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M294" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N294" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O294" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="P294" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Q294" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R294" s="2"/>
+      <c r="S294" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T294" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U294" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V294" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W294" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X294" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y294" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Z294" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AA294" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AB294" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC294" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD294" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE294" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF294" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG294" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AH294" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI294" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ294" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK294" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B295" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C295" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="D295" s="2"/>
+      <c r="E295" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="F295" s="2"/>
+      <c r="G295" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H295" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I295" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J295" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K295" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L295" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M295" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="N295" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O295" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="P295" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Q295" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R295" s="2"/>
+      <c r="S295" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T295" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U295" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V295" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W295" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X295" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y295" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z295" s="2"/>
+      <c r="AA295" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="AB295" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC295" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD295" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE295" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF295" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG295" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AH295" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI295" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ295" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK295" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B296" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C296" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="D296" s="2"/>
+      <c r="E296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F296" s="2"/>
+      <c r="G296" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H296" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I296" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K296" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L296" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M296" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N296" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="O296" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="P296" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="Q296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R296" s="2"/>
+      <c r="S296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG296" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AH296" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI296" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ296" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK296" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B297" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C297" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="D297" s="2"/>
+      <c r="E297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F297" s="2"/>
+      <c r="G297" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H297" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K297" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L297" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M297" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N297" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="O297" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="P297" s="2"/>
+      <c r="Q297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R297" s="2"/>
+      <c r="S297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG297" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AH297" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI297" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ297" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK297" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B298" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C298" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="D298" s="2"/>
+      <c r="E298" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="F298" s="2"/>
+      <c r="G298" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H298" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I298" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J298" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K298" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L298" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M298" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N298" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="O298" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="P298" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="Q298" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R298" s="2"/>
+      <c r="S298" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T298" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U298" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V298" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W298" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X298" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y298" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z298" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA298" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB298" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC298" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD298" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE298" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF298" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG298" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AH298" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI298" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ298" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK298" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B299" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C299" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="D299" s="2"/>
+      <c r="E299" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="F299" s="2"/>
+      <c r="G299" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H299" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I299" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J299" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K299" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L299" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="M299" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="N299" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="O299" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="P299" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="Q299" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R299" s="2"/>
+      <c r="S299" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T299" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U299" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V299" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W299" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X299" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y299" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z299" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA299" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB299" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC299" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD299" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE299" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF299" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG299" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AH299" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI299" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ299" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AK299" t="s" s="2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B300" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C300" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="D300" s="2"/>
+      <c r="E300" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F300" s="2"/>
+      <c r="G300" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H300" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I300" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J300" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K300" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L300" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M300" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N300" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="O300" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="P300" s="2"/>
+      <c r="Q300" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R300" s="2"/>
+      <c r="S300" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T300" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U300" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V300" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W300" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X300" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y300" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z300" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA300" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB300" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC300" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD300" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE300" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF300" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG300" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AH300" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI300" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ300" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK300" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B301" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C301" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="D301" s="2"/>
+      <c r="E301" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F301" s="2"/>
+      <c r="G301" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H301" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I301" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J301" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K301" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L301" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="M301" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N301" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O301" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="P301" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Q301" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R301" s="2"/>
+      <c r="S301" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T301" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U301" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V301" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W301" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X301" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y301" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z301" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA301" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB301" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC301" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD301" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE301" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF301" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG301" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AH301" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI301" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ301" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK301" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B302" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C302" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="D302" s="2"/>
+      <c r="E302" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F302" s="2"/>
+      <c r="G302" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H302" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I302" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J302" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K302" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L302" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M302" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N302" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="O302" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="P302" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="Q302" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R302" s="2"/>
+      <c r="S302" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T302" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U302" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V302" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W302" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X302" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y302" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z302" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA302" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB302" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC302" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD302" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE302" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF302" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG302" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AH302" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI302" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ302" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AK302" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B303" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C303" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="D303" s="2"/>
+      <c r="E303" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F303" s="2"/>
+      <c r="G303" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H303" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I303" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J303" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K303" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L303" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M303" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N303" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="O303" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="P303" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Q303" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R303" s="2"/>
+      <c r="S303" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T303" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U303" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V303" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W303" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X303" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y303" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Z303" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AA303" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AB303" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC303" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD303" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE303" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF303" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG303" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AH303" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI303" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ303" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AK303" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B304" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C304" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="D304" s="2"/>
+      <c r="E304" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="F304" s="2"/>
+      <c r="G304" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H304" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I304" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J304" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K304" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L304" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M304" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N304" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="O304" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="P304" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Q304" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R304" s="2"/>
+      <c r="S304" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T304" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U304" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V304" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W304" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X304" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y304" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Z304" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AA304" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AB304" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC304" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD304" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE304" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF304" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG304" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AH304" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI304" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ304" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK304" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B305" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="C305" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="D305" s="2"/>
+      <c r="E305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F305" s="2"/>
+      <c r="G305" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H305" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L305" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M305" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N305" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="O305" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="P305" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="Q305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R305" s="2"/>
+      <c r="S305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG305" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AH305" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI305" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ305" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK305" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B306" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C306" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="D306" s="2"/>
+      <c r="E306" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F306" s="2"/>
+      <c r="G306" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H306" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I306" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J306" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K306" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L306" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M306" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N306" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="O306" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="P306" s="2"/>
+      <c r="Q306" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R306" s="2"/>
+      <c r="S306" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T306" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U306" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V306" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W306" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X306" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y306" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z306" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AA306" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AB306" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC306" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD306" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE306" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF306" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG306" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AH306" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI306" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ306" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK306" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B307" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C307" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="D307" s="2"/>
+      <c r="E307" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F307" s="2"/>
+      <c r="G307" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H307" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I307" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J307" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K307" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L307" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M307" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N307" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="O307" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="P307" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="Q307" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R307" s="2"/>
+      <c r="S307" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T307" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U307" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V307" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W307" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X307" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y307" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z307" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AA307" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AB307" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC307" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD307" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE307" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF307" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG307" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AH307" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI307" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ307" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK307" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B308" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C308" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="D308" s="2"/>
+      <c r="E308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F308" s="2"/>
+      <c r="G308" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H308" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L308" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M308" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N308" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="O308" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="P308" s="2"/>
+      <c r="Q308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R308" s="2"/>
+      <c r="S308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG308" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AH308" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI308" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ308" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK308" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B309" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="C309" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="D309" s="2"/>
+      <c r="E309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F309" s="2"/>
+      <c r="G309" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H309" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L309" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M309" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N309" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="O309" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="P309" s="2"/>
+      <c r="Q309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R309" s="2"/>
+      <c r="S309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG309" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AH309" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI309" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ309" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK309" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B310" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C310" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="D310" s="2"/>
+      <c r="E310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F310" s="2"/>
+      <c r="G310" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H310" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L310" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M310" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N310" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O310" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="P310" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="Q310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R310" s="2"/>
+      <c r="S310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG310" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AH310" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI310" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ310" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK310" t="s" s="2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B311" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C311" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="D311" s="2"/>
+      <c r="E311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F311" s="2"/>
+      <c r="G311" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H311" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L311" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M311" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N311" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O311" s="2"/>
+      <c r="P311" s="2"/>
+      <c r="Q311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R311" s="2"/>
+      <c r="S311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG311" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AH311" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI311" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ311" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK311" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B312" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="C312" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="D312" s="2"/>
+      <c r="E312" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F312" s="2"/>
+      <c r="G312" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H312" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I312" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J312" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K312" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L312" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M312" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N312" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O312" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P312" s="2"/>
+      <c r="Q312" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R312" s="2"/>
+      <c r="S312" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T312" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U312" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V312" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W312" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X312" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y312" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z312" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA312" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB312" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC312" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD312" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE312" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF312" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG312" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AH312" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI312" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ312" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK312" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B313" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="C313" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="D313" s="2"/>
+      <c r="E313" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="F313" s="2"/>
+      <c r="G313" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H313" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I313" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J313" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K313" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L313" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M313" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N313" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O313" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P313" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Q313" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R313" s="2"/>
+      <c r="S313" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T313" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U313" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V313" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W313" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X313" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y313" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z313" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA313" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB313" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC313" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD313" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE313" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF313" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG313" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AH313" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI313" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ313" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK313" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B314" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="C314" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="D314" s="2"/>
+      <c r="E314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F314" s="2"/>
+      <c r="G314" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H314" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L314" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M314" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N314" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="O314" s="2"/>
+      <c r="P314" s="2"/>
+      <c r="Q314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R314" s="2"/>
+      <c r="S314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF314" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG314" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AH314" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI314" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ314" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AK314" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B315" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="C315" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="D315" s="2"/>
+      <c r="E315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F315" s="2"/>
+      <c r="G315" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H315" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L315" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M315" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N315" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="O315" s="2"/>
+      <c r="P315" s="2"/>
+      <c r="Q315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R315" s="2"/>
+      <c r="S315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF315" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG315" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AH315" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI315" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ315" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AK315" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B316" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="C316" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="D316" s="2"/>
+      <c r="E316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F316" s="2"/>
+      <c r="G316" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H316" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L316" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M316" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N316" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="O316" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="P316" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="Q316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R316" s="2"/>
+      <c r="S316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y316" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z316" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AA316" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AB316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG316" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AH316" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI316" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ316" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK316" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B317" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="C317" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="D317" s="2"/>
+      <c r="E317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F317" s="2"/>
+      <c r="G317" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H317" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L317" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M317" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="N317" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="O317" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="P317" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="Q317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R317" s="2"/>
+      <c r="S317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y317" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z317" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AA317" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AB317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG317" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AH317" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI317" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ317" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK317" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B318" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="C318" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="D318" s="2"/>
+      <c r="E318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F318" s="2"/>
+      <c r="G318" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H318" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L318" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M318" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="N318" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="O318" s="2"/>
+      <c r="P318" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="Q318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R318" s="2"/>
+      <c r="S318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG318" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AH318" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI318" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ318" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK318" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B319" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="C319" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="D319" s="2"/>
+      <c r="E319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F319" s="2"/>
+      <c r="G319" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H319" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L319" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M319" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="N319" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="O319" s="2"/>
+      <c r="P319" s="2"/>
+      <c r="Q319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R319" s="2"/>
+      <c r="S319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG319" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AH319" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI319" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ319" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK319" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B320" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C320" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="D320" s="2"/>
+      <c r="E320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F320" s="2"/>
+      <c r="G320" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H320" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I320" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K320" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L320" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M320" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N320" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="O320" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="P320" s="2"/>
+      <c r="Q320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R320" s="2"/>
+      <c r="S320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG320" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AH320" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI320" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ320" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK320" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B321" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="C321" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="D321" s="2"/>
+      <c r="E321" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F321" s="2"/>
+      <c r="G321" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H321" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I321" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J321" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K321" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L321" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="M321" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="N321" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="O321" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="P321" s="2"/>
+      <c r="Q321" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R321" s="2"/>
+      <c r="S321" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T321" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U321" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V321" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W321" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X321" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y321" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z321" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA321" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB321" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC321" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD321" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE321" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF321" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG321" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AH321" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI321" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ321" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK321" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B322" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="C322" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="D322" s="2"/>
+      <c r="E322" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F322" s="2"/>
+      <c r="G322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H322" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I322" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J322" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K322" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L322" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M322" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="N322" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="O322" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="P322" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="Q322" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R322" s="2"/>
+      <c r="S322" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T322" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U322" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V322" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W322" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X322" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y322" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z322" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA322" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB322" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC322" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="AD322" s="2"/>
+      <c r="AE322" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF322" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG322" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AH322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI322" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ322" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK322" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B323" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="C323" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="D323" s="2"/>
+      <c r="E323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F323" s="2"/>
+      <c r="G323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H323" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L323" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M323" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N323" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O323" s="2"/>
+      <c r="P323" s="2"/>
+      <c r="Q323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R323" s="2"/>
+      <c r="S323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG323" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AH323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI323" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK323" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B324" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C324" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="D324" s="2"/>
+      <c r="E324" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F324" s="2"/>
+      <c r="G324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H324" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L324" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M324" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N324" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O324" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P324" s="2"/>
+      <c r="Q324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R324" s="2"/>
+      <c r="S324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG324" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AH324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI324" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ324" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK324" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B325" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="C325" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="D325" s="2"/>
+      <c r="E325" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="F325" s="2"/>
+      <c r="G325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H325" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J325" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K325" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L325" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M325" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N325" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O325" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P325" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Q325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R325" s="2"/>
+      <c r="S325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG325" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AH325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI325" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ325" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK325" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B326" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="C326" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="D326" s="2"/>
+      <c r="E326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F326" s="2"/>
+      <c r="G326" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H326" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K326" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L326" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M326" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N326" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="O326" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="P326" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Q326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R326" s="2"/>
+      <c r="S326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y326" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z326" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AA326" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AB326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG326" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AH326" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI326" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ326" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK326" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B327" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="C327" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="D327" s="2"/>
+      <c r="E327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F327" s="2"/>
+      <c r="G327" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H327" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K327" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L327" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M327" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="N327" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="O327" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="P327" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="Q327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R327" s="2"/>
+      <c r="S327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG327" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AH327" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI327" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ327" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK327" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B328" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="C328" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="D328" s="2"/>
+      <c r="E328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F328" s="2"/>
+      <c r="G328" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H328" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L328" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M328" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N328" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="O328" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="P328" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Q328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R328" s="2"/>
+      <c r="S328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y328" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Z328" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AA328" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AB328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF328" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG328" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AH328" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI328" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ328" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AK328" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B329" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="C329" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="D329" s="2"/>
+      <c r="E329" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="F329" s="2"/>
+      <c r="G329" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H329" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I329" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J329" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K329" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L329" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M329" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N329" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="O329" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="P329" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Q329" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R329" s="2"/>
+      <c r="S329" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T329" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U329" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V329" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W329" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X329" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y329" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Z329" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AA329" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AB329" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC329" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD329" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE329" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF329" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG329" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AH329" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI329" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ329" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK329" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B330" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="C330" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="D330" s="2"/>
+      <c r="E330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F330" s="2"/>
+      <c r="G330" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H330" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L330" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M330" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="N330" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="O330" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="P330" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="Q330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R330" s="2"/>
+      <c r="S330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG330" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AH330" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI330" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ330" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK330" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B331" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="C331" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="D331" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="E331" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F331" s="2"/>
+      <c r="G331" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H331" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I331" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J331" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K331" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L331" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M331" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N331" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="O331" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="P331" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="Q331" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R331" s="2"/>
+      <c r="S331" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T331" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U331" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V331" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W331" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X331" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y331" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z331" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA331" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB331" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC331" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD331" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE331" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF331" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG331" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AH331" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI331" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ331" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK331" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B332" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="C332" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="D332" s="2"/>
+      <c r="E332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F332" s="2"/>
+      <c r="G332" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H332" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L332" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M332" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N332" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O332" s="2"/>
+      <c r="P332" s="2"/>
+      <c r="Q332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R332" s="2"/>
+      <c r="S332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG332" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AH332" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI332" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ332" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK332" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B333" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="C333" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="D333" s="2"/>
+      <c r="E333" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F333" s="2"/>
+      <c r="G333" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H333" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I333" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J333" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K333" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L333" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M333" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N333" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O333" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P333" s="2"/>
+      <c r="Q333" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R333" s="2"/>
+      <c r="S333" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T333" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U333" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V333" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W333" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X333" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y333" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z333" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA333" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB333" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC333" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD333" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE333" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF333" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG333" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AH333" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI333" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ333" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK333" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B334" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="C334" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="D334" s="2"/>
+      <c r="E334" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="F334" s="2"/>
+      <c r="G334" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H334" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I334" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J334" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K334" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L334" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M334" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N334" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O334" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P334" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Q334" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R334" s="2"/>
+      <c r="S334" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T334" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U334" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V334" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W334" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X334" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y334" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z334" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA334" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB334" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC334" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD334" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE334" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF334" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG334" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AH334" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI334" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ334" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK334" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B335" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="C335" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="D335" s="2"/>
+      <c r="E335" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F335" s="2"/>
+      <c r="G335" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H335" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I335" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J335" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K335" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L335" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M335" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="N335" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="O335" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="P335" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Q335" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R335" s="2"/>
+      <c r="S335" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T335" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="U335" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V335" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W335" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X335" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y335" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z335" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AA335" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AB335" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC335" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD335" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE335" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF335" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG335" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AH335" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI335" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ335" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK335" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B336" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="C336" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="D336" s="2"/>
+      <c r="E336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F336" s="2"/>
+      <c r="G336" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H336" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I336" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K336" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L336" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="M336" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="N336" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="O336" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="P336" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="Q336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R336" s="2"/>
+      <c r="S336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG336" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AH336" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI336" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ336" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK336" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B337" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="C337" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="D337" s="2"/>
+      <c r="E337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F337" s="2"/>
+      <c r="G337" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H337" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L337" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M337" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N337" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="O337" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="P337" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Q337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R337" s="2"/>
+      <c r="S337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y337" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Z337" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AA337" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AB337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF337" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG337" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AH337" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI337" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ337" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AK337" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B338" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="C338" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="D338" s="2"/>
+      <c r="E338" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="F338" s="2"/>
+      <c r="G338" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L338" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M338" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N338" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="O338" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="P338" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Q338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R338" s="2"/>
+      <c r="S338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y338" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Z338" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AA338" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AB338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG338" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AH338" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK338" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B339" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="C339" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="D339" s="2"/>
+      <c r="E339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F339" s="2"/>
+      <c r="G339" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L339" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M339" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="N339" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="O339" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="P339" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="Q339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R339" s="2"/>
+      <c r="S339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG339" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AH339" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK339" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B340" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="C340" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="D340" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="E340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F340" s="2"/>
+      <c r="G340" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H340" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I340" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K340" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L340" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M340" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N340" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="O340" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="P340" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="Q340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R340" s="2"/>
+      <c r="S340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG340" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AH340" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK340" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B341" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="C341" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="D341" s="2"/>
+      <c r="E341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F341" s="2"/>
+      <c r="G341" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H341" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L341" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M341" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N341" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O341" s="2"/>
+      <c r="P341" s="2"/>
+      <c r="Q341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R341" s="2"/>
+      <c r="S341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG341" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AH341" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI341" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK341" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B342" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="C342" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="D342" s="2"/>
+      <c r="E342" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F342" s="2"/>
+      <c r="G342" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L342" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M342" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N342" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O342" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P342" s="2"/>
+      <c r="Q342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R342" s="2"/>
+      <c r="S342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG342" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AH342" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK342" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B343" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="C343" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="D343" s="2"/>
+      <c r="E343" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="F343" s="2"/>
+      <c r="G343" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J343" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K343" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L343" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M343" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N343" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O343" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P343" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Q343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R343" s="2"/>
+      <c r="S343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG343" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AH343" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK343" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B344" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="C344" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="D344" s="2"/>
+      <c r="E344" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F344" s="2"/>
+      <c r="G344" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H344" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I344" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J344" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K344" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L344" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M344" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="N344" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="O344" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="P344" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Q344" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R344" s="2"/>
+      <c r="S344" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T344" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="U344" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V344" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W344" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X344" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y344" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z344" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AA344" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AB344" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC344" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD344" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE344" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF344" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG344" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AH344" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI344" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ344" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK344" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B345" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="C345" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="D345" s="2"/>
+      <c r="E345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F345" s="2"/>
+      <c r="G345" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H345" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I345" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K345" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L345" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M345" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="N345" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="O345" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="P345" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="Q345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R345" s="2"/>
+      <c r="S345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG345" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AH345" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI345" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK345" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B346" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="C346" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="D346" s="2"/>
+      <c r="E346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F346" s="2"/>
+      <c r="G346" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H346" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L346" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M346" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N346" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="O346" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="P346" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Q346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R346" s="2"/>
+      <c r="S346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y346" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Z346" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AA346" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AB346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG346" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AH346" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI346" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ346" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AK346" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B347" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="C347" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="D347" s="2"/>
+      <c r="E347" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="F347" s="2"/>
+      <c r="G347" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L347" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M347" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N347" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="O347" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="P347" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Q347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R347" s="2"/>
+      <c r="S347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y347" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Z347" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AA347" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AB347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG347" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AH347" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK347" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B348" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="C348" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="D348" s="2"/>
+      <c r="E348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F348" s="2"/>
+      <c r="G348" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M348" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="N348" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="O348" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="P348" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="Q348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R348" s="2"/>
+      <c r="S348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG348" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AH348" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK348" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B349" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="C349" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="D349" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="E349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F349" s="2"/>
+      <c r="G349" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H349" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I349" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K349" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L349" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M349" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N349" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="O349" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="P349" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="Q349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R349" s="2"/>
+      <c r="S349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG349" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AH349" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK349" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B350" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="C350" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="D350" s="2"/>
+      <c r="E350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F350" s="2"/>
+      <c r="G350" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H350" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L350" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M350" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N350" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O350" s="2"/>
+      <c r="P350" s="2"/>
+      <c r="Q350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R350" s="2"/>
+      <c r="S350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG350" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AH350" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI350" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK350" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B351" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="C351" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="D351" s="2"/>
+      <c r="E351" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F351" s="2"/>
+      <c r="G351" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L351" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M351" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N351" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O351" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P351" s="2"/>
+      <c r="Q351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R351" s="2"/>
+      <c r="S351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG351" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AH351" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK351" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B352" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="C352" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="D352" s="2"/>
+      <c r="E352" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="F352" s="2"/>
+      <c r="G352" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J352" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K352" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L352" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M352" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N352" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O352" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P352" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Q352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R352" s="2"/>
+      <c r="S352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG352" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AH352" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK352" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B353" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="C353" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="D353" s="2"/>
+      <c r="E353" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F353" s="2"/>
+      <c r="G353" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H353" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I353" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J353" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K353" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L353" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M353" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="N353" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="O353" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="P353" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Q353" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R353" s="2"/>
+      <c r="S353" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T353" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="U353" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V353" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W353" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X353" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y353" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z353" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AA353" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AB353" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC353" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD353" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE353" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF353" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG353" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AH353" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI353" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ353" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK353" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B354" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="C354" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="D354" s="2"/>
+      <c r="E354" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F354" s="2"/>
+      <c r="G354" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H354" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I354" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J354" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K354" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L354" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="M354" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="N354" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="O354" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="P354" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="Q354" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R354" s="2"/>
+      <c r="S354" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T354" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U354" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V354" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W354" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X354" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y354" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z354" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA354" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB354" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC354" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD354" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE354" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF354" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG354" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AH354" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI354" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ354" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK354" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B355" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="C355" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="D355" s="2"/>
+      <c r="E355" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F355" s="2"/>
+      <c r="G355" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H355" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I355" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J355" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K355" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L355" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M355" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N355" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="O355" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="P355" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Q355" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R355" s="2"/>
+      <c r="S355" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T355" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U355" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V355" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W355" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X355" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y355" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Z355" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AA355" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AB355" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC355" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD355" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE355" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF355" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG355" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AH355" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI355" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ355" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AK355" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B356" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="C356" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="D356" s="2"/>
+      <c r="E356" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="F356" s="2"/>
+      <c r="G356" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L356" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M356" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N356" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="O356" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="P356" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Q356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R356" s="2"/>
+      <c r="S356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y356" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Z356" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AA356" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AB356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG356" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AH356" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK356" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B357" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="C357" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="D357" s="2"/>
+      <c r="E357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F357" s="2"/>
+      <c r="G357" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M357" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="N357" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="O357" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="P357" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="Q357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R357" s="2"/>
+      <c r="S357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG357" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AH357" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK357" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B358" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="C358" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="D358" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="E358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F358" s="2"/>
+      <c r="G358" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H358" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I358" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K358" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L358" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M358" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N358" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="O358" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="P358" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="Q358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R358" s="2"/>
+      <c r="S358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG358" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AH358" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK358" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B359" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="C359" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="D359" s="2"/>
+      <c r="E359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F359" s="2"/>
+      <c r="G359" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H359" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L359" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M359" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N359" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O359" s="2"/>
+      <c r="P359" s="2"/>
+      <c r="Q359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R359" s="2"/>
+      <c r="S359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG359" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AH359" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI359" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK359" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B360" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="C360" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="D360" s="2"/>
+      <c r="E360" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F360" s="2"/>
+      <c r="G360" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L360" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M360" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N360" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O360" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P360" s="2"/>
+      <c r="Q360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R360" s="2"/>
+      <c r="S360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG360" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AH360" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK360" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B361" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="C361" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="D361" s="2"/>
+      <c r="E361" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="F361" s="2"/>
+      <c r="G361" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J361" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K361" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L361" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M361" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N361" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O361" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P361" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Q361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R361" s="2"/>
+      <c r="S361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG361" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AH361" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK361" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B362" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="C362" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="D362" s="2"/>
+      <c r="E362" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F362" s="2"/>
+      <c r="G362" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H362" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I362" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J362" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K362" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L362" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M362" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="N362" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="O362" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="P362" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Q362" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R362" s="2"/>
+      <c r="S362" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T362" t="s" s="2">
+        <v>892</v>
+      </c>
+      <c r="U362" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V362" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W362" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X362" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y362" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z362" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AA362" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AB362" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC362" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD362" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE362" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF362" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG362" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AH362" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI362" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ362" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK362" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B363" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="C363" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="D363" s="2"/>
+      <c r="E363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F363" s="2"/>
+      <c r="G363" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H363" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I363" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K363" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L363" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M363" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="N363" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="O363" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="P363" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="Q363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R363" s="2"/>
+      <c r="S363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG363" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AH363" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI363" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK363" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B364" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="C364" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="D364" s="2"/>
+      <c r="E364" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F364" s="2"/>
+      <c r="G364" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H364" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I364" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J364" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K364" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L364" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M364" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N364" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="O364" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="P364" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Q364" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R364" s="2"/>
+      <c r="S364" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T364" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U364" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V364" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W364" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X364" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y364" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Z364" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AA364" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AB364" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC364" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD364" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE364" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF364" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG364" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AH364" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI364" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ364" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AK364" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B365" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="C365" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="D365" s="2"/>
+      <c r="E365" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="F365" s="2"/>
+      <c r="G365" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L365" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M365" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N365" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="O365" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="P365" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Q365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R365" s="2"/>
+      <c r="S365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y365" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Z365" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AA365" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AB365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG365" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AH365" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK365" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B366" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="C366" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="D366" s="2"/>
+      <c r="E366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F366" s="2"/>
+      <c r="G366" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M366" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="N366" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="O366" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="P366" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="Q366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R366" s="2"/>
+      <c r="S366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG366" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AH366" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK366" t="s" s="2">
         <v>96</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-19T20:32:01+00:00</t>
+    <t>2024-08-20T21:03:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:03:59+00:00</t>
+    <t>2024-08-21T16:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T18:37:51+00:00</t>
+    <t>2024-08-28T01:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T01:59:14+00:00</t>
+    <t>2024-08-28T17:18:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T17:18:00+00:00</t>
+    <t>2024-08-28T19:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A person-centered care plan SHALL reference a person-centered goal and SHALL include action steps that support progress toward achievement of the plan’s goals and desired outcomes. A plan SHOULD address the person’s stated priorities for what matters most to them. Action steps may include both treatment procedures and self-care steps identified by the person.</t>
+    <t>A person-centered care plan SHALL reference a person-centered goal and SHALL include action steps that support progress toward achievement of the plan's goals and desired outcomes. A plan SHOULD address the person's stated priorities for what matters most to them. Action steps may include both treatment procedures and self-care steps identified by the person.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T21:15:57+00:00</t>
+    <t>2024-08-28T22:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T22:24:15+00:00</t>
+    <t>2024-09-06T15:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T16:42:31+00:00</t>
+    <t>2024-09-06T21:25:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1351,7 +1351,7 @@
     <t>PCOGoalAttainmentScaleProfile</t>
   </si>
   <si>
-    <t>Person-Centered Goal Attainment</t>
+    <t>Person-Centered GAS Goal</t>
   </si>
   <si>
     <t>Person-centered goal with goal attainment scaling.</t>
@@ -1957,7 +1957,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/gas-followup-score</t>
+    <t>http://mtnlotus.com/uv/pco/ValueSet/goal-attainment-scaling-score</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -2602,16 +2602,37 @@
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</t>
   </si>
   <si>
-    <t>pco-goal-prom-profile</t>
-  </si>
-  <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal-prom-profile</t>
+    <t>pco-progress-score-observation</t>
+  </si>
+  <si>
+    <t>PCOProgressScoreObservation</t>
+  </si>
+  <si>
+    <t>Person-Centered Progress Score</t>
+  </si>
+  <si>
+    <t>A progress score observation for a person-centered goal.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-screening-assessment</t>
+  </si>
+  <si>
+    <t>(USCDI) Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-survey-codes</t>
+  </si>
+  <si>
+    <t>pco-prom-goal-profile</t>
+  </si>
+  <si>
+    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-prom-goal-profile</t>
   </si>
   <si>
     <t>PCOGoalOutcomeMeasureProfile</t>
   </si>
   <si>
-    <t>Person-Centered Goal for PROMs</t>
+    <t>Person-Centered PROM Goal</t>
   </si>
   <si>
     <t>Person-centered goal with a Patient-Reported Outcome Measure (PROM) score target.</t>
@@ -2636,27 +2657,6 @@
     <t>Target value for the PROM score</t>
   </si>
   <si>
-    <t>pco-progress-score-observation</t>
-  </si>
-  <si>
-    <t>PCOProgressScoreObservation</t>
-  </si>
-  <si>
-    <t>Person-Centered Progress Score</t>
-  </si>
-  <si>
-    <t>A progress score observation for a person-centered goal.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-screening-assessment</t>
-  </si>
-  <si>
-    <t>(USCDI) Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-survey-codes</t>
-  </si>
-  <si>
     <t>pco-prom-score</t>
   </si>
   <si>
@@ -2675,7 +2675,7 @@
     <t>Code for PROM score observation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal-prom-profile)
+    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-prom-goal-profile)
 </t>
   </si>
   <si>
@@ -3868,7 +3868,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>824</v>
+        <v>559</v>
       </c>
     </row>
     <row r="110">
@@ -3884,7 +3884,7 @@
         <v>8</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="112">
@@ -3892,7 +3892,7 @@
         <v>10</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="113">
@@ -3946,7 +3946,7 @@
         <v>23</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="120">
@@ -3982,7 +3982,7 @@
         <v>31</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>426</v>
+        <v>558</v>
       </c>
     </row>
     <row r="125">
@@ -3990,7 +3990,7 @@
         <v>33</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>427</v>
+        <v>827</v>
       </c>
     </row>
     <row r="126">
@@ -4022,7 +4022,7 @@
         <v>2</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="130">
@@ -4030,7 +4030,7 @@
         <v>4</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>559</v>
+        <v>831</v>
       </c>
     </row>
     <row r="131">
@@ -4046,7 +4046,7 @@
         <v>8</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="133">
@@ -4054,7 +4054,7 @@
         <v>10</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="134">
@@ -4108,7 +4108,7 @@
         <v>23</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="141">
@@ -4144,7 +4144,7 @@
         <v>31</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>558</v>
+        <v>426</v>
       </c>
     </row>
     <row r="146">
@@ -4152,7 +4152,7 @@
         <v>33</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>838</v>
+        <v>427</v>
       </c>
     </row>
     <row r="147">
@@ -4476,7 +4476,7 @@
         <v>33</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>838</v>
+        <v>827</v>
       </c>
     </row>
     <row r="189">
@@ -25623,14 +25623,14 @@
         <v>823</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>426</v>
+        <v>558</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>426</v>
+        <v>558</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
-        <v>78</v>
+        <v>560</v>
       </c>
       <c r="F201" s="2"/>
       <c r="G201" t="s" s="2">
@@ -25652,7 +25652,7 @@
         <v>79</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>428</v>
+        <v>561</v>
       </c>
       <c r="N201" t="s" s="2">
         <v>81</v>
@@ -25708,7 +25708,7 @@
         <v>78</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>426</v>
+        <v>558</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>76</v>
@@ -25720,7 +25720,7 @@
         <v>78</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>82</v>
+        <v>562</v>
       </c>
     </row>
     <row r="202">
@@ -25728,10 +25728,10 @@
         <v>823</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>429</v>
+        <v>563</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>429</v>
+        <v>563</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -25833,10 +25833,10 @@
         <v>823</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>430</v>
+        <v>564</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>430</v>
+        <v>564</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -25936,10 +25936,10 @@
         <v>823</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>431</v>
+        <v>565</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>431</v>
+        <v>565</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -26041,10 +26041,10 @@
         <v>823</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>432</v>
+        <v>566</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>432</v>
+        <v>566</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -26146,10 +26146,10 @@
         <v>823</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>433</v>
+        <v>567</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>433</v>
+        <v>567</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -26251,10 +26251,10 @@
         <v>823</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>435</v>
+        <v>568</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>435</v>
+        <v>568</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26356,10 +26356,10 @@
         <v>823</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>436</v>
+        <v>569</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>436</v>
+        <v>569</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26461,10 +26461,10 @@
         <v>823</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>446</v>
+        <v>570</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>446</v>
+        <v>570</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -26568,10 +26568,10 @@
         <v>823</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>447</v>
+        <v>571</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>447</v>
+        <v>571</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -26591,22 +26591,20 @@
         <v>78</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L210" t="s" s="2">
         <v>165</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>448</v>
+        <v>572</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O210" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
-        <v>450</v>
+        <v>574</v>
       </c>
       <c r="Q210" t="s" s="2">
         <v>78</v>
@@ -26655,7 +26653,7 @@
         <v>78</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>447</v>
+        <v>571</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>76</v>
@@ -26675,45 +26673,43 @@
         <v>823</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>451</v>
+        <v>575</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>451</v>
+        <v>575</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
-        <v>78</v>
+        <v>576</v>
       </c>
       <c r="F211" s="2"/>
       <c r="G211" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H211" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I211" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K211" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>104</v>
+        <v>577</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>452</v>
+        <v>578</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O211" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
-        <v>455</v>
+        <v>580</v>
       </c>
       <c r="Q211" t="s" s="2">
         <v>78</v>
@@ -26738,11 +26734,13 @@
         <v>78</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Z211" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Z211" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AA211" t="s" s="2">
-        <v>456</v>
+        <v>78</v>
       </c>
       <c r="AB211" t="s" s="2">
         <v>78</v>
@@ -26760,13 +26758,13 @@
         <v>78</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>451</v>
+        <v>575</v>
       </c>
       <c r="AH211" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ211" t="s" s="2">
         <v>78</v>
@@ -26780,21 +26778,21 @@
         <v>823</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>457</v>
+        <v>581</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>457</v>
+        <v>581</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
-        <v>78</v>
+        <v>582</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H212" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I212" t="s" s="2">
         <v>78</v>
@@ -26806,15 +26804,17 @@
         <v>85</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>207</v>
+        <v>583</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>458</v>
+        <v>584</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O212" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="O212" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="P212" s="2"/>
       <c r="Q212" t="s" s="2">
         <v>78</v>
@@ -26839,13 +26839,13 @@
         <v>78</v>
       </c>
       <c r="Y212" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="Z212" t="s" s="2">
-        <v>460</v>
+        <v>78</v>
       </c>
       <c r="AA212" t="s" s="2">
-        <v>461</v>
+        <v>78</v>
       </c>
       <c r="AB212" t="s" s="2">
         <v>78</v>
@@ -26863,13 +26863,13 @@
         <v>78</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>457</v>
+        <v>581</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI212" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ212" t="s" s="2">
         <v>78</v>
@@ -26883,10 +26883,10 @@
         <v>823</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>462</v>
+        <v>587</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>462</v>
+        <v>587</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -26894,32 +26894,34 @@
       </c>
       <c r="F213" s="2"/>
       <c r="G213" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H213" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I213" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K213" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>463</v>
+        <v>588</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O213" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="O213" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="P213" t="s" s="2">
-        <v>465</v>
+        <v>591</v>
       </c>
       <c r="Q213" t="s" s="2">
         <v>78</v>
@@ -26944,35 +26946,37 @@
         <v>78</v>
       </c>
       <c r="Y213" t="s" s="2">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="Z213" t="s" s="2">
-        <v>466</v>
+        <v>592</v>
       </c>
       <c r="AA213" t="s" s="2">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="AB213" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AC213" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AD213" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AD213" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AE213" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>462</v>
+        <v>587</v>
       </c>
       <c r="AH213" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI213" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ213" t="s" s="2">
         <v>78</v>
@@ -26986,20 +26990,18 @@
         <v>823</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>468</v>
+        <v>594</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="D214" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H214" t="s" s="2">
         <v>77</v>
@@ -27011,20 +27013,22 @@
         <v>78</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L214" t="s" s="2">
         <v>207</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>221</v>
+        <v>595</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O214" s="2"/>
+        <v>596</v>
+      </c>
+      <c r="O214" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="P214" t="s" s="2">
-        <v>465</v>
+        <v>598</v>
       </c>
       <c r="Q214" t="s" s="2">
         <v>78</v>
@@ -27049,31 +27053,29 @@
         <v>78</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="Z214" t="s" s="2">
-        <v>222</v>
+        <v>599</v>
       </c>
       <c r="AA214" t="s" s="2">
-        <v>223</v>
+        <v>600</v>
       </c>
       <c r="AB214" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AC214" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD214" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="AD214" s="2"/>
       <c r="AE214" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>462</v>
+        <v>594</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>76</v>
@@ -27093,45 +27095,47 @@
         <v>823</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>469</v>
+        <v>601</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="D215" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="D215" t="s" s="2">
+        <v>602</v>
+      </c>
       <c r="E215" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H215" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I215" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J215" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L215" t="s" s="2">
         <v>207</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>470</v>
+        <v>595</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>471</v>
+        <v>596</v>
       </c>
       <c r="O215" t="s" s="2">
-        <v>472</v>
+        <v>597</v>
       </c>
       <c r="P215" t="s" s="2">
-        <v>473</v>
+        <v>603</v>
       </c>
       <c r="Q215" t="s" s="2">
         <v>78</v>
@@ -27141,7 +27145,7 @@
         <v>78</v>
       </c>
       <c r="T215" t="s" s="2">
-        <v>78</v>
+        <v>604</v>
       </c>
       <c r="U215" t="s" s="2">
         <v>78</v>
@@ -27159,10 +27163,10 @@
         <v>108</v>
       </c>
       <c r="Z215" t="s" s="2">
-        <v>474</v>
+        <v>599</v>
       </c>
       <c r="AA215" t="s" s="2">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="AB215" t="s" s="2">
         <v>78</v>
@@ -27180,13 +27184,13 @@
         <v>78</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>469</v>
+        <v>594</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ215" t="s" s="2">
         <v>78</v>
@@ -27200,21 +27204,23 @@
         <v>823</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>476</v>
+        <v>605</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="D216" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="D216" t="s" s="2">
+        <v>606</v>
+      </c>
       <c r="E216" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I216" t="s" s="2">
         <v>85</v>
@@ -27223,22 +27229,22 @@
         <v>78</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L216" t="s" s="2">
         <v>207</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>477</v>
+        <v>595</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>478</v>
+        <v>607</v>
       </c>
       <c r="O216" t="s" s="2">
-        <v>479</v>
+        <v>597</v>
       </c>
       <c r="P216" t="s" s="2">
-        <v>480</v>
+        <v>608</v>
       </c>
       <c r="Q216" t="s" s="2">
         <v>78</v>
@@ -27263,13 +27269,13 @@
         <v>78</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>481</v>
+        <v>138</v>
       </c>
       <c r="Z216" t="s" s="2">
-        <v>482</v>
+        <v>222</v>
       </c>
       <c r="AA216" t="s" s="2">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="AB216" t="s" s="2">
         <v>78</v>
@@ -27287,13 +27293,13 @@
         <v>78</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>476</v>
+        <v>594</v>
       </c>
       <c r="AH216" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ216" t="s" s="2">
         <v>78</v>
@@ -27307,14 +27313,14 @@
         <v>823</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>484</v>
+        <v>610</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>484</v>
+        <v>610</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
-        <v>78</v>
+        <v>611</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" t="s" s="2">
@@ -27333,17 +27339,19 @@
         <v>85</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>485</v>
+        <v>828</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O217" s="2"/>
+        <v>613</v>
+      </c>
+      <c r="O217" t="s" s="2">
+        <v>614</v>
+      </c>
       <c r="P217" t="s" s="2">
-        <v>487</v>
+        <v>615</v>
       </c>
       <c r="Q217" t="s" s="2">
         <v>78</v>
@@ -27368,13 +27376,11 @@
         <v>78</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z217" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Z217" s="2"/>
       <c r="AA217" t="s" s="2">
-        <v>78</v>
+        <v>829</v>
       </c>
       <c r="AB217" t="s" s="2">
         <v>78</v>
@@ -27392,7 +27398,7 @@
         <v>78</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>484</v>
+        <v>610</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>84</v>
@@ -27412,10 +27418,10 @@
         <v>823</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>488</v>
+        <v>617</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>488</v>
+        <v>617</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27438,17 +27444,19 @@
         <v>85</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>489</v>
+        <v>233</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>490</v>
+        <v>618</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O218" s="2"/>
+        <v>619</v>
+      </c>
+      <c r="O218" t="s" s="2">
+        <v>620</v>
+      </c>
       <c r="P218" t="s" s="2">
-        <v>492</v>
+        <v>621</v>
       </c>
       <c r="Q218" t="s" s="2">
         <v>78</v>
@@ -27497,7 +27505,7 @@
         <v>78</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>488</v>
+        <v>617</v>
       </c>
       <c r="AH218" t="s" s="2">
         <v>76</v>
@@ -27517,10 +27525,10 @@
         <v>823</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>493</v>
+        <v>622</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>493</v>
+        <v>622</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
@@ -27540,23 +27548,21 @@
         <v>78</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>494</v>
+        <v>624</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>495</v>
+        <v>625</v>
       </c>
       <c r="O219" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="P219" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="P219" s="2"/>
       <c r="Q219" t="s" s="2">
         <v>78</v>
       </c>
@@ -27604,7 +27610,7 @@
         <v>78</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>493</v>
+        <v>622</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>76</v>
@@ -27613,10 +27619,10 @@
         <v>77</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>498</v>
+        <v>78</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>499</v>
+        <v>96</v>
       </c>
     </row>
     <row r="220">
@@ -27624,14 +27630,14 @@
         <v>823</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>500</v>
+        <v>627</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>500</v>
+        <v>627</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
-        <v>78</v>
+        <v>628</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" t="s" s="2">
@@ -27647,19 +27653,23 @@
         <v>78</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>121</v>
+        <v>629</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O220" s="2"/>
-      <c r="P220" s="2"/>
+        <v>630</v>
+      </c>
+      <c r="O220" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="P220" t="s" s="2">
+        <v>632</v>
+      </c>
       <c r="Q220" t="s" s="2">
         <v>78</v>
       </c>
@@ -27707,7 +27717,7 @@
         <v>78</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>123</v>
+        <v>627</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>76</v>
@@ -27719,7 +27729,7 @@
         <v>78</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="221">
@@ -27727,44 +27737,46 @@
         <v>823</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>501</v>
+        <v>633</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>501</v>
+        <v>633</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
-        <v>125</v>
+        <v>634</v>
       </c>
       <c r="F221" s="2"/>
       <c r="G221" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I221" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J221" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>127</v>
+        <v>635</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>128</v>
+        <v>636</v>
       </c>
       <c r="O221" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P221" s="2"/>
+        <v>637</v>
+      </c>
+      <c r="P221" t="s" s="2">
+        <v>638</v>
+      </c>
       <c r="Q221" t="s" s="2">
         <v>78</v>
       </c>
@@ -27800,31 +27812,29 @@
         <v>78</v>
       </c>
       <c r="AC221" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD221" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="AD221" s="2"/>
       <c r="AE221" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>78</v>
+        <v>640</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>133</v>
+        <v>633</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI221" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>78</v>
+        <v>641</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>134</v>
+        <v>642</v>
       </c>
     </row>
     <row r="222">
@@ -27832,45 +27842,47 @@
         <v>823</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>502</v>
+        <v>643</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="D222" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="D222" t="s" s="2">
+        <v>644</v>
+      </c>
       <c r="E222" t="s" s="2">
-        <v>295</v>
+        <v>634</v>
       </c>
       <c r="F222" s="2"/>
       <c r="G222" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H222" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I222" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K222" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>296</v>
+        <v>645</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>297</v>
+        <v>636</v>
       </c>
       <c r="O222" t="s" s="2">
-        <v>129</v>
+        <v>637</v>
       </c>
       <c r="P222" t="s" s="2">
-        <v>162</v>
+        <v>638</v>
       </c>
       <c r="Q222" t="s" s="2">
         <v>78</v>
@@ -27919,19 +27931,19 @@
         <v>78</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>298</v>
+        <v>633</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>78</v>
+        <v>641</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>134</v>
+        <v>642</v>
       </c>
     </row>
     <row r="223">
@@ -27939,10 +27951,10 @@
         <v>823</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>503</v>
+        <v>646</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>503</v>
+        <v>646</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -27950,13 +27962,13 @@
       </c>
       <c r="F223" s="2"/>
       <c r="G223" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I223" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J223" t="s" s="2">
         <v>78</v>
@@ -27965,15 +27977,17 @@
         <v>85</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>207</v>
+        <v>647</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>828</v>
+        <v>648</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O223" s="2"/>
+        <v>649</v>
+      </c>
+      <c r="O223" t="s" s="2">
+        <v>650</v>
+      </c>
       <c r="P223" s="2"/>
       <c r="Q223" t="s" s="2">
         <v>78</v>
@@ -27998,11 +28012,13 @@
         <v>78</v>
       </c>
       <c r="Y223" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="Z223" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Z223" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AA223" t="s" s="2">
-        <v>829</v>
+        <v>78</v>
       </c>
       <c r="AB223" t="s" s="2">
         <v>78</v>
@@ -28020,7 +28036,7 @@
         <v>78</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>503</v>
+        <v>646</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>76</v>
@@ -28029,7 +28045,7 @@
         <v>84</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>498</v>
+        <v>78</v>
       </c>
       <c r="AK223" t="s" s="2">
         <v>96</v>
@@ -28040,10 +28056,10 @@
         <v>823</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>509</v>
+        <v>651</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>509</v>
+        <v>651</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -28051,13 +28067,13 @@
       </c>
       <c r="F224" s="2"/>
       <c r="G224" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I224" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J224" t="s" s="2">
         <v>78</v>
@@ -28066,18 +28082,20 @@
         <v>85</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>830</v>
+        <v>652</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>511</v>
+        <v>653</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>512</v>
+        <v>654</v>
       </c>
       <c r="O224" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="P224" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="P224" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="Q224" t="s" s="2">
         <v>78</v>
       </c>
@@ -28101,10 +28119,10 @@
         <v>78</v>
       </c>
       <c r="Y224" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="Z224" t="s" s="2">
-        <v>514</v>
+        <v>78</v>
       </c>
       <c r="AA224" t="s" s="2">
         <v>78</v>
@@ -28113,26 +28131,28 @@
         <v>78</v>
       </c>
       <c r="AC224" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AD224" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AD224" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AE224" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>640</v>
+        <v>78</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>509</v>
+        <v>651</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ224" t="s" s="2">
-        <v>498</v>
+        <v>78</v>
       </c>
       <c r="AK224" t="s" s="2">
         <v>96</v>
@@ -28143,20 +28163,18 @@
         <v>823</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>831</v>
+        <v>657</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="D225" t="s" s="2">
-        <v>832</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F225" s="2"/>
       <c r="G225" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H225" t="s" s="2">
         <v>84</v>
@@ -28171,18 +28189,20 @@
         <v>85</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>830</v>
+        <v>770</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>833</v>
+        <v>658</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>512</v>
+        <v>659</v>
       </c>
       <c r="O225" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="P225" s="2"/>
+        <v>660</v>
+      </c>
+      <c r="P225" t="s" s="2">
+        <v>661</v>
+      </c>
       <c r="Q225" t="s" s="2">
         <v>78</v>
       </c>
@@ -28206,10 +28226,10 @@
         <v>78</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="Z225" t="s" s="2">
-        <v>514</v>
+        <v>78</v>
       </c>
       <c r="AA225" t="s" s="2">
         <v>78</v>
@@ -28230,7 +28250,7 @@
         <v>78</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>509</v>
+        <v>657</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>76</v>
@@ -28239,7 +28259,7 @@
         <v>84</v>
       </c>
       <c r="AJ225" t="s" s="2">
-        <v>498</v>
+        <v>663</v>
       </c>
       <c r="AK225" t="s" s="2">
         <v>96</v>
@@ -28250,10 +28270,10 @@
         <v>823</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>515</v>
+        <v>664</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>515</v>
+        <v>664</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -28273,20 +28293,22 @@
         <v>78</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>516</v>
+        <v>207</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>517</v>
+        <v>665</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O226" s="2"/>
+        <v>666</v>
+      </c>
+      <c r="O226" t="s" s="2">
+        <v>667</v>
+      </c>
       <c r="P226" t="s" s="2">
-        <v>519</v>
+        <v>668</v>
       </c>
       <c r="Q226" t="s" s="2">
         <v>78</v>
@@ -28311,13 +28333,13 @@
         <v>78</v>
       </c>
       <c r="Y226" t="s" s="2">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="Z226" t="s" s="2">
-        <v>78</v>
+        <v>669</v>
       </c>
       <c r="AA226" t="s" s="2">
-        <v>78</v>
+        <v>670</v>
       </c>
       <c r="AB226" t="s" s="2">
         <v>78</v>
@@ -28335,7 +28357,7 @@
         <v>78</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>515</v>
+        <v>664</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>76</v>
@@ -28344,7 +28366,7 @@
         <v>84</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>78</v>
+        <v>671</v>
       </c>
       <c r="AK226" t="s" s="2">
         <v>96</v>
@@ -28355,21 +28377,21 @@
         <v>823</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>520</v>
+        <v>672</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>520</v>
+        <v>672</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
-        <v>78</v>
+        <v>673</v>
       </c>
       <c r="F227" s="2"/>
       <c r="G227" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H227" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I227" t="s" s="2">
         <v>78</v>
@@ -28378,21 +28400,23 @@
         <v>78</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>489</v>
+        <v>207</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>521</v>
+        <v>674</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>522</v>
+        <v>675</v>
       </c>
       <c r="O227" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="P227" s="2"/>
+        <v>676</v>
+      </c>
+      <c r="P227" t="s" s="2">
+        <v>677</v>
+      </c>
       <c r="Q227" t="s" s="2">
         <v>78</v>
       </c>
@@ -28416,13 +28440,13 @@
         <v>78</v>
       </c>
       <c r="Y227" t="s" s="2">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="Z227" t="s" s="2">
-        <v>78</v>
+        <v>678</v>
       </c>
       <c r="AA227" t="s" s="2">
-        <v>78</v>
+        <v>679</v>
       </c>
       <c r="AB227" t="s" s="2">
         <v>78</v>
@@ -28440,13 +28464,13 @@
         <v>78</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>520</v>
+        <v>672</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI227" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ227" t="s" s="2">
         <v>78</v>
@@ -28460,10 +28484,10 @@
         <v>823</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>524</v>
+        <v>680</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>524</v>
+        <v>680</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
@@ -28474,7 +28498,7 @@
         <v>76</v>
       </c>
       <c r="H228" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I228" t="s" s="2">
         <v>78</v>
@@ -28486,18 +28510,20 @@
         <v>78</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>120</v>
+        <v>311</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>373</v>
+        <v>681</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>525</v>
+        <v>682</v>
       </c>
       <c r="O228" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="P228" s="2"/>
+        <v>683</v>
+      </c>
+      <c r="P228" t="s" s="2">
+        <v>684</v>
+      </c>
       <c r="Q228" t="s" s="2">
         <v>78</v>
       </c>
@@ -28545,13 +28571,13 @@
         <v>78</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>524</v>
+        <v>680</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI228" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ228" t="s" s="2">
         <v>78</v>
@@ -28565,10 +28591,10 @@
         <v>823</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>527</v>
+        <v>685</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>527</v>
+        <v>685</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -28582,25 +28608,25 @@
         <v>84</v>
       </c>
       <c r="I229" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J229" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>528</v>
+        <v>207</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>529</v>
+        <v>686</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>530</v>
+        <v>687</v>
       </c>
       <c r="O229" t="s" s="2">
-        <v>531</v>
+        <v>688</v>
       </c>
       <c r="P229" s="2"/>
       <c r="Q229" t="s" s="2">
@@ -28626,13 +28652,13 @@
         <v>78</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="Z229" t="s" s="2">
-        <v>78</v>
+        <v>689</v>
       </c>
       <c r="AA229" t="s" s="2">
-        <v>78</v>
+        <v>690</v>
       </c>
       <c r="AB229" t="s" s="2">
         <v>78</v>
@@ -28650,7 +28676,7 @@
         <v>78</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>527</v>
+        <v>685</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>76</v>
@@ -28670,10 +28696,10 @@
         <v>823</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>532</v>
+        <v>691</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>532</v>
+        <v>691</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
@@ -28684,10 +28710,10 @@
         <v>76</v>
       </c>
       <c r="H230" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I230" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J230" t="s" s="2">
         <v>78</v>
@@ -28696,17 +28722,19 @@
         <v>78</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>533</v>
+        <v>207</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>534</v>
+        <v>692</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="O230" s="2"/>
+        <v>693</v>
+      </c>
+      <c r="O230" t="s" s="2">
+        <v>694</v>
+      </c>
       <c r="P230" t="s" s="2">
-        <v>536</v>
+        <v>695</v>
       </c>
       <c r="Q230" t="s" s="2">
         <v>78</v>
@@ -28731,13 +28759,13 @@
         <v>78</v>
       </c>
       <c r="Y230" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="Z230" t="s" s="2">
-        <v>78</v>
+        <v>696</v>
       </c>
       <c r="AA230" t="s" s="2">
-        <v>78</v>
+        <v>697</v>
       </c>
       <c r="AB230" t="s" s="2">
         <v>78</v>
@@ -28755,13 +28783,13 @@
         <v>78</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>532</v>
+        <v>691</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ230" t="s" s="2">
         <v>78</v>
@@ -28775,10 +28803,10 @@
         <v>823</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>537</v>
+        <v>698</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>537</v>
+        <v>698</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -28789,7 +28817,7 @@
         <v>76</v>
       </c>
       <c r="H231" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I231" t="s" s="2">
         <v>78</v>
@@ -28801,20 +28829,18 @@
         <v>78</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>311</v>
+        <v>699</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>538</v>
+        <v>700</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>539</v>
+        <v>701</v>
       </c>
       <c r="O231" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="P231" t="s" s="2">
-        <v>541</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="P231" s="2"/>
       <c r="Q231" t="s" s="2">
         <v>78</v>
       </c>
@@ -28862,13 +28888,13 @@
         <v>78</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>537</v>
+        <v>698</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI231" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ231" t="s" s="2">
         <v>78</v>
@@ -28882,10 +28908,10 @@
         <v>823</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>542</v>
+        <v>703</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>542</v>
+        <v>703</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -28896,7 +28922,7 @@
         <v>76</v>
       </c>
       <c r="H232" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I232" t="s" s="2">
         <v>78</v>
@@ -28908,20 +28934,18 @@
         <v>78</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>207</v>
+        <v>704</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>543</v>
+        <v>705</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>544</v>
+        <v>706</v>
       </c>
       <c r="O232" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="P232" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="P232" s="2"/>
       <c r="Q232" t="s" s="2">
         <v>78</v>
       </c>
@@ -28945,13 +28969,13 @@
         <v>78</v>
       </c>
       <c r="Y232" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="Z232" t="s" s="2">
-        <v>547</v>
+        <v>78</v>
       </c>
       <c r="AA232" t="s" s="2">
-        <v>354</v>
+        <v>78</v>
       </c>
       <c r="AB232" t="s" s="2">
         <v>78</v>
@@ -28969,13 +28993,13 @@
         <v>78</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>542</v>
+        <v>703</v>
       </c>
       <c r="AH232" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI232" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ232" t="s" s="2">
         <v>78</v>
@@ -28989,10 +29013,10 @@
         <v>823</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>548</v>
+        <v>708</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>548</v>
+        <v>708</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -29015,19 +29039,19 @@
         <v>78</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>549</v>
+        <v>287</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>550</v>
+        <v>709</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>551</v>
+        <v>710</v>
       </c>
       <c r="O233" t="s" s="2">
-        <v>552</v>
+        <v>711</v>
       </c>
       <c r="P233" t="s" s="2">
-        <v>546</v>
+        <v>712</v>
       </c>
       <c r="Q233" t="s" s="2">
         <v>78</v>
@@ -29076,7 +29100,7 @@
         <v>78</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>548</v>
+        <v>708</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>76</v>
@@ -29088,29 +29112,29 @@
         <v>78</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>96</v>
+        <v>713</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>558</v>
+        <v>714</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>558</v>
+        <v>714</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
-        <v>560</v>
+        <v>78</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H234" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I234" t="s" s="2">
         <v>78</v>
@@ -29122,17 +29146,15 @@
         <v>78</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>561</v>
+        <v>121</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="O234" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="O234" s="2"/>
       <c r="P234" s="2"/>
       <c r="Q234" t="s" s="2">
         <v>78</v>
@@ -29181,41 +29203,41 @@
         <v>78</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>558</v>
+        <v>123</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI234" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ234" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>562</v>
+        <v>78</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>563</v>
+        <v>715</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>563</v>
+        <v>715</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F235" s="2"/>
       <c r="G235" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H235" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I235" t="s" s="2">
         <v>78</v>
@@ -29224,19 +29246,19 @@
         <v>78</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="O235" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="P235" s="2"/>
       <c r="Q235" t="s" s="2">
@@ -29286,62 +29308,66 @@
         <v>78</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI235" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ235" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>564</v>
+        <v>716</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>564</v>
+        <v>716</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H236" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I236" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K236" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>93</v>
+        <v>296</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O236" s="2"/>
-      <c r="P236" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="O236" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P236" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="Q236" t="s" s="2">
         <v>78</v>
       </c>
@@ -29389,30 +29415,30 @@
         <v>78</v>
       </c>
       <c r="AG236" t="s" s="2">
-        <v>95</v>
+        <v>298</v>
       </c>
       <c r="AH236" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI236" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ236" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>565</v>
+        <v>717</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>565</v>
+        <v>717</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -29429,23 +29455,21 @@
         <v>78</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>98</v>
+        <v>407</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>99</v>
+        <v>718</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O237" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="O237" s="2"/>
       <c r="P237" s="2"/>
       <c r="Q237" t="s" s="2">
         <v>78</v>
@@ -29494,7 +29518,7 @@
         <v>78</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>102</v>
+        <v>717</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>76</v>
@@ -29503,7 +29527,7 @@
         <v>84</v>
       </c>
       <c r="AJ237" t="s" s="2">
-        <v>78</v>
+        <v>720</v>
       </c>
       <c r="AK237" t="s" s="2">
         <v>96</v>
@@ -29511,13 +29535,13 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>566</v>
+        <v>721</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>566</v>
+        <v>721</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
@@ -29540,17 +29564,15 @@
         <v>78</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>104</v>
+        <v>407</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>105</v>
+        <v>722</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O238" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="O238" s="2"/>
       <c r="P238" s="2"/>
       <c r="Q238" t="s" s="2">
         <v>78</v>
@@ -29575,13 +29597,13 @@
         <v>78</v>
       </c>
       <c r="Y238" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="Z238" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="AA238" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="AB238" t="s" s="2">
         <v>78</v>
@@ -29599,7 +29621,7 @@
         <v>78</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>111</v>
+        <v>721</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>76</v>
@@ -29608,7 +29630,7 @@
         <v>84</v>
       </c>
       <c r="AJ238" t="s" s="2">
-        <v>78</v>
+        <v>720</v>
       </c>
       <c r="AK238" t="s" s="2">
         <v>96</v>
@@ -29616,17 +29638,17 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>567</v>
+        <v>724</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>567</v>
+        <v>724</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="F239" s="2"/>
       <c r="G239" t="s" s="2">
@@ -29645,18 +29667,20 @@
         <v>78</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>434</v>
+        <v>725</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>116</v>
+        <v>726</v>
       </c>
       <c r="O239" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="P239" s="2"/>
+        <v>727</v>
+      </c>
+      <c r="P239" t="s" s="2">
+        <v>728</v>
+      </c>
       <c r="Q239" t="s" s="2">
         <v>78</v>
       </c>
@@ -29680,13 +29704,13 @@
         <v>78</v>
       </c>
       <c r="Y239" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="Z239" t="s" s="2">
-        <v>78</v>
+        <v>729</v>
       </c>
       <c r="AA239" t="s" s="2">
-        <v>78</v>
+        <v>730</v>
       </c>
       <c r="AB239" t="s" s="2">
         <v>78</v>
@@ -29704,7 +29728,7 @@
         <v>78</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>118</v>
+        <v>724</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>76</v>
@@ -29721,17 +29745,17 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>568</v>
+        <v>731</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>568</v>
+        <v>731</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="F240" s="2"/>
       <c r="G240" t="s" s="2">
@@ -29750,18 +29774,20 @@
         <v>78</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>152</v>
+        <v>732</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>153</v>
+        <v>733</v>
       </c>
       <c r="O240" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="P240" s="2"/>
+        <v>734</v>
+      </c>
+      <c r="P240" t="s" s="2">
+        <v>735</v>
+      </c>
       <c r="Q240" t="s" s="2">
         <v>78</v>
       </c>
@@ -29785,13 +29811,13 @@
         <v>78</v>
       </c>
       <c r="Y240" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="Z240" t="s" s="2">
-        <v>78</v>
+        <v>736</v>
       </c>
       <c r="AA240" t="s" s="2">
-        <v>78</v>
+        <v>737</v>
       </c>
       <c r="AB240" t="s" s="2">
         <v>78</v>
@@ -29809,7 +29835,7 @@
         <v>78</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>155</v>
+        <v>731</v>
       </c>
       <c r="AH240" t="s" s="2">
         <v>76</v>
@@ -29821,29 +29847,29 @@
         <v>78</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>569</v>
+        <v>738</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>569</v>
+        <v>738</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="F241" s="2"/>
       <c r="G241" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H241" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I241" t="s" s="2">
         <v>78</v>
@@ -29855,18 +29881,18 @@
         <v>78</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>126</v>
+        <v>739</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>127</v>
+        <v>740</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O241" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P241" s="2"/>
+        <v>741</v>
+      </c>
+      <c r="O241" s="2"/>
+      <c r="P241" t="s" s="2">
+        <v>742</v>
+      </c>
       <c r="Q241" t="s" s="2">
         <v>78</v>
       </c>
@@ -29914,66 +29940,62 @@
         <v>78</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>158</v>
+        <v>738</v>
       </c>
       <c r="AH241" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI241" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ241" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>134</v>
+        <v>96</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>570</v>
+        <v>743</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>570</v>
+        <v>743</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="F242" s="2"/>
       <c r="G242" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H242" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I242" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J242" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K242" t="s" s="2">
         <v>78</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>160</v>
+        <v>744</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O242" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P242" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="O242" s="2"/>
+      <c r="P242" s="2"/>
       <c r="Q242" t="s" s="2">
         <v>78</v>
       </c>
@@ -30021,30 +30043,30 @@
         <v>78</v>
       </c>
       <c r="AG242" t="s" s="2">
-        <v>163</v>
+        <v>743</v>
       </c>
       <c r="AH242" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI242" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ242" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK242" t="s" s="2">
-        <v>134</v>
+        <v>96</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>571</v>
+        <v>746</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>571</v>
+        <v>746</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
@@ -30058,7 +30080,7 @@
         <v>77</v>
       </c>
       <c r="I243" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J243" t="s" s="2">
         <v>78</v>
@@ -30067,18 +30089,18 @@
         <v>85</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>165</v>
+        <v>747</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>572</v>
+        <v>748</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="O243" s="2"/>
-      <c r="P243" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="O243" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="P243" s="2"/>
       <c r="Q243" t="s" s="2">
         <v>78</v>
       </c>
@@ -30126,7 +30148,7 @@
         <v>78</v>
       </c>
       <c r="AG243" t="s" s="2">
-        <v>571</v>
+        <v>746</v>
       </c>
       <c r="AH243" t="s" s="2">
         <v>76</v>
@@ -30143,17 +30165,17 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>575</v>
+        <v>751</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>575</v>
+        <v>751</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
-        <v>576</v>
+        <v>78</v>
       </c>
       <c r="F244" s="2"/>
       <c r="G244" t="s" s="2">
@@ -30163,7 +30185,7 @@
         <v>77</v>
       </c>
       <c r="I244" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J244" t="s" s="2">
         <v>78</v>
@@ -30172,18 +30194,18 @@
         <v>85</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>577</v>
+        <v>752</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>578</v>
+        <v>753</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O244" s="2"/>
-      <c r="P244" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="O244" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="P244" s="2"/>
       <c r="Q244" t="s" s="2">
         <v>78</v>
       </c>
@@ -30231,7 +30253,7 @@
         <v>78</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>575</v>
+        <v>751</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>76</v>
@@ -30248,17 +30270,17 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>581</v>
+        <v>756</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>581</v>
+        <v>756</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
-        <v>582</v>
+        <v>78</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" t="s" s="2">
@@ -30277,18 +30299,20 @@
         <v>85</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>583</v>
+        <v>287</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>584</v>
+        <v>757</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>585</v>
+        <v>758</v>
       </c>
       <c r="O245" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="P245" s="2"/>
+        <v>759</v>
+      </c>
+      <c r="P245" t="s" s="2">
+        <v>760</v>
+      </c>
       <c r="Q245" t="s" s="2">
         <v>78</v>
       </c>
@@ -30336,7 +30360,7 @@
         <v>78</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>581</v>
+        <v>756</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>76</v>
@@ -30353,13 +30377,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>587</v>
+        <v>761</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>587</v>
+        <v>761</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -30367,35 +30391,31 @@
       </c>
       <c r="F246" s="2"/>
       <c r="G246" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H246" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I246" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>588</v>
+        <v>121</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="O246" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="P246" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="O246" s="2"/>
+      <c r="P246" s="2"/>
       <c r="Q246" t="s" s="2">
         <v>78</v>
       </c>
@@ -30419,13 +30439,13 @@
         <v>78</v>
       </c>
       <c r="Y246" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="Z246" t="s" s="2">
-        <v>592</v>
+        <v>78</v>
       </c>
       <c r="AA246" t="s" s="2">
-        <v>593</v>
+        <v>78</v>
       </c>
       <c r="AB246" t="s" s="2">
         <v>78</v>
@@ -30443,10 +30463,10 @@
         <v>78</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>587</v>
+        <v>123</v>
       </c>
       <c r="AH246" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI246" t="s" s="2">
         <v>84</v>
@@ -30455,32 +30475,32 @@
         <v>78</v>
       </c>
       <c r="AK246" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>594</v>
+        <v>762</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>594</v>
+        <v>762</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F247" s="2"/>
       <c r="G247" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H247" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J247" t="s" s="2">
         <v>78</v>
@@ -30489,20 +30509,18 @@
         <v>78</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>595</v>
+        <v>127</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>596</v>
+        <v>128</v>
       </c>
       <c r="O247" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="P247" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="P247" s="2"/>
       <c r="Q247" t="s" s="2">
         <v>78</v>
       </c>
@@ -30526,29 +30544,31 @@
         <v>78</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="Z247" t="s" s="2">
-        <v>599</v>
+        <v>78</v>
       </c>
       <c r="AA247" t="s" s="2">
-        <v>600</v>
+        <v>78</v>
       </c>
       <c r="AB247" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AC247" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AD247" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AD247" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AE247" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF247" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>594</v>
+        <v>133</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>76</v>
@@ -30560,55 +30580,53 @@
         <v>78</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>601</v>
+        <v>763</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="D248" t="s" s="2">
-        <v>602</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="F248" s="2"/>
       <c r="G248" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H248" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J248" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J248" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K248" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>595</v>
+        <v>296</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>596</v>
+        <v>297</v>
       </c>
       <c r="O248" t="s" s="2">
-        <v>597</v>
+        <v>129</v>
       </c>
       <c r="P248" t="s" s="2">
-        <v>603</v>
+        <v>162</v>
       </c>
       <c r="Q248" t="s" s="2">
         <v>78</v>
@@ -30618,7 +30636,7 @@
         <v>78</v>
       </c>
       <c r="T248" t="s" s="2">
-        <v>604</v>
+        <v>78</v>
       </c>
       <c r="U248" t="s" s="2">
         <v>78</v>
@@ -30633,13 +30651,13 @@
         <v>78</v>
       </c>
       <c r="Y248" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="Z248" t="s" s="2">
-        <v>599</v>
+        <v>78</v>
       </c>
       <c r="AA248" t="s" s="2">
-        <v>600</v>
+        <v>78</v>
       </c>
       <c r="AB248" t="s" s="2">
         <v>78</v>
@@ -30657,7 +30675,7 @@
         <v>78</v>
       </c>
       <c r="AG248" t="s" s="2">
-        <v>594</v>
+        <v>298</v>
       </c>
       <c r="AH248" t="s" s="2">
         <v>76</v>
@@ -30669,55 +30687,53 @@
         <v>78</v>
       </c>
       <c r="AK248" t="s" s="2">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>605</v>
+        <v>764</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="D249" t="s" s="2">
-        <v>606</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H249" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K249" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="J249" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K249" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="L249" t="s" s="2">
         <v>207</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>595</v>
+        <v>765</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>607</v>
+        <v>766</v>
       </c>
       <c r="O249" t="s" s="2">
-        <v>597</v>
+        <v>767</v>
       </c>
       <c r="P249" t="s" s="2">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="Q249" t="s" s="2">
         <v>78</v>
@@ -30742,13 +30758,13 @@
         <v>78</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="Z249" t="s" s="2">
-        <v>222</v>
+        <v>768</v>
       </c>
       <c r="AA249" t="s" s="2">
-        <v>609</v>
+        <v>508</v>
       </c>
       <c r="AB249" t="s" s="2">
         <v>78</v>
@@ -30766,13 +30782,13 @@
         <v>78</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>594</v>
+        <v>764</v>
       </c>
       <c r="AH249" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI249" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ249" t="s" s="2">
         <v>78</v>
@@ -30783,27 +30799,27 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>610</v>
+        <v>769</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>610</v>
+        <v>769</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
-        <v>611</v>
+        <v>78</v>
       </c>
       <c r="F250" s="2"/>
       <c r="G250" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H250" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I250" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J250" t="s" s="2">
         <v>78</v>
@@ -30812,19 +30828,19 @@
         <v>85</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>207</v>
+        <v>770</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>839</v>
+        <v>771</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>613</v>
+        <v>659</v>
       </c>
       <c r="O250" t="s" s="2">
-        <v>614</v>
+        <v>772</v>
       </c>
       <c r="P250" t="s" s="2">
-        <v>615</v>
+        <v>661</v>
       </c>
       <c r="Q250" t="s" s="2">
         <v>78</v>
@@ -30849,11 +30865,13 @@
         <v>78</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z250" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Z250" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AA250" t="s" s="2">
-        <v>840</v>
+        <v>78</v>
       </c>
       <c r="AB250" t="s" s="2">
         <v>78</v>
@@ -30871,10 +30889,10 @@
         <v>78</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>610</v>
+        <v>769</v>
       </c>
       <c r="AH250" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI250" t="s" s="2">
         <v>84</v>
@@ -30888,13 +30906,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>617</v>
+        <v>773</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>617</v>
+        <v>773</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -30902,34 +30920,34 @@
       </c>
       <c r="F251" s="2"/>
       <c r="G251" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H251" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I251" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J251" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>618</v>
+        <v>774</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>619</v>
+        <v>775</v>
       </c>
       <c r="O251" t="s" s="2">
-        <v>620</v>
+        <v>776</v>
       </c>
       <c r="P251" t="s" s="2">
-        <v>621</v>
+        <v>668</v>
       </c>
       <c r="Q251" t="s" s="2">
         <v>78</v>
@@ -30954,13 +30972,13 @@
         <v>78</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="Z251" t="s" s="2">
-        <v>78</v>
+        <v>669</v>
       </c>
       <c r="AA251" t="s" s="2">
-        <v>78</v>
+        <v>670</v>
       </c>
       <c r="AB251" t="s" s="2">
         <v>78</v>
@@ -30978,7 +30996,7 @@
         <v>78</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>617</v>
+        <v>773</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>76</v>
@@ -30987,7 +31005,7 @@
         <v>84</v>
       </c>
       <c r="AJ251" t="s" s="2">
-        <v>78</v>
+        <v>777</v>
       </c>
       <c r="AK251" t="s" s="2">
         <v>96</v>
@@ -30995,47 +31013,49 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>622</v>
+        <v>778</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>622</v>
+        <v>778</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
-        <v>78</v>
+        <v>673</v>
       </c>
       <c r="F252" s="2"/>
       <c r="G252" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H252" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I252" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J252" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>281</v>
+        <v>207</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>624</v>
+        <v>674</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="O252" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="P252" s="2"/>
+        <v>676</v>
+      </c>
+      <c r="P252" t="s" s="2">
+        <v>677</v>
+      </c>
       <c r="Q252" t="s" s="2">
         <v>78</v>
       </c>
@@ -31059,13 +31079,13 @@
         <v>78</v>
       </c>
       <c r="Y252" t="s" s="2">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="Z252" t="s" s="2">
-        <v>78</v>
+        <v>678</v>
       </c>
       <c r="AA252" t="s" s="2">
-        <v>78</v>
+        <v>679</v>
       </c>
       <c r="AB252" t="s" s="2">
         <v>78</v>
@@ -31083,7 +31103,7 @@
         <v>78</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>622</v>
+        <v>778</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>76</v>
@@ -31100,24 +31120,24 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>627</v>
+        <v>779</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>627</v>
+        <v>779</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
-        <v>628</v>
+        <v>78</v>
       </c>
       <c r="F253" s="2"/>
       <c r="G253" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H253" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I253" t="s" s="2">
         <v>78</v>
@@ -31126,22 +31146,22 @@
         <v>78</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>629</v>
+        <v>780</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>630</v>
+        <v>781</v>
       </c>
       <c r="O253" t="s" s="2">
-        <v>631</v>
+        <v>711</v>
       </c>
       <c r="P253" t="s" s="2">
-        <v>632</v>
+        <v>712</v>
       </c>
       <c r="Q253" t="s" s="2">
         <v>78</v>
@@ -31190,13 +31210,13 @@
         <v>78</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>627</v>
+        <v>779</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI253" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ253" t="s" s="2">
         <v>78</v>
@@ -31207,49 +31227,47 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>633</v>
+        <v>426</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>633</v>
+        <v>426</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
-        <v>634</v>
+        <v>78</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H254" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I254" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J254" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>635</v>
+        <v>428</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>636</v>
+        <v>81</v>
       </c>
       <c r="O254" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="P254" t="s" s="2">
-        <v>638</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P254" s="2"/>
       <c r="Q254" t="s" s="2">
         <v>78</v>
       </c>
@@ -31285,56 +31303,56 @@
         <v>78</v>
       </c>
       <c r="AC254" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AD254" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AD254" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AE254" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF254" t="s" s="2">
-        <v>640</v>
+        <v>78</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>633</v>
+        <v>426</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI254" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ254" t="s" s="2">
-        <v>641</v>
+        <v>78</v>
       </c>
       <c r="AK254" t="s" s="2">
-        <v>642</v>
+        <v>82</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>643</v>
+        <v>429</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="D255" t="s" s="2">
-        <v>644</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
-        <v>634</v>
+        <v>78</v>
       </c>
       <c r="F255" s="2"/>
       <c r="G255" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H255" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I255" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J255" t="s" s="2">
         <v>78</v>
@@ -31343,20 +31361,18 @@
         <v>85</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>251</v>
+        <v>86</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>645</v>
+        <v>87</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>636</v>
+        <v>88</v>
       </c>
       <c r="O255" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="P255" t="s" s="2">
-        <v>638</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P255" s="2"/>
       <c r="Q255" t="s" s="2">
         <v>78</v>
       </c>
@@ -31404,7 +31420,7 @@
         <v>78</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>633</v>
+        <v>90</v>
       </c>
       <c r="AH255" t="s" s="2">
         <v>76</v>
@@ -31413,21 +31429,21 @@
         <v>84</v>
       </c>
       <c r="AJ255" t="s" s="2">
-        <v>641</v>
+        <v>78</v>
       </c>
       <c r="AK255" t="s" s="2">
-        <v>642</v>
+        <v>78</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>646</v>
+        <v>430</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>646</v>
+        <v>430</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
@@ -31450,17 +31466,15 @@
         <v>85</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>647</v>
+        <v>92</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>648</v>
+        <v>93</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="O256" t="s" s="2">
-        <v>650</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="O256" s="2"/>
       <c r="P256" s="2"/>
       <c r="Q256" t="s" s="2">
         <v>78</v>
@@ -31509,7 +31523,7 @@
         <v>78</v>
       </c>
       <c r="AG256" t="s" s="2">
-        <v>646</v>
+        <v>95</v>
       </c>
       <c r="AH256" t="s" s="2">
         <v>76</v>
@@ -31526,13 +31540,13 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>651</v>
+        <v>431</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>651</v>
+        <v>431</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
@@ -31543,32 +31557,30 @@
         <v>76</v>
       </c>
       <c r="H257" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I257" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J257" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="J257" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="K257" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>652</v>
+        <v>98</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>653</v>
+        <v>99</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>654</v>
+        <v>100</v>
       </c>
       <c r="O257" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="P257" t="s" s="2">
-        <v>656</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="P257" s="2"/>
       <c r="Q257" t="s" s="2">
         <v>78</v>
       </c>
@@ -31616,13 +31628,13 @@
         <v>78</v>
       </c>
       <c r="AG257" t="s" s="2">
-        <v>651</v>
+        <v>102</v>
       </c>
       <c r="AH257" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI257" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ257" t="s" s="2">
         <v>78</v>
@@ -31633,13 +31645,13 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>657</v>
+        <v>432</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>657</v>
+        <v>432</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
@@ -31653,29 +31665,27 @@
         <v>84</v>
       </c>
       <c r="I258" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J258" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>770</v>
+        <v>104</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>658</v>
+        <v>105</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>659</v>
+        <v>106</v>
       </c>
       <c r="O258" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="P258" t="s" s="2">
-        <v>661</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P258" s="2"/>
       <c r="Q258" t="s" s="2">
         <v>78</v>
       </c>
@@ -31699,13 +31709,13 @@
         <v>78</v>
       </c>
       <c r="Y258" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="Z258" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="AA258" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AB258" t="s" s="2">
         <v>78</v>
@@ -31723,7 +31733,7 @@
         <v>78</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>657</v>
+        <v>111</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>76</v>
@@ -31732,7 +31742,7 @@
         <v>84</v>
       </c>
       <c r="AJ258" t="s" s="2">
-        <v>663</v>
+        <v>78</v>
       </c>
       <c r="AK258" t="s" s="2">
         <v>96</v>
@@ -31740,17 +31750,17 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>664</v>
+        <v>433</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>664</v>
+        <v>433</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="F259" s="2"/>
       <c r="G259" t="s" s="2">
@@ -31760,7 +31770,7 @@
         <v>84</v>
       </c>
       <c r="I259" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J259" t="s" s="2">
         <v>78</v>
@@ -31769,20 +31779,18 @@
         <v>78</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>665</v>
+        <v>434</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>666</v>
+        <v>116</v>
       </c>
       <c r="O259" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="P259" t="s" s="2">
-        <v>668</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P259" s="2"/>
       <c r="Q259" t="s" s="2">
         <v>78</v>
       </c>
@@ -31806,13 +31814,13 @@
         <v>78</v>
       </c>
       <c r="Y259" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="Z259" t="s" s="2">
-        <v>669</v>
+        <v>78</v>
       </c>
       <c r="AA259" t="s" s="2">
-        <v>670</v>
+        <v>78</v>
       </c>
       <c r="AB259" t="s" s="2">
         <v>78</v>
@@ -31830,7 +31838,7 @@
         <v>78</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>664</v>
+        <v>118</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>76</v>
@@ -31839,7 +31847,7 @@
         <v>84</v>
       </c>
       <c r="AJ259" t="s" s="2">
-        <v>671</v>
+        <v>78</v>
       </c>
       <c r="AK259" t="s" s="2">
         <v>96</v>
@@ -31847,17 +31855,17 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>672</v>
+        <v>435</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>672</v>
+        <v>435</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
-        <v>673</v>
+        <v>150</v>
       </c>
       <c r="F260" s="2"/>
       <c r="G260" t="s" s="2">
@@ -31876,20 +31884,18 @@
         <v>78</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>674</v>
+        <v>152</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>675</v>
+        <v>153</v>
       </c>
       <c r="O260" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="P260" t="s" s="2">
-        <v>677</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="P260" s="2"/>
       <c r="Q260" t="s" s="2">
         <v>78</v>
       </c>
@@ -31913,13 +31919,13 @@
         <v>78</v>
       </c>
       <c r="Y260" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="Z260" t="s" s="2">
-        <v>678</v>
+        <v>78</v>
       </c>
       <c r="AA260" t="s" s="2">
-        <v>679</v>
+        <v>78</v>
       </c>
       <c r="AB260" t="s" s="2">
         <v>78</v>
@@ -31937,7 +31943,7 @@
         <v>78</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>672</v>
+        <v>155</v>
       </c>
       <c r="AH260" t="s" s="2">
         <v>76</v>
@@ -31949,22 +31955,22 @@
         <v>78</v>
       </c>
       <c r="AK260" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>680</v>
+        <v>436</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>680</v>
+        <v>436</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F261" s="2"/>
       <c r="G261" t="s" s="2">
@@ -31983,20 +31989,18 @@
         <v>78</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>311</v>
+        <v>126</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>681</v>
+        <v>127</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>682</v>
+        <v>157</v>
       </c>
       <c r="O261" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="P261" t="s" s="2">
-        <v>684</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="P261" s="2"/>
       <c r="Q261" t="s" s="2">
         <v>78</v>
       </c>
@@ -32044,7 +32048,7 @@
         <v>78</v>
       </c>
       <c r="AG261" t="s" s="2">
-        <v>680</v>
+        <v>158</v>
       </c>
       <c r="AH261" t="s" s="2">
         <v>76</v>
@@ -32056,52 +32060,54 @@
         <v>78</v>
       </c>
       <c r="AK261" t="s" s="2">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>685</v>
+        <v>446</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>685</v>
+        <v>446</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F262" s="2"/>
       <c r="G262" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H262" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I262" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J262" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K262" t="s" s="2">
         <v>78</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>686</v>
+        <v>160</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>687</v>
+        <v>161</v>
       </c>
       <c r="O262" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="P262" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="P262" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="Q262" t="s" s="2">
         <v>78</v>
       </c>
@@ -32125,13 +32131,13 @@
         <v>78</v>
       </c>
       <c r="Y262" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="Z262" t="s" s="2">
-        <v>689</v>
+        <v>78</v>
       </c>
       <c r="AA262" t="s" s="2">
-        <v>690</v>
+        <v>78</v>
       </c>
       <c r="AB262" t="s" s="2">
         <v>78</v>
@@ -32149,30 +32155,30 @@
         <v>78</v>
       </c>
       <c r="AG262" t="s" s="2">
-        <v>685</v>
+        <v>163</v>
       </c>
       <c r="AH262" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI262" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ262" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK262" t="s" s="2">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>691</v>
+        <v>447</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>691</v>
+        <v>447</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -32183,7 +32189,7 @@
         <v>76</v>
       </c>
       <c r="H263" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I263" t="s" s="2">
         <v>78</v>
@@ -32195,19 +32201,19 @@
         <v>78</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>692</v>
+        <v>448</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>693</v>
+        <v>449</v>
       </c>
       <c r="O263" t="s" s="2">
-        <v>694</v>
+        <v>168</v>
       </c>
       <c r="P263" t="s" s="2">
-        <v>695</v>
+        <v>450</v>
       </c>
       <c r="Q263" t="s" s="2">
         <v>78</v>
@@ -32232,13 +32238,13 @@
         <v>78</v>
       </c>
       <c r="Y263" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="Z263" t="s" s="2">
-        <v>696</v>
+        <v>78</v>
       </c>
       <c r="AA263" t="s" s="2">
-        <v>697</v>
+        <v>78</v>
       </c>
       <c r="AB263" t="s" s="2">
         <v>78</v>
@@ -32256,13 +32262,13 @@
         <v>78</v>
       </c>
       <c r="AG263" t="s" s="2">
-        <v>691</v>
+        <v>447</v>
       </c>
       <c r="AH263" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI263" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ263" t="s" s="2">
         <v>78</v>
@@ -32273,13 +32279,13 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>698</v>
+        <v>451</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>698</v>
+        <v>451</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" t="s" s="2">
@@ -32287,33 +32293,35 @@
       </c>
       <c r="F264" s="2"/>
       <c r="G264" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H264" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I264" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J264" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>699</v>
+        <v>104</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>700</v>
+        <v>452</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>701</v>
+        <v>453</v>
       </c>
       <c r="O264" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="P264" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="P264" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="Q264" t="s" s="2">
         <v>78</v>
       </c>
@@ -32337,13 +32345,11 @@
         <v>78</v>
       </c>
       <c r="Y264" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z264" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="Z264" s="2"/>
       <c r="AA264" t="s" s="2">
-        <v>78</v>
+        <v>456</v>
       </c>
       <c r="AB264" t="s" s="2">
         <v>78</v>
@@ -32361,10 +32367,10 @@
         <v>78</v>
       </c>
       <c r="AG264" t="s" s="2">
-        <v>698</v>
+        <v>451</v>
       </c>
       <c r="AH264" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI264" t="s" s="2">
         <v>84</v>
@@ -32378,13 +32384,13 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>703</v>
+        <v>457</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>703</v>
+        <v>457</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -32404,20 +32410,18 @@
         <v>78</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>704</v>
+        <v>207</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>705</v>
+        <v>458</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="O265" t="s" s="2">
-        <v>707</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="O265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" t="s" s="2">
         <v>78</v>
@@ -32442,13 +32446,13 @@
         <v>78</v>
       </c>
       <c r="Y265" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="Z265" t="s" s="2">
-        <v>78</v>
+        <v>460</v>
       </c>
       <c r="AA265" t="s" s="2">
-        <v>78</v>
+        <v>461</v>
       </c>
       <c r="AB265" t="s" s="2">
         <v>78</v>
@@ -32466,7 +32470,7 @@
         <v>78</v>
       </c>
       <c r="AG265" t="s" s="2">
-        <v>703</v>
+        <v>457</v>
       </c>
       <c r="AH265" t="s" s="2">
         <v>76</v>
@@ -32483,13 +32487,13 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>708</v>
+        <v>462</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>708</v>
+        <v>462</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
@@ -32509,22 +32513,20 @@
         <v>78</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>709</v>
+        <v>463</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="O266" t="s" s="2">
-        <v>711</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="O266" s="2"/>
       <c r="P266" t="s" s="2">
-        <v>712</v>
+        <v>465</v>
       </c>
       <c r="Q266" t="s" s="2">
         <v>78</v>
@@ -32549,31 +32551,29 @@
         <v>78</v>
       </c>
       <c r="Y266" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="Z266" t="s" s="2">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="AA266" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="AB266" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AC266" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD266" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="AD266" s="2"/>
       <c r="AE266" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF266" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AG266" t="s" s="2">
-        <v>708</v>
+        <v>462</v>
       </c>
       <c r="AH266" t="s" s="2">
         <v>76</v>
@@ -32585,20 +32585,22 @@
         <v>78</v>
       </c>
       <c r="AK266" t="s" s="2">
-        <v>713</v>
+        <v>96</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>714</v>
+        <v>468</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="D267" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="D267" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="E267" t="s" s="2">
         <v>78</v>
       </c>
@@ -32607,28 +32609,30 @@
         <v>76</v>
       </c>
       <c r="H267" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I267" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J267" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>122</v>
+        <v>464</v>
       </c>
       <c r="O267" s="2"/>
-      <c r="P267" s="2"/>
+      <c r="P267" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="Q267" t="s" s="2">
         <v>78</v>
       </c>
@@ -32652,13 +32656,13 @@
         <v>78</v>
       </c>
       <c r="Y267" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="Z267" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AA267" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="AB267" t="s" s="2">
         <v>78</v>
@@ -32676,41 +32680,41 @@
         <v>78</v>
       </c>
       <c r="AG267" t="s" s="2">
-        <v>123</v>
+        <v>462</v>
       </c>
       <c r="AH267" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI267" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ267" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK267" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>715</v>
+        <v>469</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>715</v>
+        <v>469</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H268" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I268" t="s" s="2">
         <v>78</v>
@@ -32719,21 +32723,23 @@
         <v>78</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>127</v>
+        <v>470</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>128</v>
+        <v>471</v>
       </c>
       <c r="O268" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P268" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="P268" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="Q268" t="s" s="2">
         <v>78</v>
       </c>
@@ -32757,13 +32763,13 @@
         <v>78</v>
       </c>
       <c r="Y268" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="Z268" t="s" s="2">
-        <v>78</v>
+        <v>474</v>
       </c>
       <c r="AA268" t="s" s="2">
-        <v>78</v>
+        <v>475</v>
       </c>
       <c r="AB268" t="s" s="2">
         <v>78</v>
@@ -32781,65 +32787,65 @@
         <v>78</v>
       </c>
       <c r="AG268" t="s" s="2">
-        <v>133</v>
+        <v>469</v>
       </c>
       <c r="AH268" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI268" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ268" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK268" t="s" s="2">
-        <v>134</v>
+        <v>96</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>716</v>
+        <v>476</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>716</v>
+        <v>476</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="F269" s="2"/>
       <c r="G269" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H269" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I269" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J269" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K269" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>296</v>
+        <v>477</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>297</v>
+        <v>478</v>
       </c>
       <c r="O269" t="s" s="2">
-        <v>129</v>
+        <v>479</v>
       </c>
       <c r="P269" t="s" s="2">
-        <v>162</v>
+        <v>480</v>
       </c>
       <c r="Q269" t="s" s="2">
         <v>78</v>
@@ -32864,13 +32870,13 @@
         <v>78</v>
       </c>
       <c r="Y269" t="s" s="2">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="Z269" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AA269" t="s" s="2">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="AB269" t="s" s="2">
         <v>78</v>
@@ -32888,30 +32894,30 @@
         <v>78</v>
       </c>
       <c r="AG269" t="s" s="2">
-        <v>298</v>
+        <v>476</v>
       </c>
       <c r="AH269" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI269" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ269" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK269" t="s" s="2">
-        <v>134</v>
+        <v>96</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>717</v>
+        <v>484</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>717</v>
+        <v>484</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -32919,31 +32925,33 @@
       </c>
       <c r="F270" s="2"/>
       <c r="G270" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H270" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I270" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J270" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>407</v>
+        <v>233</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>718</v>
+        <v>485</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>719</v>
+        <v>486</v>
       </c>
       <c r="O270" s="2"/>
-      <c r="P270" s="2"/>
+      <c r="P270" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="Q270" t="s" s="2">
         <v>78</v>
       </c>
@@ -32991,16 +32999,16 @@
         <v>78</v>
       </c>
       <c r="AG270" t="s" s="2">
-        <v>717</v>
+        <v>484</v>
       </c>
       <c r="AH270" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI270" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ270" t="s" s="2">
-        <v>720</v>
+        <v>78</v>
       </c>
       <c r="AK270" t="s" s="2">
         <v>96</v>
@@ -33008,13 +33016,13 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>721</v>
+        <v>488</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>721</v>
+        <v>488</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
@@ -33022,31 +33030,33 @@
       </c>
       <c r="F271" s="2"/>
       <c r="G271" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H271" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I271" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J271" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>407</v>
+        <v>489</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>722</v>
+        <v>490</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>723</v>
+        <v>491</v>
       </c>
       <c r="O271" s="2"/>
-      <c r="P271" s="2"/>
+      <c r="P271" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="Q271" t="s" s="2">
         <v>78</v>
       </c>
@@ -33094,7 +33104,7 @@
         <v>78</v>
       </c>
       <c r="AG271" t="s" s="2">
-        <v>721</v>
+        <v>488</v>
       </c>
       <c r="AH271" t="s" s="2">
         <v>76</v>
@@ -33103,7 +33113,7 @@
         <v>84</v>
       </c>
       <c r="AJ271" t="s" s="2">
-        <v>720</v>
+        <v>78</v>
       </c>
       <c r="AK271" t="s" s="2">
         <v>96</v>
@@ -33111,13 +33121,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>724</v>
+        <v>493</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>724</v>
+        <v>493</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
@@ -33125,13 +33135,13 @@
       </c>
       <c r="F272" s="2"/>
       <c r="G272" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H272" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I272" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J272" t="s" s="2">
         <v>78</v>
@@ -33140,19 +33150,19 @@
         <v>78</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>725</v>
+        <v>494</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>726</v>
+        <v>495</v>
       </c>
       <c r="O272" t="s" s="2">
-        <v>727</v>
+        <v>496</v>
       </c>
       <c r="P272" t="s" s="2">
-        <v>728</v>
+        <v>497</v>
       </c>
       <c r="Q272" t="s" s="2">
         <v>78</v>
@@ -33177,13 +33187,13 @@
         <v>78</v>
       </c>
       <c r="Y272" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="Z272" t="s" s="2">
-        <v>729</v>
+        <v>78</v>
       </c>
       <c r="AA272" t="s" s="2">
-        <v>730</v>
+        <v>78</v>
       </c>
       <c r="AB272" t="s" s="2">
         <v>78</v>
@@ -33201,30 +33211,30 @@
         <v>78</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>724</v>
+        <v>493</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI272" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ272" t="s" s="2">
-        <v>78</v>
+        <v>498</v>
       </c>
       <c r="AK272" t="s" s="2">
-        <v>96</v>
+        <v>499</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>731</v>
+        <v>500</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>731</v>
+        <v>500</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
@@ -33235,7 +33245,7 @@
         <v>76</v>
       </c>
       <c r="H273" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I273" t="s" s="2">
         <v>78</v>
@@ -33247,20 +33257,16 @@
         <v>78</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>732</v>
+        <v>121</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="O273" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="P273" t="s" s="2">
-        <v>735</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="O273" s="2"/>
+      <c r="P273" s="2"/>
       <c r="Q273" t="s" s="2">
         <v>78</v>
       </c>
@@ -33284,13 +33290,13 @@
         <v>78</v>
       </c>
       <c r="Y273" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="Z273" t="s" s="2">
-        <v>736</v>
+        <v>78</v>
       </c>
       <c r="AA273" t="s" s="2">
-        <v>737</v>
+        <v>78</v>
       </c>
       <c r="AB273" t="s" s="2">
         <v>78</v>
@@ -33308,41 +33314,41 @@
         <v>78</v>
       </c>
       <c r="AG273" t="s" s="2">
-        <v>731</v>
+        <v>123</v>
       </c>
       <c r="AH273" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI273" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ273" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK273" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>738</v>
+        <v>501</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>738</v>
+        <v>501</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" t="s" s="2">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F274" s="2"/>
       <c r="G274" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H274" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I274" t="s" s="2">
         <v>78</v>
@@ -33354,18 +33360,18 @@
         <v>78</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>739</v>
+        <v>126</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>740</v>
+        <v>127</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="O274" s="2"/>
-      <c r="P274" t="s" s="2">
-        <v>742</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="O274" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P274" s="2"/>
       <c r="Q274" t="s" s="2">
         <v>78</v>
       </c>
@@ -33413,62 +33419,66 @@
         <v>78</v>
       </c>
       <c r="AG274" t="s" s="2">
-        <v>738</v>
+        <v>133</v>
       </c>
       <c r="AH274" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI274" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ274" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK274" t="s" s="2">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>743</v>
+        <v>502</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>743</v>
+        <v>502</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H275" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I275" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J275" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>744</v>
+        <v>296</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="O275" s="2"/>
-      <c r="P275" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="O275" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P275" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="Q275" t="s" s="2">
         <v>78</v>
       </c>
@@ -33516,30 +33526,30 @@
         <v>78</v>
       </c>
       <c r="AG275" t="s" s="2">
-        <v>743</v>
+        <v>298</v>
       </c>
       <c r="AH275" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI275" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ275" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK275" t="s" s="2">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>746</v>
+        <v>503</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>746</v>
+        <v>503</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
@@ -33547,10 +33557,10 @@
       </c>
       <c r="F276" s="2"/>
       <c r="G276" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H276" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I276" t="s" s="2">
         <v>85</v>
@@ -33562,17 +33572,15 @@
         <v>85</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>747</v>
+        <v>207</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>748</v>
+        <v>835</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="O276" t="s" s="2">
-        <v>750</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="O276" s="2"/>
       <c r="P276" s="2"/>
       <c r="Q276" t="s" s="2">
         <v>78</v>
@@ -33597,13 +33605,11 @@
         <v>78</v>
       </c>
       <c r="Y276" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z276" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="Z276" s="2"/>
       <c r="AA276" t="s" s="2">
-        <v>78</v>
+        <v>836</v>
       </c>
       <c r="AB276" t="s" s="2">
         <v>78</v>
@@ -33621,16 +33627,16 @@
         <v>78</v>
       </c>
       <c r="AG276" t="s" s="2">
-        <v>746</v>
+        <v>503</v>
       </c>
       <c r="AH276" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI276" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ276" t="s" s="2">
-        <v>78</v>
+        <v>498</v>
       </c>
       <c r="AK276" t="s" s="2">
         <v>96</v>
@@ -33638,13 +33644,13 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>751</v>
+        <v>509</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>751</v>
+        <v>509</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
@@ -33652,13 +33658,13 @@
       </c>
       <c r="F277" s="2"/>
       <c r="G277" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H277" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I277" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J277" t="s" s="2">
         <v>78</v>
@@ -33667,16 +33673,16 @@
         <v>85</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>752</v>
+        <v>837</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>753</v>
+        <v>511</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>754</v>
+        <v>512</v>
       </c>
       <c r="O277" t="s" s="2">
-        <v>755</v>
+        <v>513</v>
       </c>
       <c r="P277" s="2"/>
       <c r="Q277" t="s" s="2">
@@ -33702,10 +33708,10 @@
         <v>78</v>
       </c>
       <c r="Y277" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="Z277" t="s" s="2">
-        <v>78</v>
+        <v>514</v>
       </c>
       <c r="AA277" t="s" s="2">
         <v>78</v>
@@ -33714,28 +33720,26 @@
         <v>78</v>
       </c>
       <c r="AC277" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD277" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="AD277" s="2"/>
       <c r="AE277" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF277" t="s" s="2">
-        <v>78</v>
+        <v>640</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>751</v>
+        <v>509</v>
       </c>
       <c r="AH277" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI277" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ277" t="s" s="2">
-        <v>78</v>
+        <v>498</v>
       </c>
       <c r="AK277" t="s" s="2">
         <v>96</v>
@@ -33743,27 +33747,29 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>756</v>
+        <v>838</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="D278" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="D278" t="s" s="2">
+        <v>839</v>
+      </c>
       <c r="E278" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F278" s="2"/>
       <c r="G278" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H278" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I278" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J278" t="s" s="2">
         <v>78</v>
@@ -33772,20 +33778,18 @@
         <v>85</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>287</v>
+        <v>837</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>757</v>
+        <v>840</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>758</v>
+        <v>512</v>
       </c>
       <c r="O278" t="s" s="2">
-        <v>759</v>
-      </c>
-      <c r="P278" t="s" s="2">
-        <v>760</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="P278" s="2"/>
       <c r="Q278" t="s" s="2">
         <v>78</v>
       </c>
@@ -33809,10 +33813,10 @@
         <v>78</v>
       </c>
       <c r="Y278" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="Z278" t="s" s="2">
-        <v>78</v>
+        <v>514</v>
       </c>
       <c r="AA278" t="s" s="2">
         <v>78</v>
@@ -33833,16 +33837,16 @@
         <v>78</v>
       </c>
       <c r="AG278" t="s" s="2">
-        <v>756</v>
+        <v>509</v>
       </c>
       <c r="AH278" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI278" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ278" t="s" s="2">
-        <v>78</v>
+        <v>498</v>
       </c>
       <c r="AK278" t="s" s="2">
         <v>96</v>
@@ -33850,13 +33854,13 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>761</v>
+        <v>515</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>761</v>
+        <v>515</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
@@ -33870,25 +33874,27 @@
         <v>84</v>
       </c>
       <c r="I279" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J279" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>120</v>
+        <v>516</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>121</v>
+        <v>517</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>122</v>
+        <v>518</v>
       </c>
       <c r="O279" s="2"/>
-      <c r="P279" s="2"/>
+      <c r="P279" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="Q279" t="s" s="2">
         <v>78</v>
       </c>
@@ -33936,7 +33942,7 @@
         <v>78</v>
       </c>
       <c r="AG279" t="s" s="2">
-        <v>123</v>
+        <v>515</v>
       </c>
       <c r="AH279" t="s" s="2">
         <v>76</v>
@@ -33948,29 +33954,29 @@
         <v>78</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>762</v>
+        <v>520</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>762</v>
+        <v>520</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="F280" s="2"/>
       <c r="G280" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H280" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I280" t="s" s="2">
         <v>78</v>
@@ -33979,19 +33985,19 @@
         <v>78</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>126</v>
+        <v>489</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>127</v>
+        <v>521</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>128</v>
+        <v>522</v>
       </c>
       <c r="O280" t="s" s="2">
-        <v>129</v>
+        <v>523</v>
       </c>
       <c r="P280" s="2"/>
       <c r="Q280" t="s" s="2">
@@ -34041,66 +34047,64 @@
         <v>78</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>133</v>
+        <v>520</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI280" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ280" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK280" t="s" s="2">
-        <v>134</v>
+        <v>96</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>763</v>
+        <v>524</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>763</v>
+        <v>524</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="F281" s="2"/>
       <c r="G281" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H281" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I281" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J281" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>296</v>
+        <v>373</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>297</v>
+        <v>525</v>
       </c>
       <c r="O281" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P281" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="P281" s="2"/>
       <c r="Q281" t="s" s="2">
         <v>78</v>
       </c>
@@ -34148,30 +34152,30 @@
         <v>78</v>
       </c>
       <c r="AG281" t="s" s="2">
-        <v>298</v>
+        <v>524</v>
       </c>
       <c r="AH281" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI281" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ281" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK281" t="s" s="2">
-        <v>134</v>
+        <v>96</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>764</v>
+        <v>527</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>764</v>
+        <v>527</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
@@ -34179,13 +34183,13 @@
       </c>
       <c r="F282" s="2"/>
       <c r="G282" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H282" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I282" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J282" t="s" s="2">
         <v>78</v>
@@ -34194,20 +34198,18 @@
         <v>85</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>207</v>
+        <v>528</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>765</v>
+        <v>529</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>766</v>
+        <v>530</v>
       </c>
       <c r="O282" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="P282" t="s" s="2">
-        <v>615</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="P282" s="2"/>
       <c r="Q282" t="s" s="2">
         <v>78</v>
       </c>
@@ -34231,13 +34233,13 @@
         <v>78</v>
       </c>
       <c r="Y282" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="Z282" t="s" s="2">
-        <v>768</v>
+        <v>78</v>
       </c>
       <c r="AA282" t="s" s="2">
-        <v>508</v>
+        <v>78</v>
       </c>
       <c r="AB282" t="s" s="2">
         <v>78</v>
@@ -34255,10 +34257,10 @@
         <v>78</v>
       </c>
       <c r="AG282" t="s" s="2">
-        <v>764</v>
+        <v>527</v>
       </c>
       <c r="AH282" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI282" t="s" s="2">
         <v>84</v>
@@ -34272,13 +34274,13 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>769</v>
+        <v>532</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>769</v>
+        <v>532</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
@@ -34289,31 +34291,29 @@
         <v>76</v>
       </c>
       <c r="H283" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I283" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J283" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>770</v>
+        <v>533</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>771</v>
+        <v>534</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="O283" t="s" s="2">
-        <v>772</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="O283" s="2"/>
       <c r="P283" t="s" s="2">
-        <v>661</v>
+        <v>536</v>
       </c>
       <c r="Q283" t="s" s="2">
         <v>78</v>
@@ -34362,13 +34362,13 @@
         <v>78</v>
       </c>
       <c r="AG283" t="s" s="2">
-        <v>769</v>
+        <v>532</v>
       </c>
       <c r="AH283" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI283" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ283" t="s" s="2">
         <v>78</v>
@@ -34379,13 +34379,13 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>773</v>
+        <v>537</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>773</v>
+        <v>537</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -34396,7 +34396,7 @@
         <v>76</v>
       </c>
       <c r="H284" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I284" t="s" s="2">
         <v>78</v>
@@ -34408,19 +34408,19 @@
         <v>78</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>207</v>
+        <v>311</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>774</v>
+        <v>538</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>775</v>
+        <v>539</v>
       </c>
       <c r="O284" t="s" s="2">
-        <v>776</v>
+        <v>540</v>
       </c>
       <c r="P284" t="s" s="2">
-        <v>668</v>
+        <v>541</v>
       </c>
       <c r="Q284" t="s" s="2">
         <v>78</v>
@@ -34445,13 +34445,13 @@
         <v>78</v>
       </c>
       <c r="Y284" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="Z284" t="s" s="2">
-        <v>669</v>
+        <v>78</v>
       </c>
       <c r="AA284" t="s" s="2">
-        <v>670</v>
+        <v>78</v>
       </c>
       <c r="AB284" t="s" s="2">
         <v>78</v>
@@ -34469,16 +34469,16 @@
         <v>78</v>
       </c>
       <c r="AG284" t="s" s="2">
-        <v>773</v>
+        <v>537</v>
       </c>
       <c r="AH284" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI284" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ284" t="s" s="2">
-        <v>777</v>
+        <v>78</v>
       </c>
       <c r="AK284" t="s" s="2">
         <v>96</v>
@@ -34486,17 +34486,17 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>778</v>
+        <v>542</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>778</v>
+        <v>542</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
-        <v>673</v>
+        <v>78</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" t="s" s="2">
@@ -34518,16 +34518,16 @@
         <v>207</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>674</v>
+        <v>543</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>675</v>
+        <v>544</v>
       </c>
       <c r="O285" t="s" s="2">
-        <v>676</v>
+        <v>545</v>
       </c>
       <c r="P285" t="s" s="2">
-        <v>677</v>
+        <v>546</v>
       </c>
       <c r="Q285" t="s" s="2">
         <v>78</v>
@@ -34552,13 +34552,13 @@
         <v>78</v>
       </c>
       <c r="Y285" t="s" s="2">
-        <v>481</v>
+        <v>212</v>
       </c>
       <c r="Z285" t="s" s="2">
-        <v>678</v>
+        <v>547</v>
       </c>
       <c r="AA285" t="s" s="2">
-        <v>679</v>
+        <v>354</v>
       </c>
       <c r="AB285" t="s" s="2">
         <v>78</v>
@@ -34576,7 +34576,7 @@
         <v>78</v>
       </c>
       <c r="AG285" t="s" s="2">
-        <v>778</v>
+        <v>542</v>
       </c>
       <c r="AH285" t="s" s="2">
         <v>76</v>
@@ -34593,13 +34593,13 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>779</v>
+        <v>548</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>779</v>
+        <v>548</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
@@ -34622,19 +34622,19 @@
         <v>78</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>780</v>
+        <v>550</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>781</v>
+        <v>551</v>
       </c>
       <c r="O286" t="s" s="2">
-        <v>711</v>
+        <v>552</v>
       </c>
       <c r="P286" t="s" s="2">
-        <v>712</v>
+        <v>546</v>
       </c>
       <c r="Q286" t="s" s="2">
         <v>78</v>
@@ -34683,7 +34683,7 @@
         <v>78</v>
       </c>
       <c r="AG286" t="s" s="2">
-        <v>779</v>
+        <v>548</v>
       </c>
       <c r="AH286" t="s" s="2">
         <v>76</v>
@@ -36460,7 +36460,7 @@
       </c>
       <c r="Z303" s="2"/>
       <c r="AA303" t="s" s="2">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="AB303" t="s" s="2">
         <v>78</v>
@@ -37269,7 +37269,7 @@
         <v>85</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="M311" t="s" s="2">
         <v>658</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T21:25:34+00:00</t>
+    <t>2024-09-10T20:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T20:59:56+00:00</t>
+    <t>2024-09-16T23:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1390,19 +1390,19 @@
     <t>Goal.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Goal.extension:gas-scaling</t>
+  </si>
+  <si>
+    <t>gas-scaling</t>
+  </si>
+  <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Goal.extension:gas-scaling</t>
-  </si>
-  <si>
-    <t>gas-scaling</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal-attainment-scaling}
@@ -3650,7 +3650,7 @@
         <v>31</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
-        <v>437</v>
+        <v>76</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -12386,10 +12386,10 @@
         <v>126</v>
       </c>
       <c r="M75" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -12458,23 +12458,23 @@
         <v>421</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>436</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" t="s" s="2">
-        <v>437</v>
+        <v>76</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>85</v>
@@ -13630,7 +13630,7 @@
       </c>
       <c r="F87" s="2"/>
       <c r="G87" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>84</v>
@@ -20700,10 +20700,10 @@
         <v>782</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20783,7 +20783,7 @@
         <v>78</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>76</v>
@@ -20935,10 +20935,10 @@
         <v>126</v>
       </c>
       <c r="M156" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N156" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
@@ -21043,7 +21043,7 @@
         <v>793</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
@@ -21246,10 +21246,10 @@
         <v>126</v>
       </c>
       <c r="M159" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N159" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
@@ -21560,7 +21560,7 @@
         <v>812</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
@@ -21763,10 +21763,10 @@
         <v>126</v>
       </c>
       <c r="M164" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N164" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:28:14+00:00</t>
+    <t>2024-09-17T14:31:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:31:31+00:00</t>
+    <t>2024-09-17T18:49:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:49:04+00:00</t>
+    <t>2024-09-17T23:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T23:38:01+00:00</t>
+    <t>2024-09-21T00:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-21T00:47:01+00:00</t>
+    <t>2024-09-22T11:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2679,6 +2679,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
     <t>pco-what-matters-assessment</t>
   </si>
   <si>
@@ -2744,10 +2748,6 @@
   </si>
   <si>
     <t>Observation.component:nowRating.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer
-</t>
   </si>
   <si>
     <t>Rating on scale of 1 (low) to 10 (high)</t>
@@ -4346,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="172">
@@ -4354,7 +4354,7 @@
         <v>4</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="173">
@@ -4370,7 +4370,7 @@
         <v>8</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="175">
@@ -4378,7 +4378,7 @@
         <v>10</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="176">
@@ -4432,7 +4432,7 @@
         <v>23</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="183">
@@ -13630,7 +13630,7 @@
       </c>
       <c r="F87" s="2"/>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>84</v>
@@ -17008,7 +17008,7 @@
       </c>
       <c r="F119" s="2"/>
       <c r="G119" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>84</v>
@@ -27536,7 +27536,7 @@
       </c>
       <c r="F219" s="2"/>
       <c r="G219" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H219" t="s" s="2">
         <v>84</v>
@@ -36616,7 +36616,7 @@
       </c>
       <c r="F305" s="2"/>
       <c r="G305" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H305" t="s" s="2">
         <v>84</v>
@@ -37269,7 +37269,7 @@
         <v>85</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="M311" t="s" s="2">
         <v>658</v>
@@ -40307,7 +40307,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>558</v>
@@ -40412,7 +40412,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>563</v>
@@ -40517,7 +40517,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>564</v>
@@ -40620,7 +40620,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>565</v>
@@ -40725,7 +40725,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>566</v>
@@ -40830,7 +40830,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>567</v>
@@ -40935,7 +40935,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>568</v>
@@ -41040,7 +41040,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>569</v>
@@ -41145,7 +41145,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>570</v>
@@ -41252,7 +41252,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>571</v>
@@ -41357,7 +41357,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>575</v>
@@ -41462,7 +41462,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>581</v>
@@ -41567,7 +41567,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>587</v>
@@ -41674,7 +41674,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>594</v>
@@ -41779,7 +41779,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>601</v>
@@ -41888,7 +41888,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>605</v>
@@ -41997,7 +41997,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>610</v>
@@ -42029,7 +42029,7 @@
         <v>207</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="N356" t="s" s="2">
         <v>613</v>
@@ -42067,7 +42067,7 @@
       </c>
       <c r="Z356" s="2"/>
       <c r="AA356" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AB356" t="s" s="2">
         <v>78</v>
@@ -42102,7 +42102,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>617</v>
@@ -42209,7 +42209,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>622</v>
@@ -42241,7 +42241,7 @@
         <v>275</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="N358" t="s" s="2">
         <v>625</v>
@@ -42314,7 +42314,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>627</v>
@@ -42421,7 +42421,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>633</v>
@@ -42450,7 +42450,7 @@
         <v>85</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="M360" t="s" s="2">
         <v>635</v>
@@ -42528,7 +42528,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>646</v>
@@ -42633,7 +42633,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>651</v>
@@ -42740,7 +42740,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>657</v>
@@ -42847,7 +42847,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>664</v>
@@ -42954,7 +42954,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>672</v>
@@ -43061,7 +43061,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>680</v>
@@ -43168,7 +43168,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>685</v>
@@ -43273,7 +43273,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>691</v>
@@ -43380,7 +43380,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>698</v>
@@ -43485,7 +43485,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>703</v>
@@ -43590,7 +43590,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>708</v>
@@ -43697,7 +43697,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>714</v>
@@ -43800,7 +43800,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>715</v>
@@ -43905,7 +43905,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>716</v>
@@ -44012,7 +44012,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>717</v>
@@ -44115,7 +44115,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>721</v>
@@ -44218,7 +44218,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>724</v>
@@ -44325,7 +44325,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>731</v>
@@ -44432,7 +44432,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>738</v>
@@ -44537,7 +44537,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>743</v>
@@ -44640,7 +44640,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>746</v>
@@ -44745,7 +44745,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>751</v>
@@ -44850,7 +44850,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>756</v>
@@ -44882,7 +44882,7 @@
         <v>287</v>
       </c>
       <c r="M383" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="N383" t="s" s="2">
         <v>758</v>
@@ -44928,7 +44928,7 @@
         <v>78</v>
       </c>
       <c r="AC383" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="AD383" s="2"/>
       <c r="AE383" t="s" s="2">
@@ -44955,7 +44955,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>761</v>
@@ -45058,7 +45058,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>762</v>
@@ -45163,7 +45163,7 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>763</v>
@@ -45270,7 +45270,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>764</v>
@@ -45377,7 +45377,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>769</v>
@@ -45484,7 +45484,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>773</v>
@@ -45591,7 +45591,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>778</v>
@@ -45698,7 +45698,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>779</v>
@@ -45805,16 +45805,16 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C392" t="s" s="2">
         <v>756</v>
       </c>
       <c r="D392" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E392" t="s" s="2">
         <v>78</v>
@@ -45914,10 +45914,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C393" t="s" s="2">
         <v>761</v>
@@ -46017,10 +46017,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C394" t="s" s="2">
         <v>762</v>
@@ -46122,10 +46122,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C395" t="s" s="2">
         <v>763</v>
@@ -46229,10 +46229,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C396" t="s" s="2">
         <v>764</v>
@@ -46261,7 +46261,7 @@
         <v>207</v>
       </c>
       <c r="M396" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="N396" t="s" s="2">
         <v>766</v>
@@ -46280,7 +46280,7 @@
         <v>78</v>
       </c>
       <c r="T396" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="U396" t="s" s="2">
         <v>78</v>
@@ -46336,10 +46336,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C397" t="s" s="2">
         <v>769</v>
@@ -46365,7 +46365,7 @@
         <v>85</v>
       </c>
       <c r="L397" t="s" s="2">
-        <v>868</v>
+        <v>848</v>
       </c>
       <c r="M397" t="s" s="2">
         <v>869</v>
@@ -46443,7 +46443,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>870</v>
@@ -46550,7 +46550,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>871</v>
@@ -46657,7 +46657,7 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>872</v>
@@ -46764,7 +46764,7 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>873</v>
@@ -46873,7 +46873,7 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>875</v>
@@ -46976,7 +46976,7 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>876</v>
@@ -47081,7 +47081,7 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>877</v>
@@ -47188,7 +47188,7 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>878</v>
@@ -47295,7 +47295,7 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>881</v>
@@ -47402,7 +47402,7 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>883</v>
@@ -47509,7 +47509,7 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>884</v>
@@ -47616,7 +47616,7 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>885</v>
@@ -47723,7 +47723,7 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>886</v>
@@ -47832,7 +47832,7 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>888</v>
@@ -47935,7 +47935,7 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>889</v>
@@ -48040,7 +48040,7 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>890</v>
@@ -48147,7 +48147,7 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>891</v>
@@ -48254,7 +48254,7 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>894</v>
@@ -48283,7 +48283,7 @@
         <v>85</v>
       </c>
       <c r="L415" t="s" s="2">
-        <v>868</v>
+        <v>848</v>
       </c>
       <c r="M415" t="s" s="2">
         <v>869</v>
@@ -48361,7 +48361,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>895</v>
@@ -48468,7 +48468,7 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>896</v>
@@ -48575,7 +48575,7 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>897</v>
@@ -48682,7 +48682,7 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>898</v>
@@ -48791,7 +48791,7 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>900</v>
@@ -48894,7 +48894,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>901</v>
@@ -48999,7 +48999,7 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>902</v>
@@ -49106,7 +49106,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>903</v>
@@ -49213,7 +49213,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>906</v>
@@ -49320,7 +49320,7 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>907</v>
@@ -49427,7 +49427,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>908</v>
@@ -49534,7 +49534,7 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>909</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14607" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14607" uniqueCount="911">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T11:40:07+00:00</t>
+    <t>2024-09-23T01:04:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2679,8 +2679,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">integer
-</t>
+    <t>Quantity
+integer</t>
   </si>
   <si>
     <t>pco-what-matters-assessment</t>
@@ -2748,6 +2748,10 @@
   </si>
   <si>
     <t>Observation.component:nowRating.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
   </si>
   <si>
     <t>Rating on scale of 1 (low) to 10 (high)</t>
@@ -46365,10 +46369,10 @@
         <v>85</v>
       </c>
       <c r="L397" t="s" s="2">
-        <v>848</v>
+        <v>869</v>
       </c>
       <c r="M397" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="N397" t="s" s="2">
         <v>659</v>
@@ -46446,7 +46450,7 @@
         <v>849</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C398" t="s" s="2">
         <v>773</v>
@@ -46553,7 +46557,7 @@
         <v>849</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C399" t="s" s="2">
         <v>778</v>
@@ -46660,7 +46664,7 @@
         <v>849</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C400" t="s" s="2">
         <v>779</v>
@@ -46767,13 +46771,13 @@
         <v>849</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C401" t="s" s="2">
         <v>756</v>
       </c>
       <c r="D401" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E401" t="s" s="2">
         <v>78</v>
@@ -46876,7 +46880,7 @@
         <v>849</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C402" t="s" s="2">
         <v>761</v>
@@ -46979,7 +46983,7 @@
         <v>849</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C403" t="s" s="2">
         <v>762</v>
@@ -47084,7 +47088,7 @@
         <v>849</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C404" t="s" s="2">
         <v>763</v>
@@ -47191,7 +47195,7 @@
         <v>849</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C405" t="s" s="2">
         <v>764</v>
@@ -47220,7 +47224,7 @@
         <v>207</v>
       </c>
       <c r="M405" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="N405" t="s" s="2">
         <v>766</v>
@@ -47239,7 +47243,7 @@
         <v>78</v>
       </c>
       <c r="T405" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="U405" t="s" s="2">
         <v>78</v>
@@ -47298,7 +47302,7 @@
         <v>849</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C406" t="s" s="2">
         <v>769</v>
@@ -47327,7 +47331,7 @@
         <v>120</v>
       </c>
       <c r="M406" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="N406" t="s" s="2">
         <v>659</v>
@@ -47405,7 +47409,7 @@
         <v>849</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C407" t="s" s="2">
         <v>773</v>
@@ -47512,7 +47516,7 @@
         <v>849</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C408" t="s" s="2">
         <v>778</v>
@@ -47619,7 +47623,7 @@
         <v>849</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C409" t="s" s="2">
         <v>779</v>
@@ -47726,13 +47730,13 @@
         <v>849</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C410" t="s" s="2">
         <v>756</v>
       </c>
       <c r="D410" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E410" t="s" s="2">
         <v>78</v>
@@ -47835,7 +47839,7 @@
         <v>849</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C411" t="s" s="2">
         <v>761</v>
@@ -47938,7 +47942,7 @@
         <v>849</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C412" t="s" s="2">
         <v>762</v>
@@ -48043,7 +48047,7 @@
         <v>849</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C413" t="s" s="2">
         <v>763</v>
@@ -48150,7 +48154,7 @@
         <v>849</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C414" t="s" s="2">
         <v>764</v>
@@ -48179,7 +48183,7 @@
         <v>207</v>
       </c>
       <c r="M414" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="N414" t="s" s="2">
         <v>766</v>
@@ -48198,7 +48202,7 @@
         <v>78</v>
       </c>
       <c r="T414" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="U414" t="s" s="2">
         <v>78</v>
@@ -48257,7 +48261,7 @@
         <v>849</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C415" t="s" s="2">
         <v>769</v>
@@ -48283,10 +48287,10 @@
         <v>85</v>
       </c>
       <c r="L415" t="s" s="2">
-        <v>848</v>
+        <v>869</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="N415" t="s" s="2">
         <v>659</v>
@@ -48364,7 +48368,7 @@
         <v>849</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C416" t="s" s="2">
         <v>773</v>
@@ -48471,7 +48475,7 @@
         <v>849</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C417" t="s" s="2">
         <v>778</v>
@@ -48578,7 +48582,7 @@
         <v>849</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C418" t="s" s="2">
         <v>779</v>
@@ -48685,13 +48689,13 @@
         <v>849</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C419" t="s" s="2">
         <v>756</v>
       </c>
       <c r="D419" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E419" t="s" s="2">
         <v>78</v>
@@ -48794,7 +48798,7 @@
         <v>849</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C420" t="s" s="2">
         <v>761</v>
@@ -48897,7 +48901,7 @@
         <v>849</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C421" t="s" s="2">
         <v>762</v>
@@ -49002,7 +49006,7 @@
         <v>849</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C422" t="s" s="2">
         <v>763</v>
@@ -49109,7 +49113,7 @@
         <v>849</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C423" t="s" s="2">
         <v>764</v>
@@ -49138,7 +49142,7 @@
         <v>207</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="N423" t="s" s="2">
         <v>766</v>
@@ -49157,7 +49161,7 @@
         <v>78</v>
       </c>
       <c r="T423" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="U423" t="s" s="2">
         <v>78</v>
@@ -49216,7 +49220,7 @@
         <v>849</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C424" t="s" s="2">
         <v>769</v>
@@ -49245,7 +49249,7 @@
         <v>120</v>
       </c>
       <c r="M424" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="N424" t="s" s="2">
         <v>659</v>
@@ -49323,7 +49327,7 @@
         <v>849</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C425" t="s" s="2">
         <v>773</v>
@@ -49430,7 +49434,7 @@
         <v>849</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C426" t="s" s="2">
         <v>778</v>
@@ -49537,7 +49541,7 @@
         <v>849</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C427" t="s" s="2">
         <v>779</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T01:04:09+00:00</t>
+    <t>2024-10-22T17:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:57:32+00:00</t>
+    <t>2024-10-22T17:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:59:45+00:00</t>
+    <t>2024-10-23T15:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T15:58:47+00:00</t>
+    <t>2024-10-23T18:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:44:18+00:00</t>
+    <t>2024-10-23T18:49:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:49:00+00:00</t>
+    <t>2024-10-24T19:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T19:50:25+00:00</t>
+    <t>2024-10-25T20:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-care-plan</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-care-plan</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,25 +63,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T20:06:08+00:00</t>
+    <t>2024-11-25T08:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC</t>
+    <t>HL7 International / Patient Care</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC (http://mtnlotus.com)</t>
+    <t>HL7 International / Patient Care (http://www.hl7.org/Special/committees/patientcare, patientcare@lists.HL7.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -717,7 +717,7 @@
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/pco-category-valueset</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-category-valueset</t>
   </si>
   <si>
     <t>CarePlan.title</t>
@@ -902,7 +902,7 @@
     <t>CarePlan.goal</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal-profile)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-profile)
 </t>
   </si>
   <si>
@@ -1345,7 +1345,7 @@
     <t>pco-gas-goal-profile</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-gas-goal-profile</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-gas-goal-profile</t>
   </si>
   <si>
     <t>PCOGoalAttainmentScaleProfile</t>
@@ -1360,7 +1360,7 @@
     <t>Goal</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal-profile</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-profile</t>
   </si>
   <si>
     <t>Describes the intended objective(s) for a patient, group or organization</t>
@@ -1405,7 +1405,7 @@
     <t>5</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal-attainment-scaling}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-attainment-scaling}
 </t>
   </si>
   <si>
@@ -1694,7 +1694,7 @@
     <t>Goal.addresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-problems-health-concerns)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-problems-health-concerns)
 </t>
   </si>
   <si>
@@ -1759,7 +1759,7 @@
     <t>pco-gas-score-observation</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-gas-score-observation</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-gas-score-observation</t>
   </si>
   <si>
     <t>PCOGoalAttainmentScoreObservation</t>
@@ -1774,7 +1774,7 @@
     <t>Observation</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-progress-score-observation</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-progress-score-observation</t>
   </si>
   <si>
     <t>Vital Signs
@@ -1957,7 +1957,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/goal-attainment-scaling-score</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/goal-attainment-scaling-score</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1978,7 +1978,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-gas-goal-profile)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-gas-goal-profile)
 </t>
   </si>
   <si>
@@ -2103,7 +2103,7 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/gas-score-answers</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/gas-score-answers</t>
   </si>
   <si>
     <t>obs-7
@@ -2480,7 +2480,7 @@
     <t>pco-goal-attainment-scaling</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal-attainment-scaling</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-attainment-scaling</t>
   </si>
   <si>
     <t>PCOGoalAttainmentScaling</t>
@@ -2626,7 +2626,7 @@
     <t>pco-prom-goal-profile</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-prom-goal-profile</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-prom-goal-profile</t>
   </si>
   <si>
     <t>PCOGoalOutcomeMeasureProfile</t>
@@ -2641,7 +2641,7 @@
     <t>Target score for evaluating PCO Goal using PROMs</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/prom-target-measures</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/prom-target-measures</t>
   </si>
   <si>
     <t xml:space="preserve">Quantity
@@ -2660,7 +2660,7 @@
     <t>pco-prom-score</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-prom-score</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-prom-score</t>
   </si>
   <si>
     <t>PCOPatientReportedOutcomeScore</t>
@@ -2675,7 +2675,7 @@
     <t>Code for PROM score observation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-prom-goal-profile)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-prom-goal-profile)
 </t>
   </si>
   <si>
@@ -2686,7 +2686,7 @@
     <t>pco-what-matters-assessment</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-what-matters-assessment</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment</t>
   </si>
   <si>
     <t>WhatMattersAssessment</t>
@@ -2701,7 +2701,7 @@
     <t>Focus area for What Matters assessment</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/what-matters-focus-areas</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/what-matters-focus-areas</t>
   </si>
   <si>
     <t>What the observation is about, when it is not about the subject of record</t>
@@ -2741,7 +2741,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/what-matters-rating"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/what-matters-rating"/&gt;
     &lt;code value="now-rating"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -2789,7 +2789,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/what-matters-rating"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/what-matters-rating"/&gt;
     &lt;code value="now-reasons"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -2833,7 +2833,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/what-matters-rating"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/what-matters-rating"/&gt;
     &lt;code value="future-rating"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -2874,7 +2874,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/what-matters-rating"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/pco/CodeSystem/what-matters-rating"/&gt;
     &lt;code value="future-changes"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -4534,7 +4534,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="78.73828125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="78.59765625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="9.953125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T23:26:43+00:00</t>
+    <t>2024-12-11T00:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T00:46:43+00:00</t>
+    <t>2024-12-12T02:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20042" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20045" uniqueCount="958">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -24890,7 +24890,7 @@
         <v>78</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c r="Z187" s="2"/>
       <c r="AA187" t="s" s="2">
@@ -24995,9 +24995,11 @@
         <v>78</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z188" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="AA188" t="s" s="2">
         <v>715</v>
       </c>
@@ -35515,7 +35517,7 @@
         <v>78</v>
       </c>
       <c r="Y288" t="s" s="2">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c r="Z288" s="2"/>
       <c r="AA288" t="s" s="2">
@@ -35620,9 +35622,11 @@
         <v>78</v>
       </c>
       <c r="Y289" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z289" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="Z289" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="AA289" t="s" s="2">
         <v>715</v>
       </c>
@@ -39093,7 +39097,7 @@
         <v>78</v>
       </c>
       <c r="Y322" t="s" s="2">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c r="Z322" s="2"/>
       <c r="AA322" t="s" s="2">
@@ -39198,9 +39202,11 @@
         <v>78</v>
       </c>
       <c r="Y323" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z323" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="Z323" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="AA323" t="s" s="2">
         <v>715</v>
       </c>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1544,7 +1544,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-care-tradeoff-valueset</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/ppc-care-tradeoff-valueset</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -2681,7 +2681,7 @@
     <t>Common barriers selected from a list</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-bothersome-health-concern-valueset</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/ppc-bothersome-health-concern-valueset</t>
   </si>
   <si>
     <t>Observation.value[x]:valueString</t>
@@ -5491,7 +5491,7 @@
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="70.8125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="70.8515625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1694,7 +1694,7 @@
     <t>Type of care selected from a list</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/ppc-care-tradeoff-examples-vs</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-care-tradeoff-types-example-vs</t>
   </si>
   <si>
     <t>Observation.value[x]:valueString</t>
@@ -2690,7 +2690,7 @@
     <t>Common barriers selected from a list</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/ppc-bothersome-health-concern-examples-vs</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-goal-barrier-types-example-vs</t>
   </si>
   <si>
     <t>Free-text description of the barrier</t>
@@ -5494,7 +5494,7 @@
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="74.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="67.3671875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1358,7 +1358,7 @@
     <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-care-tradeoff</t>
   </si>
   <si>
-    <t>PCOCareTradeOff</t>
+    <t>PCOCareTradeOffProfile</t>
   </si>
   <si>
     <t>Care Trade-off Assessment</t>
@@ -2137,7 +2137,7 @@
 </t>
   </si>
   <si>
-    <t>Goal Attainment Scaling</t>
+    <t>Goal Attainment Scaling Extension</t>
   </si>
   <si>
     <t>Goal Attainment Scaling (GAS) is an extension used to specify five levels of attainment for a person-centered goal.</t>
@@ -2519,7 +2519,7 @@
     <t>PCOGoalAttainmentScoreObservation</t>
   </si>
   <si>
-    <t>Goal Attainment Scaling (GAS) score</t>
+    <t>Goal Attainment Scaling (GAS) score observation</t>
   </si>
   <si>
     <t>The follow-up score indicates how a patient, caregiver, or practitioner rated progress on goal attainment scaling.</t>
@@ -2666,7 +2666,7 @@
     <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-barrier</t>
   </si>
   <si>
-    <t>PCOGoalBarrier</t>
+    <t>PCOGoalBarrierProfile</t>
   </si>
   <si>
     <t>Person-Centered Goal Barrier</t>
@@ -3116,7 +3116,7 @@
     <t>PCOPatientReportedOutcomeScore</t>
   </si>
   <si>
-    <t>Patient-Reported Outcome Measure (PROM) score</t>
+    <t>Patient-Reported Outcome Measure (PROM) score observation</t>
   </si>
   <si>
     <t>This observation records how a patient's progress score is rated using a PROM assessment.</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T14:30:29+00:00</t>
+    <t>2025-01-19T16:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -714,7 +714,7 @@
     <t>Well-Being resource category</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/well-being-categories</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-categories</t>
   </si>
   <si>
     <t>CarePlan.title</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T16:32:23+00:00</t>
+    <t>2025-01-25T16:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -705,16 +705,16 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>CarePlan.category:well-being</t>
-  </si>
-  <si>
-    <t>well-being</t>
-  </si>
-  <si>
-    <t>Well-Being resource category</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-categories</t>
+    <t>CarePlan.category:pco</t>
+  </si>
+  <si>
+    <t>pco</t>
+  </si>
+  <si>
+    <t>Person-Centered resource category</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-categories</t>
   </si>
   <si>
     <t>CarePlan.title</t>
@@ -2217,7 +2217,7 @@
 </t>
   </si>
   <si>
-    <t>Goal.category:well-being</t>
+    <t>Goal.category:pco</t>
   </si>
   <si>
     <t>Goal.category:goal-domain</t>
@@ -2451,14 +2451,14 @@
     <t>SupportedAddresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-priority)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-priority)
 </t>
   </si>
   <si>
-    <t>Well-Being Assessment or Priority</t>
-  </si>
-  <si>
-    <t>When a goal addresses well-being observations, Goal.addresses should reference instances that comply with the PCO Well-Being Assessment of Priority profiles. However, references to other instance types are also possible.</t>
+    <t>What Matters Assessment or Priority</t>
+  </si>
+  <si>
+    <t>When a goal addresses What Matters observations, Goal.addresses should reference instances that comply with the PCO What Matters Assessment of Priority profiles. However, references to other instance types are also possible.</t>
   </si>
   <si>
     <t>Goal.note</t>
@@ -2705,7 +2705,7 @@
     <t>Person-Centered Goal</t>
   </si>
   <si>
-    <t>Person-centered goal focused on an individual's well-being. A Person-centered goal SHALL include either a Well-Being category, or address a Well-Being assessment.</t>
+    <t>Person-centered goal focused on an individual's well-being. A Person-centered goal SHALL include either a PCO category, or address a What Matters assessment.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</t>
@@ -3042,7 +3042,7 @@
     <t>List.entry.item</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-profile|http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-priority|http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-barrier|http://hl7.org/fhir/us/pco/StructureDefinition/pco-care-tradeoff)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-profile|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-priority|http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/pco/StructureDefinition/pco-goal-barrier|http://hl7.org/fhir/us/pco/StructureDefinition/pco-care-tradeoff)
 </t>
   </si>
   <si>
@@ -3245,22 +3245,22 @@
     <t>Observations or or other resource such as a QuestionnaireResponse from which this observation value is derived.</t>
   </si>
   <si>
-    <t>pco-well-being-assessment</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-assessment</t>
-  </si>
-  <si>
-    <t>WellBeingAssessment</t>
-  </si>
-  <si>
-    <t>Well-Being Assessment</t>
+    <t>pco-what-matters-assessment</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-assessment</t>
+  </si>
+  <si>
+    <t>WhatMattersAssessment</t>
+  </si>
+  <si>
+    <t>What Matters Assessment</t>
   </si>
   <si>
     <t>Assessment observation for one element of a person's well-being, with a free-text description, coded value, or component values rating where a person is now and where they would like to be in the future.</t>
   </si>
   <si>
-    <t>Observation.category:well-being</t>
+    <t>Observation.category:pco</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/wellbeing-domains-example</t>
@@ -3467,16 +3467,16 @@
     <t>Observation.component:futureChanges.referenceRange</t>
   </si>
   <si>
-    <t>pco-well-being-priority</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-well-being-priority</t>
-  </si>
-  <si>
-    <t>WellBeingPriority</t>
-  </si>
-  <si>
-    <t>Well-Being Priority</t>
+    <t>pco-what-matters-priority</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-what-matters-priority</t>
+  </si>
+  <si>
+    <t>WhatMattersPriority</t>
+  </si>
+  <si>
+    <t>What Matters Priority</t>
   </si>
   <si>
     <t>Assessment observation for one element of a person's well-being, with a boolean value indicating whether this is a current priority.</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21192" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21191" uniqueCount="1100">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3202,10 +3202,13 @@
     <t>Some questions on questionnaires are not answered directly (e.g., asserted) by the individual completing the questionnaire, but are derived from answers to one or more other questions. For types of answers, `Observation.performer` should not be specified and `Observation.derivedFrom` should reference the relevant Screening Response Observation(s).</t>
   </si>
   <si>
-    <t>A scale value, e.g. ranging from 1 to 10</t>
+    <t>A scale value ranging from 0 to 10</t>
   </si>
   <si>
     <t>An observation may have a value if it represents an individual survey, screening, or assessment question and answer pair. An observation should not have a value if it represents a multi-question or multi-select “check all that apply” responses. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.</t>
+  </si>
+  <si>
+    <t>http://loinc.org/vs/LL2335-9</t>
   </si>
   <si>
     <t>obs-7
@@ -5429,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="235">
@@ -5437,7 +5440,7 @@
         <v>4</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="236">
@@ -5453,7 +5456,7 @@
         <v>8</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="238">
@@ -5461,7 +5464,7 @@
         <v>10</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="239">
@@ -5515,7 +5518,7 @@
         <v>23</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="246">
@@ -5591,7 +5594,7 @@
         <v>2</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="256">
@@ -5599,7 +5602,7 @@
         <v>4</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="257">
@@ -5615,7 +5618,7 @@
         <v>8</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="259">
@@ -5623,7 +5626,7 @@
         <v>10</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="260">
@@ -5677,7 +5680,7 @@
         <v>23</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="267">
@@ -53185,7 +53188,7 @@
         <v>85</v>
       </c>
       <c r="L450" t="s" s="2">
-        <v>980</v>
+        <v>207</v>
       </c>
       <c r="M450" t="s" s="2">
         <v>1014</v>
@@ -53222,13 +53225,11 @@
         <v>78</v>
       </c>
       <c r="Y450" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z450" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="Z450" s="2"/>
       <c r="AA450" t="s" s="2">
-        <v>78</v>
+        <v>1016</v>
       </c>
       <c r="AB450" t="s" s="2">
         <v>78</v>
@@ -53255,7 +53256,7 @@
         <v>84</v>
       </c>
       <c r="AJ450" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AK450" t="s" s="2">
         <v>96</v>
@@ -53295,13 +53296,13 @@
         <v>207</v>
       </c>
       <c r="M451" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="N451" t="s" s="2">
         <v>537</v>
       </c>
       <c r="O451" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="P451" t="s" s="2">
         <v>539</v>
@@ -53362,7 +53363,7 @@
         <v>84</v>
       </c>
       <c r="AJ451" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="AK451" t="s" s="2">
         <v>96</v>
@@ -55085,16 +55086,16 @@
         <v>85</v>
       </c>
       <c r="L468" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="M468" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N468" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="O468" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="P468" s="2"/>
       <c r="Q468" t="s" s="2">
@@ -55190,13 +55191,13 @@
         <v>85</v>
       </c>
       <c r="L469" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="M469" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="N469" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="O469" t="s" s="2">
         <v>626</v>
@@ -56223,7 +56224,7 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>429</v>
@@ -56328,7 +56329,7 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>434</v>
@@ -56433,7 +56434,7 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B481" t="s" s="2">
         <v>435</v>
@@ -56536,7 +56537,7 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B482" t="s" s="2">
         <v>436</v>
@@ -56641,7 +56642,7 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B483" t="s" s="2">
         <v>437</v>
@@ -56746,7 +56747,7 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B484" t="s" s="2">
         <v>438</v>
@@ -56851,7 +56852,7 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>440</v>
@@ -56956,7 +56957,7 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>441</v>
@@ -57061,7 +57062,7 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>442</v>
@@ -57168,7 +57169,7 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>443</v>
@@ -57273,7 +57274,7 @@
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>447</v>
@@ -57378,7 +57379,7 @@
     </row>
     <row r="490">
       <c r="A490" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>453</v>
@@ -57483,7 +57484,7 @@
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>459</v>
@@ -57590,7 +57591,7 @@
     </row>
     <row r="492">
       <c r="A492" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>466</v>
@@ -57695,7 +57696,7 @@
     </row>
     <row r="493">
       <c r="A493" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>999</v>
@@ -57804,7 +57805,7 @@
     </row>
     <row r="494">
       <c r="A494" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>1002</v>
@@ -57913,10 +57914,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C495" t="s" s="2">
         <v>466</v>
@@ -58020,7 +58021,7 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>478</v>
@@ -58090,7 +58091,7 @@
       </c>
       <c r="Z496" s="2"/>
       <c r="AA496" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AB496" t="s" s="2">
         <v>78</v>
@@ -58125,7 +58126,7 @@
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B497" t="s" s="2">
         <v>486</v>
@@ -58232,7 +58233,7 @@
     </row>
     <row r="498">
       <c r="A498" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B498" t="s" s="2">
         <v>491</v>
@@ -58264,7 +58265,7 @@
         <v>274</v>
       </c>
       <c r="M498" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="N498" t="s" s="2">
         <v>494</v>
@@ -58337,7 +58338,7 @@
     </row>
     <row r="499">
       <c r="A499" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B499" t="s" s="2">
         <v>496</v>
@@ -58444,7 +58445,7 @@
     </row>
     <row r="500">
       <c r="A500" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B500" t="s" s="2">
         <v>502</v>
@@ -58551,7 +58552,7 @@
     </row>
     <row r="501">
       <c r="A501" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B501" t="s" s="2">
         <v>509</v>
@@ -58656,7 +58657,7 @@
     </row>
     <row r="502">
       <c r="A502" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B502" t="s" s="2">
         <v>514</v>
@@ -58763,7 +58764,7 @@
     </row>
     <row r="503">
       <c r="A503" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B503" t="s" s="2">
         <v>519</v>
@@ -58795,7 +58796,7 @@
         <v>520</v>
       </c>
       <c r="M503" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="N503" t="s" s="2">
         <v>522</v>
@@ -58862,7 +58863,7 @@
         <v>84</v>
       </c>
       <c r="AJ503" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AK503" t="s" s="2">
         <v>96</v>
@@ -58870,7 +58871,7 @@
     </row>
     <row r="504">
       <c r="A504" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B504" t="s" s="2">
         <v>535</v>
@@ -58902,13 +58903,13 @@
         <v>207</v>
       </c>
       <c r="M504" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="N504" t="s" s="2">
         <v>537</v>
       </c>
       <c r="O504" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="P504" t="s" s="2">
         <v>539</v>
@@ -58969,7 +58970,7 @@
         <v>84</v>
       </c>
       <c r="AJ504" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="AK504" t="s" s="2">
         <v>96</v>
@@ -58977,7 +58978,7 @@
     </row>
     <row r="505">
       <c r="A505" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B505" t="s" s="2">
         <v>543</v>
@@ -59084,7 +59085,7 @@
     </row>
     <row r="506">
       <c r="A506" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B506" t="s" s="2">
         <v>551</v>
@@ -59191,7 +59192,7 @@
     </row>
     <row r="507">
       <c r="A507" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B507" t="s" s="2">
         <v>556</v>
@@ -59296,7 +59297,7 @@
     </row>
     <row r="508">
       <c r="A508" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B508" t="s" s="2">
         <v>562</v>
@@ -59403,7 +59404,7 @@
     </row>
     <row r="509">
       <c r="A509" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B509" t="s" s="2">
         <v>569</v>
@@ -59508,7 +59509,7 @@
     </row>
     <row r="510">
       <c r="A510" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B510" t="s" s="2">
         <v>574</v>
@@ -59613,7 +59614,7 @@
     </row>
     <row r="511">
       <c r="A511" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B511" t="s" s="2">
         <v>579</v>
@@ -59720,7 +59721,7 @@
     </row>
     <row r="512">
       <c r="A512" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B512" t="s" s="2">
         <v>585</v>
@@ -59823,7 +59824,7 @@
     </row>
     <row r="513">
       <c r="A513" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B513" t="s" s="2">
         <v>586</v>
@@ -59928,7 +59929,7 @@
     </row>
     <row r="514">
       <c r="A514" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B514" t="s" s="2">
         <v>587</v>
@@ -60035,7 +60036,7 @@
     </row>
     <row r="515">
       <c r="A515" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B515" t="s" s="2">
         <v>588</v>
@@ -60138,7 +60139,7 @@
     </row>
     <row r="516">
       <c r="A516" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B516" t="s" s="2">
         <v>592</v>
@@ -60241,7 +60242,7 @@
     </row>
     <row r="517">
       <c r="A517" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B517" t="s" s="2">
         <v>595</v>
@@ -60348,7 +60349,7 @@
     </row>
     <row r="518">
       <c r="A518" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B518" t="s" s="2">
         <v>602</v>
@@ -60455,7 +60456,7 @@
     </row>
     <row r="519">
       <c r="A519" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B519" t="s" s="2">
         <v>609</v>
@@ -60560,7 +60561,7 @@
     </row>
     <row r="520">
       <c r="A520" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B520" t="s" s="2">
         <v>614</v>
@@ -60663,7 +60664,7 @@
     </row>
     <row r="521">
       <c r="A521" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B521" t="s" s="2">
         <v>617</v>
@@ -60692,16 +60693,16 @@
         <v>85</v>
       </c>
       <c r="L521" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="M521" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="N521" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="O521" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="P521" s="2"/>
       <c r="Q521" t="s" s="2">
@@ -60768,7 +60769,7 @@
     </row>
     <row r="522">
       <c r="A522" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B522" t="s" s="2">
         <v>622</v>
@@ -60797,13 +60798,13 @@
         <v>85</v>
       </c>
       <c r="L522" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="M522" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N522" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="O522" t="s" s="2">
         <v>626</v>
@@ -60873,7 +60874,7 @@
     </row>
     <row r="523">
       <c r="A523" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B523" t="s" s="2">
         <v>627</v>
@@ -60905,7 +60906,7 @@
         <v>291</v>
       </c>
       <c r="M523" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N523" t="s" s="2">
         <v>629</v>
@@ -60951,7 +60952,7 @@
         <v>78</v>
       </c>
       <c r="AC523" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="AD523" s="2"/>
       <c r="AE523" t="s" s="2">
@@ -60978,7 +60979,7 @@
     </row>
     <row r="524">
       <c r="A524" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B524" t="s" s="2">
         <v>632</v>
@@ -61081,7 +61082,7 @@
     </row>
     <row r="525">
       <c r="A525" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B525" t="s" s="2">
         <v>633</v>
@@ -61186,7 +61187,7 @@
     </row>
     <row r="526">
       <c r="A526" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B526" t="s" s="2">
         <v>634</v>
@@ -61293,7 +61294,7 @@
     </row>
     <row r="527">
       <c r="A527" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B527" t="s" s="2">
         <v>635</v>
@@ -61400,7 +61401,7 @@
     </row>
     <row r="528">
       <c r="A528" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B528" t="s" s="2">
         <v>641</v>
@@ -61507,7 +61508,7 @@
     </row>
     <row r="529">
       <c r="A529" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B529" t="s" s="2">
         <v>645</v>
@@ -61614,7 +61615,7 @@
     </row>
     <row r="530">
       <c r="A530" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B530" t="s" s="2">
         <v>649</v>
@@ -61721,7 +61722,7 @@
     </row>
     <row r="531">
       <c r="A531" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B531" t="s" s="2">
         <v>650</v>
@@ -61828,16 +61829,16 @@
     </row>
     <row r="532">
       <c r="A532" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C532" t="s" s="2">
         <v>627</v>
       </c>
       <c r="D532" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E532" t="s" s="2">
         <v>78</v>
@@ -61937,10 +61938,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C533" t="s" s="2">
         <v>632</v>
@@ -62040,10 +62041,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C534" t="s" s="2">
         <v>633</v>
@@ -62145,10 +62146,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C535" t="s" s="2">
         <v>634</v>
@@ -62252,10 +62253,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C536" t="s" s="2">
         <v>635</v>
@@ -62284,7 +62285,7 @@
         <v>207</v>
       </c>
       <c r="M536" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="N536" t="s" s="2">
         <v>637</v>
@@ -62303,7 +62304,7 @@
         <v>78</v>
       </c>
       <c r="T536" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="U536" t="s" s="2">
         <v>78</v>
@@ -62359,10 +62360,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C537" t="s" s="2">
         <v>641</v>
@@ -62388,10 +62389,10 @@
         <v>85</v>
       </c>
       <c r="L537" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="M537" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="N537" t="s" s="2">
         <v>522</v>
@@ -62466,10 +62467,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C538" t="s" s="2">
         <v>645</v>
@@ -62573,10 +62574,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C539" t="s" s="2">
         <v>649</v>
@@ -62680,10 +62681,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C540" t="s" s="2">
         <v>650</v>
@@ -62787,16 +62788,16 @@
     </row>
     <row r="541">
       <c r="A541" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C541" t="s" s="2">
         <v>627</v>
       </c>
       <c r="D541" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="E541" t="s" s="2">
         <v>78</v>
@@ -62896,10 +62897,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C542" t="s" s="2">
         <v>632</v>
@@ -62999,10 +63000,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C543" t="s" s="2">
         <v>633</v>
@@ -63104,10 +63105,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C544" t="s" s="2">
         <v>634</v>
@@ -63211,10 +63212,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C545" t="s" s="2">
         <v>635</v>
@@ -63243,7 +63244,7 @@
         <v>207</v>
       </c>
       <c r="M545" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="N545" t="s" s="2">
         <v>637</v>
@@ -63262,7 +63263,7 @@
         <v>78</v>
       </c>
       <c r="T545" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="U545" t="s" s="2">
         <v>78</v>
@@ -63318,10 +63319,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C546" t="s" s="2">
         <v>641</v>
@@ -63350,7 +63351,7 @@
         <v>120</v>
       </c>
       <c r="M546" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="N546" t="s" s="2">
         <v>522</v>
@@ -63425,10 +63426,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C547" t="s" s="2">
         <v>645</v>
@@ -63532,10 +63533,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C548" t="s" s="2">
         <v>649</v>
@@ -63639,10 +63640,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C549" t="s" s="2">
         <v>650</v>
@@ -63746,16 +63747,16 @@
     </row>
     <row r="550">
       <c r="A550" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C550" t="s" s="2">
         <v>627</v>
       </c>
       <c r="D550" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E550" t="s" s="2">
         <v>78</v>
@@ -63855,10 +63856,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C551" t="s" s="2">
         <v>632</v>
@@ -63958,10 +63959,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C552" t="s" s="2">
         <v>633</v>
@@ -64063,10 +64064,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C553" t="s" s="2">
         <v>634</v>
@@ -64170,10 +64171,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C554" t="s" s="2">
         <v>635</v>
@@ -64202,7 +64203,7 @@
         <v>207</v>
       </c>
       <c r="M554" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="N554" t="s" s="2">
         <v>637</v>
@@ -64221,7 +64222,7 @@
         <v>78</v>
       </c>
       <c r="T554" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="U554" t="s" s="2">
         <v>78</v>
@@ -64277,10 +64278,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C555" t="s" s="2">
         <v>641</v>
@@ -64306,10 +64307,10 @@
         <v>85</v>
       </c>
       <c r="L555" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="M555" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="N555" t="s" s="2">
         <v>522</v>
@@ -64384,10 +64385,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C556" t="s" s="2">
         <v>645</v>
@@ -64491,10 +64492,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C557" t="s" s="2">
         <v>649</v>
@@ -64598,10 +64599,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C558" t="s" s="2">
         <v>650</v>
@@ -64705,16 +64706,16 @@
     </row>
     <row r="559">
       <c r="A559" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C559" t="s" s="2">
         <v>627</v>
       </c>
       <c r="D559" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E559" t="s" s="2">
         <v>78</v>
@@ -64814,10 +64815,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C560" t="s" s="2">
         <v>632</v>
@@ -64917,10 +64918,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C561" t="s" s="2">
         <v>633</v>
@@ -65022,10 +65023,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C562" t="s" s="2">
         <v>634</v>
@@ -65129,10 +65130,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C563" t="s" s="2">
         <v>635</v>
@@ -65161,7 +65162,7 @@
         <v>207</v>
       </c>
       <c r="M563" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="N563" t="s" s="2">
         <v>637</v>
@@ -65180,7 +65181,7 @@
         <v>78</v>
       </c>
       <c r="T563" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="U563" t="s" s="2">
         <v>78</v>
@@ -65236,10 +65237,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C564" t="s" s="2">
         <v>641</v>
@@ -65268,7 +65269,7 @@
         <v>120</v>
       </c>
       <c r="M564" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="N564" t="s" s="2">
         <v>522</v>
@@ -65343,10 +65344,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C565" t="s" s="2">
         <v>645</v>
@@ -65450,10 +65451,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C566" t="s" s="2">
         <v>649</v>
@@ -65557,10 +65558,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C567" t="s" s="2">
         <v>650</v>
@@ -65664,7 +65665,7 @@
     </row>
     <row r="568">
       <c r="A568" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B568" t="s" s="2">
         <v>429</v>
@@ -65769,7 +65770,7 @@
     </row>
     <row r="569">
       <c r="A569" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B569" t="s" s="2">
         <v>434</v>
@@ -65874,7 +65875,7 @@
     </row>
     <row r="570">
       <c r="A570" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B570" t="s" s="2">
         <v>435</v>
@@ -65977,7 +65978,7 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B571" t="s" s="2">
         <v>436</v>
@@ -66082,7 +66083,7 @@
     </row>
     <row r="572">
       <c r="A572" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B572" t="s" s="2">
         <v>437</v>
@@ -66187,7 +66188,7 @@
     </row>
     <row r="573">
       <c r="A573" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B573" t="s" s="2">
         <v>438</v>
@@ -66292,7 +66293,7 @@
     </row>
     <row r="574">
       <c r="A574" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B574" t="s" s="2">
         <v>440</v>
@@ -66397,7 +66398,7 @@
     </row>
     <row r="575">
       <c r="A575" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B575" t="s" s="2">
         <v>441</v>
@@ -66502,7 +66503,7 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B576" t="s" s="2">
         <v>442</v>
@@ -66609,7 +66610,7 @@
     </row>
     <row r="577">
       <c r="A577" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B577" t="s" s="2">
         <v>443</v>
@@ -66714,7 +66715,7 @@
     </row>
     <row r="578">
       <c r="A578" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B578" t="s" s="2">
         <v>447</v>
@@ -66819,7 +66820,7 @@
     </row>
     <row r="579">
       <c r="A579" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B579" t="s" s="2">
         <v>453</v>
@@ -66924,7 +66925,7 @@
     </row>
     <row r="580">
       <c r="A580" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B580" t="s" s="2">
         <v>459</v>
@@ -67031,7 +67032,7 @@
     </row>
     <row r="581">
       <c r="A581" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B581" t="s" s="2">
         <v>466</v>
@@ -67136,7 +67137,7 @@
     </row>
     <row r="582">
       <c r="A582" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B582" t="s" s="2">
         <v>999</v>
@@ -67245,7 +67246,7 @@
     </row>
     <row r="583">
       <c r="A583" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B583" t="s" s="2">
         <v>1002</v>
@@ -67354,10 +67355,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C584" t="s" s="2">
         <v>466</v>
@@ -67461,7 +67462,7 @@
     </row>
     <row r="585">
       <c r="A585" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B585" t="s" s="2">
         <v>478</v>
@@ -67531,7 +67532,7 @@
       </c>
       <c r="Z585" s="2"/>
       <c r="AA585" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AB585" t="s" s="2">
         <v>78</v>
@@ -67566,7 +67567,7 @@
     </row>
     <row r="586">
       <c r="A586" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B586" t="s" s="2">
         <v>486</v>
@@ -67673,7 +67674,7 @@
     </row>
     <row r="587">
       <c r="A587" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B587" t="s" s="2">
         <v>491</v>
@@ -67705,7 +67706,7 @@
         <v>274</v>
       </c>
       <c r="M587" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="N587" t="s" s="2">
         <v>494</v>
@@ -67778,7 +67779,7 @@
     </row>
     <row r="588">
       <c r="A588" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B588" t="s" s="2">
         <v>496</v>
@@ -67885,7 +67886,7 @@
     </row>
     <row r="589">
       <c r="A589" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B589" t="s" s="2">
         <v>502</v>
@@ -67992,7 +67993,7 @@
     </row>
     <row r="590">
       <c r="A590" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B590" t="s" s="2">
         <v>509</v>
@@ -68097,7 +68098,7 @@
     </row>
     <row r="591">
       <c r="A591" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B591" t="s" s="2">
         <v>514</v>
@@ -68204,7 +68205,7 @@
     </row>
     <row r="592">
       <c r="A592" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B592" t="s" s="2">
         <v>519</v>
@@ -68236,7 +68237,7 @@
         <v>380</v>
       </c>
       <c r="M592" t="s" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="N592" t="s" s="2">
         <v>522</v>
@@ -68303,7 +68304,7 @@
         <v>84</v>
       </c>
       <c r="AJ592" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AK592" t="s" s="2">
         <v>96</v>
@@ -68311,7 +68312,7 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B593" t="s" s="2">
         <v>535</v>
@@ -68343,13 +68344,13 @@
         <v>207</v>
       </c>
       <c r="M593" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="N593" t="s" s="2">
         <v>537</v>
       </c>
       <c r="O593" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="P593" t="s" s="2">
         <v>539</v>
@@ -68410,7 +68411,7 @@
         <v>84</v>
       </c>
       <c r="AJ593" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="AK593" t="s" s="2">
         <v>96</v>
@@ -68418,7 +68419,7 @@
     </row>
     <row r="594">
       <c r="A594" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B594" t="s" s="2">
         <v>543</v>
@@ -68525,7 +68526,7 @@
     </row>
     <row r="595">
       <c r="A595" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B595" t="s" s="2">
         <v>551</v>
@@ -68632,7 +68633,7 @@
     </row>
     <row r="596">
       <c r="A596" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B596" t="s" s="2">
         <v>556</v>
@@ -68737,7 +68738,7 @@
     </row>
     <row r="597">
       <c r="A597" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B597" t="s" s="2">
         <v>562</v>
@@ -68844,7 +68845,7 @@
     </row>
     <row r="598">
       <c r="A598" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B598" t="s" s="2">
         <v>569</v>
@@ -68949,7 +68950,7 @@
     </row>
     <row r="599">
       <c r="A599" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B599" t="s" s="2">
         <v>574</v>
@@ -69054,7 +69055,7 @@
     </row>
     <row r="600">
       <c r="A600" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B600" t="s" s="2">
         <v>579</v>
@@ -69161,7 +69162,7 @@
     </row>
     <row r="601">
       <c r="A601" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B601" t="s" s="2">
         <v>585</v>
@@ -69264,7 +69265,7 @@
     </row>
     <row r="602">
       <c r="A602" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B602" t="s" s="2">
         <v>586</v>
@@ -69369,7 +69370,7 @@
     </row>
     <row r="603">
       <c r="A603" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B603" t="s" s="2">
         <v>587</v>
@@ -69476,7 +69477,7 @@
     </row>
     <row r="604">
       <c r="A604" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B604" t="s" s="2">
         <v>588</v>
@@ -69579,7 +69580,7 @@
     </row>
     <row r="605">
       <c r="A605" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B605" t="s" s="2">
         <v>592</v>
@@ -69682,7 +69683,7 @@
     </row>
     <row r="606">
       <c r="A606" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B606" t="s" s="2">
         <v>595</v>
@@ -69789,7 +69790,7 @@
     </row>
     <row r="607">
       <c r="A607" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B607" t="s" s="2">
         <v>602</v>
@@ -69896,7 +69897,7 @@
     </row>
     <row r="608">
       <c r="A608" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B608" t="s" s="2">
         <v>609</v>
@@ -70001,7 +70002,7 @@
     </row>
     <row r="609">
       <c r="A609" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B609" t="s" s="2">
         <v>614</v>
@@ -70104,7 +70105,7 @@
     </row>
     <row r="610">
       <c r="A610" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B610" t="s" s="2">
         <v>617</v>
@@ -70133,16 +70134,16 @@
         <v>85</v>
       </c>
       <c r="L610" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="M610" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="N610" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="O610" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="P610" s="2"/>
       <c r="Q610" t="s" s="2">
@@ -70209,7 +70210,7 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B611" t="s" s="2">
         <v>622</v>
@@ -70238,13 +70239,13 @@
         <v>85</v>
       </c>
       <c r="L611" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="M611" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N611" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="O611" t="s" s="2">
         <v>626</v>
@@ -70314,7 +70315,7 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B612" t="s" s="2">
         <v>627</v>
@@ -70421,7 +70422,7 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B613" t="s" s="2">
         <v>632</v>
@@ -70524,7 +70525,7 @@
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B614" t="s" s="2">
         <v>633</v>
@@ -70629,7 +70630,7 @@
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B615" t="s" s="2">
         <v>634</v>
@@ -70736,7 +70737,7 @@
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B616" t="s" s="2">
         <v>635</v>
@@ -70843,7 +70844,7 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B617" t="s" s="2">
         <v>641</v>
@@ -70950,7 +70951,7 @@
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B618" t="s" s="2">
         <v>645</v>
@@ -71057,7 +71058,7 @@
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B619" t="s" s="2">
         <v>649</v>
@@ -71164,7 +71165,7 @@
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B620" t="s" s="2">
         <v>650</v>
